--- a/Code/Results/Cases/Case_1_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_29/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9589033622749434</v>
+        <v>0.9589033622749458</v>
       </c>
       <c r="D2">
         <v>1.029124706683161</v>
       </c>
       <c r="E2">
-        <v>0.9721952574486906</v>
+        <v>0.9721952574486933</v>
       </c>
       <c r="F2">
-        <v>0.9964334105268994</v>
+        <v>0.9964334105269007</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046340834469733</v>
+        <v>1.046340834469734</v>
       </c>
       <c r="J2">
-        <v>0.9823868147369212</v>
+        <v>0.9823868147369238</v>
       </c>
       <c r="K2">
-        <v>1.040192668622561</v>
+        <v>1.040192668622562</v>
       </c>
       <c r="L2">
-        <v>0.9840560460865797</v>
+        <v>0.9840560460865827</v>
       </c>
       <c r="M2">
-        <v>1.007942658262222</v>
+        <v>1.007942658262223</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9722222786686753</v>
+        <v>0.9722222786686761</v>
       </c>
       <c r="D3">
         <v>1.035008405011689</v>
       </c>
       <c r="E3">
-        <v>0.9836144683594216</v>
+        <v>0.9836144683594223</v>
       </c>
       <c r="F3">
         <v>1.006865045940341</v>
@@ -474,19 +474,19 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049843474372237</v>
+        <v>1.049843474372238</v>
       </c>
       <c r="J3">
-        <v>0.9934999421145752</v>
+        <v>0.9934999421145758</v>
       </c>
       <c r="K3">
-        <v>1.045212115964766</v>
+        <v>1.045212115964767</v>
       </c>
       <c r="L3">
-        <v>0.9944613890147751</v>
+        <v>0.9944613890147758</v>
       </c>
       <c r="M3">
-        <v>1.017410834382508</v>
+        <v>1.017410834382509</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,7 +503,7 @@
         <v>1.038643335511217</v>
       </c>
       <c r="E4">
-        <v>0.9906334151032474</v>
+        <v>0.9906334151032471</v>
       </c>
       <c r="F4">
         <v>1.013291297736376</v>
@@ -518,7 +518,7 @@
         <v>1.000320599223592</v>
       </c>
       <c r="K4">
-        <v>1.04829671013798</v>
+        <v>1.048296710137981</v>
       </c>
       <c r="L4">
         <v>1.000846216756078</v>
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9837459318211917</v>
+        <v>0.9837459318211903</v>
       </c>
       <c r="D5">
         <v>1.040133706306806</v>
       </c>
       <c r="E5">
-        <v>0.9935040397140189</v>
+        <v>0.9935040397140177</v>
       </c>
       <c r="F5">
-        <v>1.015922571326434</v>
+        <v>1.015922571326433</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052854942743746</v>
+        <v>1.052854942743745</v>
       </c>
       <c r="J5">
-        <v>1.003107779077994</v>
+        <v>1.003107779077992</v>
       </c>
       <c r="K5">
-        <v>1.049557651883944</v>
+        <v>1.049557651883943</v>
       </c>
       <c r="L5">
-        <v>1.003454916490033</v>
+        <v>1.003454916490031</v>
       </c>
       <c r="M5">
-        <v>1.025612669870558</v>
+        <v>1.025612669870557</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9843021178952729</v>
+        <v>0.984302117895272</v>
       </c>
       <c r="D6">
-        <v>1.040381823435033</v>
+        <v>1.040381823435032</v>
       </c>
       <c r="E6">
-        <v>0.9939815516898982</v>
+        <v>0.9939815516898973</v>
       </c>
       <c r="F6">
-        <v>1.016360437902748</v>
+        <v>1.016360437902747</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052999738836904</v>
+        <v>1.052999738836903</v>
       </c>
       <c r="J6">
-        <v>1.003571274568261</v>
+        <v>1.00357127456826</v>
       </c>
       <c r="K6">
-        <v>1.049767354926648</v>
+        <v>1.049767354926647</v>
       </c>
       <c r="L6">
-        <v>1.003888707890234</v>
+        <v>1.003888707890233</v>
       </c>
       <c r="M6">
-        <v>1.0260086900361</v>
+        <v>1.026008690036099</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9804469730944784</v>
+        <v>0.9804469730944771</v>
       </c>
       <c r="D7">
-        <v>1.038663394067057</v>
+        <v>1.038663394067056</v>
       </c>
       <c r="E7">
-        <v>0.9906720772547258</v>
+        <v>0.9906720772547246</v>
       </c>
       <c r="F7">
-        <v>1.013326724612303</v>
+        <v>1.013326724612301</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.05199498745493</v>
       </c>
       <c r="J7">
-        <v>1.000358146748983</v>
+        <v>1.000358146748981</v>
       </c>
       <c r="K7">
-        <v>1.048313695700094</v>
+        <v>1.048313695700092</v>
       </c>
       <c r="L7">
-        <v>1.000881361458896</v>
+        <v>1.000881361458895</v>
       </c>
       <c r="M7">
-        <v>1.023263976829333</v>
+        <v>1.023263976829332</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9635021103577939</v>
+        <v>0.9635021103577929</v>
       </c>
       <c r="D8">
-        <v>1.0311510614657</v>
+        <v>1.031151061465699</v>
       </c>
       <c r="E8">
-        <v>0.9761365975031254</v>
+        <v>0.9761365975031249</v>
       </c>
       <c r="F8">
-        <v>1.000030559870486</v>
+        <v>1.000030559870485</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047552425162907</v>
+        <v>1.047552425162906</v>
       </c>
       <c r="J8">
-        <v>0.9862247442451658</v>
+        <v>0.9862247442451652</v>
       </c>
       <c r="K8">
         <v>1.041924977993767</v>
       </c>
       <c r="L8">
-        <v>0.9876498194376562</v>
+        <v>0.9876498194376554</v>
       </c>
       <c r="M8">
-        <v>1.011210117218819</v>
+        <v>1.011210117218818</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9297071605717502</v>
+        <v>0.9297071605717487</v>
       </c>
       <c r="D9">
         <v>1.016401457085041</v>
       </c>
       <c r="E9">
-        <v>0.9472160547982169</v>
+        <v>0.9472160547982154</v>
       </c>
       <c r="F9">
-        <v>0.9737213248373783</v>
+        <v>0.9737213248373772</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.038615445296439</v>
       </c>
       <c r="J9">
-        <v>0.9580120521937805</v>
+        <v>0.9580120521937793</v>
       </c>
       <c r="K9">
         <v>1.029233920992207</v>
       </c>
       <c r="L9">
-        <v>0.9612277944873897</v>
+        <v>0.9612277944873884</v>
       </c>
       <c r="M9">
-        <v>0.9872556472246415</v>
+        <v>0.9872556472246404</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.90345670892876</v>
+        <v>0.9034567089287616</v>
       </c>
       <c r="D10">
         <v>1.0051977563492</v>
       </c>
       <c r="E10">
-        <v>0.9248350206626841</v>
+        <v>0.9248350206626853</v>
       </c>
       <c r="F10">
-        <v>0.9535062455637675</v>
+        <v>0.9535062455637684</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031657080131395</v>
+        <v>1.031657080131396</v>
       </c>
       <c r="J10">
-        <v>0.9361035242907014</v>
+        <v>0.9361035242907028</v>
       </c>
       <c r="K10">
         <v>1.019473793614433</v>
       </c>
       <c r="L10">
-        <v>0.9407083466710014</v>
+        <v>0.9407083466710027</v>
       </c>
       <c r="M10">
-        <v>0.9687689594817743</v>
+        <v>0.968768959481775</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8908459607850968</v>
+        <v>0.8908459607850955</v>
       </c>
       <c r="D11">
-        <v>0.9999043034221159</v>
+        <v>0.9999043034221152</v>
       </c>
       <c r="E11">
-        <v>0.9141147074810289</v>
+        <v>0.9141147074810275</v>
       </c>
       <c r="F11">
-        <v>0.9438720184436681</v>
+        <v>0.9438720184436672</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028322050284084</v>
+        <v>1.028322050284083</v>
       </c>
       <c r="J11">
-        <v>0.9255878541196959</v>
+        <v>0.9255878541196946</v>
       </c>
       <c r="K11">
         <v>1.014828024666047</v>
       </c>
       <c r="L11">
-        <v>0.930860910555553</v>
+        <v>0.9308609105555518</v>
       </c>
       <c r="M11">
-        <v>0.9599361720103629</v>
+        <v>0.9599361720103619</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8859294659982693</v>
+        <v>0.8859294659982704</v>
       </c>
       <c r="D12">
-        <v>0.9978571706972247</v>
+        <v>0.9978571706972253</v>
       </c>
       <c r="E12">
-        <v>0.9099413910420115</v>
+        <v>0.9099413910420128</v>
       </c>
       <c r="F12">
-        <v>0.9401304409856583</v>
+        <v>0.9401304409856595</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027024374711691</v>
+        <v>1.027024374711692</v>
       </c>
       <c r="J12">
-        <v>0.9214904974459407</v>
+        <v>0.921490497445942</v>
       </c>
       <c r="K12">
-        <v>1.013025539404034</v>
+        <v>1.013025539404035</v>
       </c>
       <c r="L12">
-        <v>0.9270243878075898</v>
+        <v>0.9270243878075913</v>
       </c>
       <c r="M12">
-        <v>0.956502142043329</v>
+        <v>0.9565021420433298</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8869955038108945</v>
+        <v>0.8869955038108966</v>
       </c>
       <c r="D13">
-        <v>0.9983002403361164</v>
+        <v>0.9983002403361168</v>
       </c>
       <c r="E13">
-        <v>0.9108459816037461</v>
+        <v>0.9108459816037481</v>
       </c>
       <c r="F13">
-        <v>0.9409410167233142</v>
+        <v>0.9409410167233156</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.02730560791392</v>
       </c>
       <c r="J13">
-        <v>0.9223787985806854</v>
+        <v>0.9223787985806875</v>
       </c>
       <c r="K13">
         <v>1.013415934030851</v>
       </c>
       <c r="L13">
-        <v>0.9278561150608945</v>
+        <v>0.9278561150608964</v>
       </c>
       <c r="M13">
-        <v>0.9572462639265256</v>
+        <v>0.9572462639265269</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.890444625445118</v>
+        <v>0.8904446254451189</v>
       </c>
       <c r="D14">
-        <v>0.9997368401559682</v>
+        <v>0.9997368401559683</v>
       </c>
       <c r="E14">
-        <v>0.9137739045739796</v>
+        <v>0.9137739045739804</v>
       </c>
       <c r="F14">
-        <v>0.9435662818716645</v>
+        <v>0.9435662818716649</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.028216060364575</v>
       </c>
       <c r="J14">
-        <v>0.9252533317741521</v>
+        <v>0.9252533317741528</v>
       </c>
       <c r="K14">
         <v>1.014680696371775</v>
       </c>
       <c r="L14">
-        <v>0.9305476726749909</v>
+        <v>0.9305476726749918</v>
       </c>
       <c r="M14">
-        <v>0.9596556429741915</v>
+        <v>0.959655642974192</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.89253731153682</v>
+        <v>0.892537311536822</v>
       </c>
       <c r="D15">
         <v>1.000610732866646</v>
       </c>
       <c r="E15">
-        <v>0.9155512127827629</v>
+        <v>0.9155512127827651</v>
       </c>
       <c r="F15">
-        <v>0.945161086620026</v>
+        <v>0.9451610866200273</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028768835344661</v>
+        <v>1.028768835344662</v>
       </c>
       <c r="J15">
-        <v>0.9269977346539714</v>
+        <v>0.9269977346539735</v>
       </c>
       <c r="K15">
-        <v>1.015449277235168</v>
+        <v>1.015449277235169</v>
       </c>
       <c r="L15">
-        <v>0.9321811055362647</v>
+        <v>0.9321811055362665</v>
       </c>
       <c r="M15">
-        <v>0.961118807227327</v>
+        <v>0.9611188072273283</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9042639219693729</v>
+        <v>0.9042639219693694</v>
       </c>
       <c r="D16">
         <v>1.00553862598182</v>
       </c>
       <c r="E16">
-        <v>0.9255219691534696</v>
+        <v>0.9255219691534663</v>
       </c>
       <c r="F16">
-        <v>0.9541247025139786</v>
+        <v>0.9541247025139761</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031870815305512</v>
+        <v>1.031870815305511</v>
       </c>
       <c r="J16">
-        <v>0.9367768885326073</v>
+        <v>0.936776888532604</v>
       </c>
       <c r="K16">
-        <v>1.019772207719564</v>
+        <v>1.019772207719563</v>
       </c>
       <c r="L16">
-        <v>0.9413389686970932</v>
+        <v>0.94133896869709</v>
       </c>
       <c r="M16">
-        <v>0.969335491873701</v>
+        <v>0.9693354918736987</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.911259377189221</v>
+        <v>0.91125937718922</v>
       </c>
       <c r="D17">
-        <v>1.008502634987806</v>
+        <v>1.008502634987805</v>
       </c>
       <c r="E17">
-        <v>0.931478748509851</v>
+        <v>0.9314787485098498</v>
       </c>
       <c r="F17">
-        <v>0.9594930172520706</v>
+        <v>0.9594930172520695</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033724049758845</v>
+        <v>1.033724049758844</v>
       </c>
       <c r="J17">
-        <v>0.9426134686346471</v>
+        <v>0.9426134686346462</v>
       </c>
       <c r="K17">
         <v>1.022363206734497</v>
       </c>
       <c r="L17">
-        <v>0.9468052506455413</v>
+        <v>0.9468052506455403</v>
       </c>
       <c r="M17">
-        <v>0.9742506213520279</v>
+        <v>0.9742506213520268</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9152234098845917</v>
+        <v>0.9152234098845892</v>
       </c>
       <c r="D18">
         <v>1.010190014850555</v>
       </c>
       <c r="E18">
-        <v>0.9348569570144655</v>
+        <v>0.9348569570144631</v>
       </c>
       <c r="F18">
-        <v>0.9625417826041479</v>
+        <v>0.9625417826041459</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034774804429916</v>
+        <v>1.034774804429915</v>
       </c>
       <c r="J18">
-        <v>0.9459215776880163</v>
+        <v>0.9459215776880142</v>
       </c>
       <c r="K18">
-        <v>1.023835143373091</v>
+        <v>1.02383514337309</v>
       </c>
       <c r="L18">
-        <v>0.9499035970451358</v>
+        <v>0.9499035970451335</v>
       </c>
       <c r="M18">
-        <v>0.9770400141106463</v>
+        <v>0.9770400141106443</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.916556443736819</v>
+        <v>0.9165564437368217</v>
       </c>
       <c r="D19">
-        <v>1.010758695021709</v>
+        <v>1.01075869502171</v>
       </c>
       <c r="E19">
-        <v>0.9359934216579394</v>
+        <v>0.9359934216579417</v>
       </c>
       <c r="F19">
-        <v>0.963568107136725</v>
+        <v>0.963568107136727</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035128223986877</v>
+        <v>1.035128223986878</v>
       </c>
       <c r="J19">
-        <v>0.9470341429109125</v>
+        <v>0.9470341429109151</v>
       </c>
       <c r="K19">
-        <v>1.024330706513742</v>
+        <v>1.024330706513743</v>
       </c>
       <c r="L19">
-        <v>0.9509456306456909</v>
+        <v>0.9509456306456933</v>
       </c>
       <c r="M19">
-        <v>0.9779786935080171</v>
+        <v>0.9779786935080191</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9105211370542168</v>
+        <v>0.9105211370542188</v>
       </c>
       <c r="D20">
-        <v>1.008189003835852</v>
+        <v>1.008189003835853</v>
       </c>
       <c r="E20">
-        <v>0.9308498253822214</v>
+        <v>0.9308498253822231</v>
       </c>
       <c r="F20">
-        <v>0.9589257669689776</v>
+        <v>0.9589257669689789</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033528404006619</v>
+        <v>1.03352840400662</v>
       </c>
       <c r="J20">
-        <v>0.9419974408729197</v>
+        <v>0.9419974408729214</v>
       </c>
       <c r="K20">
-        <v>1.022089371781132</v>
+        <v>1.022089371781133</v>
       </c>
       <c r="L20">
-        <v>0.9462282926568717</v>
+        <v>0.9462282926568732</v>
       </c>
       <c r="M20">
-        <v>0.9737314685933389</v>
+        <v>0.9737314685933403</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8894358093695662</v>
+        <v>0.889435809369568</v>
       </c>
       <c r="D21">
-        <v>0.9993161738116851</v>
+        <v>0.9993161738116861</v>
       </c>
       <c r="E21">
-        <v>0.9129173497451097</v>
+        <v>0.9129173497451116</v>
       </c>
       <c r="F21">
-        <v>0.9427980097923979</v>
+        <v>0.9427980097923992</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027949684763508</v>
+        <v>1.027949684763509</v>
       </c>
       <c r="J21">
-        <v>0.9244125012321452</v>
+        <v>0.924412501232147</v>
       </c>
       <c r="K21">
-        <v>1.014310513081458</v>
+        <v>1.01431051308146</v>
       </c>
       <c r="L21">
-        <v>0.9297603494981725</v>
+        <v>0.9297603494981741</v>
       </c>
       <c r="M21">
-        <v>0.9589506532973225</v>
+        <v>0.958950653297324</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8747973511714007</v>
+        <v>0.8747973511714014</v>
       </c>
       <c r="D22">
-        <v>0.993257666268991</v>
+        <v>0.9932576662689907</v>
       </c>
       <c r="E22">
-        <v>0.9005056399937663</v>
+        <v>0.9005056399937668</v>
       </c>
       <c r="F22">
-        <v>0.9316898962971599</v>
+        <v>0.93168989629716</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,13 +1199,13 @@
         <v>1.024092831190352</v>
       </c>
       <c r="J22">
-        <v>0.9122188956012041</v>
+        <v>0.9122188956012048</v>
       </c>
       <c r="K22">
-        <v>1.008963883917947</v>
+        <v>1.008963883917946</v>
       </c>
       <c r="L22">
-        <v>0.9183442268592541</v>
+        <v>0.9183442268592545</v>
       </c>
       <c r="M22">
         <v>0.9487479540965554</v>
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8827086458462808</v>
+        <v>0.8827086458462823</v>
       </c>
       <c r="D23">
-        <v>0.9965212691472713</v>
+        <v>0.9965212691472715</v>
       </c>
       <c r="E23">
-        <v>0.9072093954249814</v>
+        <v>0.9072093954249827</v>
       </c>
       <c r="F23">
-        <v>0.9376838515765021</v>
+        <v>0.9376838515765026</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.026175187847477</v>
       </c>
       <c r="J23">
-        <v>0.918807110452685</v>
+        <v>0.9188071104526865</v>
       </c>
       <c r="K23">
         <v>1.011847539288121</v>
       </c>
       <c r="L23">
-        <v>0.9245119910216837</v>
+        <v>0.924511991021685</v>
       </c>
       <c r="M23">
-        <v>0.9542555550731835</v>
+        <v>0.954255555073184</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9108550721719976</v>
+        <v>0.9108550721719966</v>
       </c>
       <c r="D24">
         <v>1.008330847398986</v>
       </c>
       <c r="E24">
-        <v>0.9311343036023652</v>
+        <v>0.9311343036023643</v>
       </c>
       <c r="F24">
-        <v>0.9591823356721633</v>
+        <v>0.9591823356721622</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033616900497618</v>
+        <v>1.033616900497617</v>
       </c>
       <c r="J24">
-        <v>0.94227609219548</v>
+        <v>0.9422760921954793</v>
       </c>
       <c r="K24">
-        <v>1.022213226629471</v>
+        <v>1.02221322662947</v>
       </c>
       <c r="L24">
-        <v>0.9464892709738936</v>
+        <v>0.9464892709738929</v>
       </c>
       <c r="M24">
-        <v>0.9739662888938674</v>
+        <v>0.9739662888938666</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9390039853200005</v>
+        <v>0.9390039853199986</v>
       </c>
       <c r="D25">
-        <v>1.020424857734642</v>
+        <v>1.020424857734641</v>
       </c>
       <c r="E25">
-        <v>0.9551612272296417</v>
+        <v>0.9551612272296399</v>
       </c>
       <c r="F25">
-        <v>0.9809288795145098</v>
+        <v>0.9809288795145084</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041079594256913</v>
+        <v>1.041079594256912</v>
       </c>
       <c r="J25">
-        <v>0.9657741634452218</v>
+        <v>0.9657741634452198</v>
       </c>
       <c r="K25">
-        <v>1.032714167304857</v>
+        <v>1.032714167304856</v>
       </c>
       <c r="L25">
-        <v>0.9684979177295633</v>
+        <v>0.9684979177295614</v>
       </c>
       <c r="M25">
-        <v>0.9938306450145146</v>
+        <v>0.993830645014513</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_29/res_bus/vm_pu.xlsx
@@ -421,34 +421,34 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9589033622749458</v>
+        <v>0.9589033622749434</v>
       </c>
       <c r="D2">
         <v>1.029124706683161</v>
       </c>
       <c r="E2">
-        <v>0.9721952574486933</v>
+        <v>0.9721952574486906</v>
       </c>
       <c r="F2">
-        <v>0.9964334105269007</v>
+        <v>0.9964334105268994</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046340834469734</v>
+        <v>1.046340834469733</v>
       </c>
       <c r="J2">
-        <v>0.9823868147369238</v>
+        <v>0.9823868147369212</v>
       </c>
       <c r="K2">
-        <v>1.040192668622562</v>
+        <v>1.040192668622561</v>
       </c>
       <c r="L2">
-        <v>0.9840560460865827</v>
+        <v>0.9840560460865797</v>
       </c>
       <c r="M2">
-        <v>1.007942658262223</v>
+        <v>1.007942658262222</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,13 +459,13 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9722222786686761</v>
+        <v>0.9722222786686753</v>
       </c>
       <c r="D3">
         <v>1.035008405011689</v>
       </c>
       <c r="E3">
-        <v>0.9836144683594223</v>
+        <v>0.9836144683594216</v>
       </c>
       <c r="F3">
         <v>1.006865045940341</v>
@@ -474,19 +474,19 @@
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049843474372238</v>
+        <v>1.049843474372237</v>
       </c>
       <c r="J3">
-        <v>0.9934999421145758</v>
+        <v>0.9934999421145752</v>
       </c>
       <c r="K3">
-        <v>1.045212115964767</v>
+        <v>1.045212115964766</v>
       </c>
       <c r="L3">
-        <v>0.9944613890147758</v>
+        <v>0.9944613890147751</v>
       </c>
       <c r="M3">
-        <v>1.017410834382509</v>
+        <v>1.017410834382508</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,7 +503,7 @@
         <v>1.038643335511217</v>
       </c>
       <c r="E4">
-        <v>0.9906334151032471</v>
+        <v>0.9906334151032474</v>
       </c>
       <c r="F4">
         <v>1.013291297736376</v>
@@ -518,7 +518,7 @@
         <v>1.000320599223592</v>
       </c>
       <c r="K4">
-        <v>1.048296710137981</v>
+        <v>1.04829671013798</v>
       </c>
       <c r="L4">
         <v>1.000846216756078</v>
@@ -535,34 +535,34 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9837459318211903</v>
+        <v>0.9837459318211917</v>
       </c>
       <c r="D5">
         <v>1.040133706306806</v>
       </c>
       <c r="E5">
-        <v>0.9935040397140177</v>
+        <v>0.9935040397140189</v>
       </c>
       <c r="F5">
-        <v>1.015922571326433</v>
+        <v>1.015922571326434</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052854942743745</v>
+        <v>1.052854942743746</v>
       </c>
       <c r="J5">
-        <v>1.003107779077992</v>
+        <v>1.003107779077994</v>
       </c>
       <c r="K5">
-        <v>1.049557651883943</v>
+        <v>1.049557651883944</v>
       </c>
       <c r="L5">
-        <v>1.003454916490031</v>
+        <v>1.003454916490033</v>
       </c>
       <c r="M5">
-        <v>1.025612669870557</v>
+        <v>1.025612669870558</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.984302117895272</v>
+        <v>0.9843021178952729</v>
       </c>
       <c r="D6">
-        <v>1.040381823435032</v>
+        <v>1.040381823435033</v>
       </c>
       <c r="E6">
-        <v>0.9939815516898973</v>
+        <v>0.9939815516898982</v>
       </c>
       <c r="F6">
-        <v>1.016360437902747</v>
+        <v>1.016360437902748</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052999738836903</v>
+        <v>1.052999738836904</v>
       </c>
       <c r="J6">
-        <v>1.00357127456826</v>
+        <v>1.003571274568261</v>
       </c>
       <c r="K6">
-        <v>1.049767354926647</v>
+        <v>1.049767354926648</v>
       </c>
       <c r="L6">
-        <v>1.003888707890233</v>
+        <v>1.003888707890234</v>
       </c>
       <c r="M6">
-        <v>1.026008690036099</v>
+        <v>1.0260086900361</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,16 +611,16 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9804469730944771</v>
+        <v>0.9804469730944784</v>
       </c>
       <c r="D7">
-        <v>1.038663394067056</v>
+        <v>1.038663394067057</v>
       </c>
       <c r="E7">
-        <v>0.9906720772547246</v>
+        <v>0.9906720772547258</v>
       </c>
       <c r="F7">
-        <v>1.013326724612301</v>
+        <v>1.013326724612303</v>
       </c>
       <c r="G7">
         <v>1</v>
@@ -629,16 +629,16 @@
         <v>1.05199498745493</v>
       </c>
       <c r="J7">
-        <v>1.000358146748981</v>
+        <v>1.000358146748983</v>
       </c>
       <c r="K7">
-        <v>1.048313695700092</v>
+        <v>1.048313695700094</v>
       </c>
       <c r="L7">
-        <v>1.000881361458895</v>
+        <v>1.000881361458896</v>
       </c>
       <c r="M7">
-        <v>1.023263976829332</v>
+        <v>1.023263976829333</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +649,34 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9635021103577929</v>
+        <v>0.9635021103577939</v>
       </c>
       <c r="D8">
-        <v>1.031151061465699</v>
+        <v>1.0311510614657</v>
       </c>
       <c r="E8">
-        <v>0.9761365975031249</v>
+        <v>0.9761365975031254</v>
       </c>
       <c r="F8">
-        <v>1.000030559870485</v>
+        <v>1.000030559870486</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047552425162906</v>
+        <v>1.047552425162907</v>
       </c>
       <c r="J8">
-        <v>0.9862247442451652</v>
+        <v>0.9862247442451658</v>
       </c>
       <c r="K8">
         <v>1.041924977993767</v>
       </c>
       <c r="L8">
-        <v>0.9876498194376554</v>
+        <v>0.9876498194376562</v>
       </c>
       <c r="M8">
-        <v>1.011210117218818</v>
+        <v>1.011210117218819</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9297071605717487</v>
+        <v>0.9297071605717502</v>
       </c>
       <c r="D9">
         <v>1.016401457085041</v>
       </c>
       <c r="E9">
-        <v>0.9472160547982154</v>
+        <v>0.9472160547982169</v>
       </c>
       <c r="F9">
-        <v>0.9737213248373772</v>
+        <v>0.9737213248373783</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.038615445296439</v>
       </c>
       <c r="J9">
-        <v>0.9580120521937793</v>
+        <v>0.9580120521937805</v>
       </c>
       <c r="K9">
         <v>1.029233920992207</v>
       </c>
       <c r="L9">
-        <v>0.9612277944873884</v>
+        <v>0.9612277944873897</v>
       </c>
       <c r="M9">
-        <v>0.9872556472246404</v>
+        <v>0.9872556472246415</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9034567089287616</v>
+        <v>0.90345670892876</v>
       </c>
       <c r="D10">
         <v>1.0051977563492</v>
       </c>
       <c r="E10">
-        <v>0.9248350206626853</v>
+        <v>0.9248350206626841</v>
       </c>
       <c r="F10">
-        <v>0.9535062455637684</v>
+        <v>0.9535062455637675</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031657080131396</v>
+        <v>1.031657080131395</v>
       </c>
       <c r="J10">
-        <v>0.9361035242907028</v>
+        <v>0.9361035242907014</v>
       </c>
       <c r="K10">
         <v>1.019473793614433</v>
       </c>
       <c r="L10">
-        <v>0.9407083466710027</v>
+        <v>0.9407083466710014</v>
       </c>
       <c r="M10">
-        <v>0.968768959481775</v>
+        <v>0.9687689594817743</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8908459607850955</v>
+        <v>0.8908459607850968</v>
       </c>
       <c r="D11">
-        <v>0.9999043034221152</v>
+        <v>0.9999043034221159</v>
       </c>
       <c r="E11">
-        <v>0.9141147074810275</v>
+        <v>0.9141147074810289</v>
       </c>
       <c r="F11">
-        <v>0.9438720184436672</v>
+        <v>0.9438720184436681</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028322050284083</v>
+        <v>1.028322050284084</v>
       </c>
       <c r="J11">
-        <v>0.9255878541196946</v>
+        <v>0.9255878541196959</v>
       </c>
       <c r="K11">
         <v>1.014828024666047</v>
       </c>
       <c r="L11">
-        <v>0.9308609105555518</v>
+        <v>0.930860910555553</v>
       </c>
       <c r="M11">
-        <v>0.9599361720103619</v>
+        <v>0.9599361720103629</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8859294659982704</v>
+        <v>0.8859294659982693</v>
       </c>
       <c r="D12">
-        <v>0.9978571706972253</v>
+        <v>0.9978571706972247</v>
       </c>
       <c r="E12">
-        <v>0.9099413910420128</v>
+        <v>0.9099413910420115</v>
       </c>
       <c r="F12">
-        <v>0.9401304409856595</v>
+        <v>0.9401304409856583</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027024374711692</v>
+        <v>1.027024374711691</v>
       </c>
       <c r="J12">
-        <v>0.921490497445942</v>
+        <v>0.9214904974459407</v>
       </c>
       <c r="K12">
-        <v>1.013025539404035</v>
+        <v>1.013025539404034</v>
       </c>
       <c r="L12">
-        <v>0.9270243878075913</v>
+        <v>0.9270243878075898</v>
       </c>
       <c r="M12">
-        <v>0.9565021420433298</v>
+        <v>0.956502142043329</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8869955038108966</v>
+        <v>0.8869955038108945</v>
       </c>
       <c r="D13">
-        <v>0.9983002403361168</v>
+        <v>0.9983002403361164</v>
       </c>
       <c r="E13">
-        <v>0.9108459816037481</v>
+        <v>0.9108459816037461</v>
       </c>
       <c r="F13">
-        <v>0.9409410167233156</v>
+        <v>0.9409410167233142</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.02730560791392</v>
       </c>
       <c r="J13">
-        <v>0.9223787985806875</v>
+        <v>0.9223787985806854</v>
       </c>
       <c r="K13">
         <v>1.013415934030851</v>
       </c>
       <c r="L13">
-        <v>0.9278561150608964</v>
+        <v>0.9278561150608945</v>
       </c>
       <c r="M13">
-        <v>0.9572462639265269</v>
+        <v>0.9572462639265256</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,16 +877,16 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8904446254451189</v>
+        <v>0.890444625445118</v>
       </c>
       <c r="D14">
-        <v>0.9997368401559683</v>
+        <v>0.9997368401559682</v>
       </c>
       <c r="E14">
-        <v>0.9137739045739804</v>
+        <v>0.9137739045739796</v>
       </c>
       <c r="F14">
-        <v>0.9435662818716649</v>
+        <v>0.9435662818716645</v>
       </c>
       <c r="G14">
         <v>1</v>
@@ -895,16 +895,16 @@
         <v>1.028216060364575</v>
       </c>
       <c r="J14">
-        <v>0.9252533317741528</v>
+        <v>0.9252533317741521</v>
       </c>
       <c r="K14">
         <v>1.014680696371775</v>
       </c>
       <c r="L14">
-        <v>0.9305476726749918</v>
+        <v>0.9305476726749909</v>
       </c>
       <c r="M14">
-        <v>0.959655642974192</v>
+        <v>0.9596556429741915</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.892537311536822</v>
+        <v>0.89253731153682</v>
       </c>
       <c r="D15">
         <v>1.000610732866646</v>
       </c>
       <c r="E15">
-        <v>0.9155512127827651</v>
+        <v>0.9155512127827629</v>
       </c>
       <c r="F15">
-        <v>0.9451610866200273</v>
+        <v>0.945161086620026</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028768835344662</v>
+        <v>1.028768835344661</v>
       </c>
       <c r="J15">
-        <v>0.9269977346539735</v>
+        <v>0.9269977346539714</v>
       </c>
       <c r="K15">
-        <v>1.015449277235169</v>
+        <v>1.015449277235168</v>
       </c>
       <c r="L15">
-        <v>0.9321811055362665</v>
+        <v>0.9321811055362647</v>
       </c>
       <c r="M15">
-        <v>0.9611188072273283</v>
+        <v>0.961118807227327</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9042639219693694</v>
+        <v>0.9042639219693729</v>
       </c>
       <c r="D16">
         <v>1.00553862598182</v>
       </c>
       <c r="E16">
-        <v>0.9255219691534663</v>
+        <v>0.9255219691534696</v>
       </c>
       <c r="F16">
-        <v>0.9541247025139761</v>
+        <v>0.9541247025139786</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031870815305511</v>
+        <v>1.031870815305512</v>
       </c>
       <c r="J16">
-        <v>0.936776888532604</v>
+        <v>0.9367768885326073</v>
       </c>
       <c r="K16">
-        <v>1.019772207719563</v>
+        <v>1.019772207719564</v>
       </c>
       <c r="L16">
-        <v>0.94133896869709</v>
+        <v>0.9413389686970932</v>
       </c>
       <c r="M16">
-        <v>0.9693354918736987</v>
+        <v>0.969335491873701</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.91125937718922</v>
+        <v>0.911259377189221</v>
       </c>
       <c r="D17">
-        <v>1.008502634987805</v>
+        <v>1.008502634987806</v>
       </c>
       <c r="E17">
-        <v>0.9314787485098498</v>
+        <v>0.931478748509851</v>
       </c>
       <c r="F17">
-        <v>0.9594930172520695</v>
+        <v>0.9594930172520706</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033724049758844</v>
+        <v>1.033724049758845</v>
       </c>
       <c r="J17">
-        <v>0.9426134686346462</v>
+        <v>0.9426134686346471</v>
       </c>
       <c r="K17">
         <v>1.022363206734497</v>
       </c>
       <c r="L17">
-        <v>0.9468052506455403</v>
+        <v>0.9468052506455413</v>
       </c>
       <c r="M17">
-        <v>0.9742506213520268</v>
+        <v>0.9742506213520279</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9152234098845892</v>
+        <v>0.9152234098845917</v>
       </c>
       <c r="D18">
         <v>1.010190014850555</v>
       </c>
       <c r="E18">
-        <v>0.9348569570144631</v>
+        <v>0.9348569570144655</v>
       </c>
       <c r="F18">
-        <v>0.9625417826041459</v>
+        <v>0.9625417826041479</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034774804429915</v>
+        <v>1.034774804429916</v>
       </c>
       <c r="J18">
-        <v>0.9459215776880142</v>
+        <v>0.9459215776880163</v>
       </c>
       <c r="K18">
-        <v>1.02383514337309</v>
+        <v>1.023835143373091</v>
       </c>
       <c r="L18">
-        <v>0.9499035970451335</v>
+        <v>0.9499035970451358</v>
       </c>
       <c r="M18">
-        <v>0.9770400141106443</v>
+        <v>0.9770400141106463</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,34 +1067,34 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9165564437368217</v>
+        <v>0.916556443736819</v>
       </c>
       <c r="D19">
-        <v>1.01075869502171</v>
+        <v>1.010758695021709</v>
       </c>
       <c r="E19">
-        <v>0.9359934216579417</v>
+        <v>0.9359934216579394</v>
       </c>
       <c r="F19">
-        <v>0.963568107136727</v>
+        <v>0.963568107136725</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035128223986878</v>
+        <v>1.035128223986877</v>
       </c>
       <c r="J19">
-        <v>0.9470341429109151</v>
+        <v>0.9470341429109125</v>
       </c>
       <c r="K19">
-        <v>1.024330706513743</v>
+        <v>1.024330706513742</v>
       </c>
       <c r="L19">
-        <v>0.9509456306456933</v>
+        <v>0.9509456306456909</v>
       </c>
       <c r="M19">
-        <v>0.9779786935080191</v>
+        <v>0.9779786935080171</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9105211370542188</v>
+        <v>0.9105211370542168</v>
       </c>
       <c r="D20">
-        <v>1.008189003835853</v>
+        <v>1.008189003835852</v>
       </c>
       <c r="E20">
-        <v>0.9308498253822231</v>
+        <v>0.9308498253822214</v>
       </c>
       <c r="F20">
-        <v>0.9589257669689789</v>
+        <v>0.9589257669689776</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03352840400662</v>
+        <v>1.033528404006619</v>
       </c>
       <c r="J20">
-        <v>0.9419974408729214</v>
+        <v>0.9419974408729197</v>
       </c>
       <c r="K20">
-        <v>1.022089371781133</v>
+        <v>1.022089371781132</v>
       </c>
       <c r="L20">
-        <v>0.9462282926568732</v>
+        <v>0.9462282926568717</v>
       </c>
       <c r="M20">
-        <v>0.9737314685933403</v>
+        <v>0.9737314685933389</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.889435809369568</v>
+        <v>0.8894358093695662</v>
       </c>
       <c r="D21">
-        <v>0.9993161738116861</v>
+        <v>0.9993161738116851</v>
       </c>
       <c r="E21">
-        <v>0.9129173497451116</v>
+        <v>0.9129173497451097</v>
       </c>
       <c r="F21">
-        <v>0.9427980097923992</v>
+        <v>0.9427980097923979</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027949684763509</v>
+        <v>1.027949684763508</v>
       </c>
       <c r="J21">
-        <v>0.924412501232147</v>
+        <v>0.9244125012321452</v>
       </c>
       <c r="K21">
-        <v>1.01431051308146</v>
+        <v>1.014310513081458</v>
       </c>
       <c r="L21">
-        <v>0.9297603494981741</v>
+        <v>0.9297603494981725</v>
       </c>
       <c r="M21">
-        <v>0.958950653297324</v>
+        <v>0.9589506532973225</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8747973511714014</v>
+        <v>0.8747973511714007</v>
       </c>
       <c r="D22">
-        <v>0.9932576662689907</v>
+        <v>0.993257666268991</v>
       </c>
       <c r="E22">
-        <v>0.9005056399937668</v>
+        <v>0.9005056399937663</v>
       </c>
       <c r="F22">
-        <v>0.93168989629716</v>
+        <v>0.9316898962971599</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,13 +1199,13 @@
         <v>1.024092831190352</v>
       </c>
       <c r="J22">
-        <v>0.9122188956012048</v>
+        <v>0.9122188956012041</v>
       </c>
       <c r="K22">
-        <v>1.008963883917946</v>
+        <v>1.008963883917947</v>
       </c>
       <c r="L22">
-        <v>0.9183442268592545</v>
+        <v>0.9183442268592541</v>
       </c>
       <c r="M22">
         <v>0.9487479540965554</v>
@@ -1219,16 +1219,16 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8827086458462823</v>
+        <v>0.8827086458462808</v>
       </c>
       <c r="D23">
-        <v>0.9965212691472715</v>
+        <v>0.9965212691472713</v>
       </c>
       <c r="E23">
-        <v>0.9072093954249827</v>
+        <v>0.9072093954249814</v>
       </c>
       <c r="F23">
-        <v>0.9376838515765026</v>
+        <v>0.9376838515765021</v>
       </c>
       <c r="G23">
         <v>1</v>
@@ -1237,16 +1237,16 @@
         <v>1.026175187847477</v>
       </c>
       <c r="J23">
-        <v>0.9188071104526865</v>
+        <v>0.918807110452685</v>
       </c>
       <c r="K23">
         <v>1.011847539288121</v>
       </c>
       <c r="L23">
-        <v>0.924511991021685</v>
+        <v>0.9245119910216837</v>
       </c>
       <c r="M23">
-        <v>0.954255555073184</v>
+        <v>0.9542555550731835</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,34 +1257,34 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9108550721719966</v>
+        <v>0.9108550721719976</v>
       </c>
       <c r="D24">
         <v>1.008330847398986</v>
       </c>
       <c r="E24">
-        <v>0.9311343036023643</v>
+        <v>0.9311343036023652</v>
       </c>
       <c r="F24">
-        <v>0.9591823356721622</v>
+        <v>0.9591823356721633</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033616900497617</v>
+        <v>1.033616900497618</v>
       </c>
       <c r="J24">
-        <v>0.9422760921954793</v>
+        <v>0.94227609219548</v>
       </c>
       <c r="K24">
-        <v>1.02221322662947</v>
+        <v>1.022213226629471</v>
       </c>
       <c r="L24">
-        <v>0.9464892709738929</v>
+        <v>0.9464892709738936</v>
       </c>
       <c r="M24">
-        <v>0.9739662888938666</v>
+        <v>0.9739662888938674</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,34 +1295,34 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9390039853199986</v>
+        <v>0.9390039853200005</v>
       </c>
       <c r="D25">
-        <v>1.020424857734641</v>
+        <v>1.020424857734642</v>
       </c>
       <c r="E25">
-        <v>0.9551612272296399</v>
+        <v>0.9551612272296417</v>
       </c>
       <c r="F25">
-        <v>0.9809288795145084</v>
+        <v>0.9809288795145098</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041079594256912</v>
+        <v>1.041079594256913</v>
       </c>
       <c r="J25">
-        <v>0.9657741634452198</v>
+        <v>0.9657741634452218</v>
       </c>
       <c r="K25">
-        <v>1.032714167304856</v>
+        <v>1.032714167304857</v>
       </c>
       <c r="L25">
-        <v>0.9684979177295614</v>
+        <v>0.9684979177295633</v>
       </c>
       <c r="M25">
-        <v>0.993830645014513</v>
+        <v>0.9938306450145146</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_29/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9589033622749434</v>
+        <v>0.9629904934058313</v>
       </c>
       <c r="D2">
-        <v>1.029124706683161</v>
+        <v>1.030396072113047</v>
       </c>
       <c r="E2">
-        <v>0.9721952574486906</v>
+        <v>0.9756509282183509</v>
       </c>
       <c r="F2">
-        <v>0.9964334105268994</v>
+        <v>0.9991760125833997</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.046340834469733</v>
+        <v>1.047327920346498</v>
       </c>
       <c r="J2">
-        <v>0.9823868147369212</v>
+        <v>0.9863374543488446</v>
       </c>
       <c r="K2">
-        <v>1.040192668622561</v>
+        <v>1.041447580424701</v>
       </c>
       <c r="L2">
-        <v>0.9840560460865797</v>
+        <v>0.9874602403630754</v>
       </c>
       <c r="M2">
-        <v>1.007942658262222</v>
+        <v>1.010646838808293</v>
+      </c>
+      <c r="N2">
+        <v>0.9877381666685072</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9722222786686753</v>
+        <v>0.976251668666821</v>
       </c>
       <c r="D3">
-        <v>1.035008405011689</v>
+        <v>1.036260547894964</v>
       </c>
       <c r="E3">
-        <v>0.9836144683594216</v>
+        <v>0.987024971666978</v>
       </c>
       <c r="F3">
-        <v>1.006865045940341</v>
+        <v>1.009567680176919</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.049843474372237</v>
+        <v>1.05081788058389</v>
       </c>
       <c r="J3">
-        <v>0.9934999421145752</v>
+        <v>0.9974113609601082</v>
       </c>
       <c r="K3">
-        <v>1.045212115964766</v>
+        <v>1.046449573664824</v>
       </c>
       <c r="L3">
-        <v>0.9944613890147751</v>
+        <v>0.9978266072630949</v>
       </c>
       <c r="M3">
-        <v>1.017410834382508</v>
+        <v>1.02007958710369</v>
+      </c>
+      <c r="N3">
+        <v>0.9988277994973536</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.980401930534759</v>
+        <v>0.9843998092672578</v>
       </c>
       <c r="D4">
-        <v>1.038643335511217</v>
+        <v>1.039884901408777</v>
       </c>
       <c r="E4">
-        <v>0.9906334151032474</v>
+        <v>0.9940193774703783</v>
       </c>
       <c r="F4">
-        <v>1.013291297736376</v>
+        <v>1.015972000749678</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05198323321348</v>
+        <v>1.052950787783729</v>
       </c>
       <c r="J4">
-        <v>1.000320599223592</v>
+        <v>1.004211166603891</v>
       </c>
       <c r="K4">
-        <v>1.04829671013798</v>
+        <v>1.049524651018274</v>
       </c>
       <c r="L4">
-        <v>1.000846216756078</v>
+        <v>1.004190523326559</v>
       </c>
       <c r="M4">
-        <v>1.02323191211148</v>
+        <v>1.02588140514793</v>
+      </c>
+      <c r="N4">
+        <v>1.005637261645099</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9837459318211917</v>
+        <v>0.9877317452011228</v>
       </c>
       <c r="D5">
-        <v>1.040133706306806</v>
+        <v>1.041371205101296</v>
       </c>
       <c r="E5">
-        <v>0.9935040397140189</v>
+        <v>0.9968806333491504</v>
       </c>
       <c r="F5">
-        <v>1.015922571326434</v>
+        <v>1.018594852253838</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052854942743746</v>
+        <v>1.053819892509748</v>
       </c>
       <c r="J5">
-        <v>1.003107779077994</v>
+        <v>1.006990494034026</v>
       </c>
       <c r="K5">
-        <v>1.049557651883944</v>
+        <v>1.050781953996329</v>
       </c>
       <c r="L5">
-        <v>1.003454916490033</v>
+        <v>1.006791303313522</v>
       </c>
       <c r="M5">
-        <v>1.025612669870558</v>
+        <v>1.028254809561793</v>
+      </c>
+      <c r="N5">
+        <v>1.008420536038978</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9843021178952729</v>
+        <v>0.9882859693325894</v>
       </c>
       <c r="D6">
-        <v>1.040381823435033</v>
+        <v>1.041618659952428</v>
       </c>
       <c r="E6">
-        <v>0.9939815516898982</v>
+        <v>0.9973566235749649</v>
       </c>
       <c r="F6">
-        <v>1.016360437902748</v>
+        <v>1.01903134794905</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.052999738836904</v>
+        <v>1.053964266208714</v>
       </c>
       <c r="J6">
-        <v>1.003571274568261</v>
+        <v>1.007452720417507</v>
       </c>
       <c r="K6">
-        <v>1.049767354926648</v>
+        <v>1.050991065733549</v>
       </c>
       <c r="L6">
-        <v>1.003888707890234</v>
+        <v>1.007223812091405</v>
       </c>
       <c r="M6">
-        <v>1.0260086900361</v>
+        <v>1.028649635338401</v>
+      </c>
+      <c r="N6">
+        <v>1.008883418836942</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9804469730944784</v>
+        <v>0.9844446862163657</v>
       </c>
       <c r="D7">
-        <v>1.038663394067057</v>
+        <v>1.039904904204956</v>
       </c>
       <c r="E7">
-        <v>0.9906720772547258</v>
+        <v>0.9940579109098725</v>
       </c>
       <c r="F7">
-        <v>1.013326724612303</v>
+        <v>1.016007312119391</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05199498745493</v>
+        <v>1.052962506192198</v>
       </c>
       <c r="J7">
-        <v>1.000358146748983</v>
+        <v>1.004248605810861</v>
       </c>
       <c r="K7">
-        <v>1.048313695700094</v>
+        <v>1.049541586609123</v>
       </c>
       <c r="L7">
-        <v>1.000881361458896</v>
+        <v>1.004225558964763</v>
       </c>
       <c r="M7">
-        <v>1.023263976829333</v>
+        <v>1.025913368842941</v>
+      </c>
+      <c r="N7">
+        <v>1.005674754020037</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9635021103577939</v>
+        <v>0.9675683666020768</v>
       </c>
       <c r="D8">
-        <v>1.0311510614657</v>
+        <v>1.032415500036022</v>
       </c>
       <c r="E8">
-        <v>0.9761365975031254</v>
+        <v>0.9795759151368049</v>
       </c>
       <c r="F8">
-        <v>1.000030559870486</v>
+        <v>1.002758743028506</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.047552425162907</v>
+        <v>1.048534912789883</v>
       </c>
       <c r="J8">
-        <v>0.9862247442451658</v>
+        <v>0.9901610752673849</v>
       </c>
       <c r="K8">
-        <v>1.041924977993767</v>
+        <v>1.043173579891343</v>
       </c>
       <c r="L8">
-        <v>0.9876498194376562</v>
+        <v>0.9910398402303877</v>
       </c>
       <c r="M8">
-        <v>1.011210117218819</v>
+        <v>1.013901474613949</v>
+      </c>
+      <c r="N8">
+        <v>0.9915672175673272</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9297071605717502</v>
+        <v>0.9339527452893622</v>
       </c>
       <c r="D9">
-        <v>1.016401457085041</v>
+        <v>1.017724687255001</v>
       </c>
       <c r="E9">
-        <v>0.9472160547982169</v>
+        <v>0.9507963728550778</v>
       </c>
       <c r="F9">
-        <v>0.9737213248373783</v>
+        <v>0.9765724396376364</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.038615445296439</v>
+        <v>1.03963769591421</v>
       </c>
       <c r="J9">
-        <v>0.9580120521937805</v>
+        <v>0.9620745938493621</v>
       </c>
       <c r="K9">
-        <v>1.029233920992207</v>
+        <v>1.03053659337897</v>
       </c>
       <c r="L9">
-        <v>0.9612277944873897</v>
+        <v>0.9647415962264991</v>
       </c>
       <c r="M9">
-        <v>0.9872556472246415</v>
+        <v>0.9900574037749853</v>
+      </c>
+      <c r="N9">
+        <v>0.9634408501241264</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.90345670892876</v>
+        <v>0.9078907982757354</v>
       </c>
       <c r="D10">
-        <v>1.0051977563492</v>
+        <v>1.00658140221034</v>
       </c>
       <c r="E10">
-        <v>0.9248350206626841</v>
+        <v>0.9285641468781595</v>
       </c>
       <c r="F10">
-        <v>0.9535062455637675</v>
+        <v>0.9564847941791681</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.031657080131395</v>
+        <v>1.03272133534476</v>
       </c>
       <c r="J10">
-        <v>0.9361035242907014</v>
+        <v>0.9403038295322643</v>
       </c>
       <c r="K10">
-        <v>1.019473793614433</v>
+        <v>1.020832835526058</v>
       </c>
       <c r="L10">
-        <v>0.9407083466710014</v>
+        <v>0.9443552173126648</v>
       </c>
       <c r="M10">
-        <v>0.9687689594817743</v>
+        <v>0.9716868385852578</v>
+      </c>
+      <c r="N10">
+        <v>0.941639168824557</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8908459607850968</v>
+        <v>0.8953900609054494</v>
       </c>
       <c r="D11">
-        <v>0.9999043034221159</v>
+        <v>1.001322723243427</v>
       </c>
       <c r="E11">
-        <v>0.9141147074810289</v>
+        <v>0.9179307506736168</v>
       </c>
       <c r="F11">
-        <v>0.9438720184436681</v>
+        <v>0.9469243094843631</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028322050284084</v>
+        <v>1.029410801722729</v>
       </c>
       <c r="J11">
-        <v>0.9255878541196959</v>
+        <v>0.9298699488648174</v>
       </c>
       <c r="K11">
-        <v>1.014828024666047</v>
+        <v>1.016219737977683</v>
       </c>
       <c r="L11">
-        <v>0.930860910555553</v>
+        <v>0.9345861738969813</v>
       </c>
       <c r="M11">
-        <v>0.9599361720103629</v>
+        <v>0.9629217213659409</v>
+      </c>
+      <c r="N11">
+        <v>0.9311904708497791</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8859294659982693</v>
+        <v>0.8905204675377248</v>
       </c>
       <c r="D12">
-        <v>0.9978571706972247</v>
+        <v>0.9992903265886565</v>
       </c>
       <c r="E12">
-        <v>0.9099413910420115</v>
+        <v>0.9137944919653775</v>
       </c>
       <c r="F12">
-        <v>0.9401304409856583</v>
+        <v>0.9432140539999881</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027024374711691</v>
+        <v>1.028123559867264</v>
       </c>
       <c r="J12">
-        <v>0.9214904974459407</v>
+        <v>0.9258076884732589</v>
       </c>
       <c r="K12">
-        <v>1.013025539404034</v>
+        <v>1.014431135462266</v>
       </c>
       <c r="L12">
-        <v>0.9270243878075898</v>
+        <v>0.9307831845548649</v>
       </c>
       <c r="M12">
-        <v>0.956502142043329</v>
+        <v>0.9595165133403956</v>
+      </c>
+      <c r="N12">
+        <v>0.9271224415825169</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8869955038108945</v>
+        <v>0.8915761321204688</v>
       </c>
       <c r="D13">
-        <v>0.9983002403361164</v>
+        <v>0.9997301412937895</v>
       </c>
       <c r="E13">
-        <v>0.9108459816037461</v>
+        <v>0.9146908865247849</v>
       </c>
       <c r="F13">
-        <v>0.9409410167233142</v>
+        <v>0.9440177078378345</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.02730560791392</v>
+        <v>1.028402486004017</v>
       </c>
       <c r="J13">
-        <v>0.9223787985806854</v>
+        <v>0.9266882169785884</v>
       </c>
       <c r="K13">
-        <v>1.013415934030851</v>
+        <v>1.014818461901031</v>
       </c>
       <c r="L13">
-        <v>0.9278561150608945</v>
+        <v>0.9316074902200046</v>
       </c>
       <c r="M13">
-        <v>0.9572462639265256</v>
+        <v>0.9602542621532298</v>
+      </c>
+      <c r="N13">
+        <v>0.928004220539322</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.890444625445118</v>
+        <v>0.8949924654656317</v>
       </c>
       <c r="D14">
-        <v>0.9997368401559682</v>
+        <v>1.001156436869094</v>
       </c>
       <c r="E14">
-        <v>0.9137739045739796</v>
+        <v>0.9175929027575468</v>
       </c>
       <c r="F14">
-        <v>0.9435662818716645</v>
+        <v>0.9466210729404496</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028216060364575</v>
+        <v>1.029305644021662</v>
       </c>
       <c r="J14">
-        <v>0.9252533317741521</v>
+        <v>0.9295382205596942</v>
       </c>
       <c r="K14">
-        <v>1.014680696371775</v>
+        <v>1.016073517666014</v>
       </c>
       <c r="L14">
-        <v>0.9305476726749909</v>
+        <v>0.9342756077708861</v>
       </c>
       <c r="M14">
-        <v>0.9596556429741915</v>
+        <v>0.9626434912175847</v>
+      </c>
+      <c r="N14">
+        <v>0.9308582714524131</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.89253731153682</v>
+        <v>0.8970658193082954</v>
       </c>
       <c r="D15">
-        <v>1.000610732866646</v>
+        <v>1.002024242450267</v>
       </c>
       <c r="E15">
-        <v>0.9155512127827629</v>
+        <v>0.9193549360787174</v>
       </c>
       <c r="F15">
-        <v>0.945161086620026</v>
+        <v>0.9482029499058376</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.028768835344661</v>
+        <v>1.029854116680816</v>
       </c>
       <c r="J15">
-        <v>0.9269977346539714</v>
+        <v>0.9312681893834651</v>
       </c>
       <c r="K15">
-        <v>1.015449277235168</v>
+        <v>1.016836369295539</v>
       </c>
       <c r="L15">
-        <v>0.9321811055362647</v>
+        <v>0.9358952341608696</v>
       </c>
       <c r="M15">
-        <v>0.961118807227327</v>
+        <v>0.9640947709087108</v>
+      </c>
+      <c r="N15">
+        <v>0.9325906970303438</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9042639219693729</v>
+        <v>0.908691439487289</v>
       </c>
       <c r="D16">
-        <v>1.00553862598182</v>
+        <v>1.006920184379027</v>
       </c>
       <c r="E16">
-        <v>0.9255219691534696</v>
+        <v>0.9292459038573148</v>
       </c>
       <c r="F16">
-        <v>0.9541247025139786</v>
+        <v>0.9570988326975822</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031870815305512</v>
+        <v>1.032933606322802</v>
       </c>
       <c r="J16">
-        <v>0.9367768885326073</v>
+        <v>0.9409723348274244</v>
       </c>
       <c r="K16">
-        <v>1.019772207719564</v>
+        <v>1.021129292856207</v>
       </c>
       <c r="L16">
-        <v>0.9413389686970932</v>
+        <v>0.9449811700262678</v>
       </c>
       <c r="M16">
-        <v>0.969335491873701</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9722493257252957</v>
+      </c>
+      <c r="N16">
+        <v>0.9423086234739148</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,75 +1036,81 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.911259377189221</v>
+        <v>0.915632136774539</v>
       </c>
       <c r="D17">
-        <v>1.008502634987806</v>
+        <v>1.009866751335223</v>
       </c>
       <c r="E17">
-        <v>0.931478748509851</v>
+        <v>0.9351594328713461</v>
       </c>
       <c r="F17">
-        <v>0.9594930172520706</v>
+        <v>0.9624302688107166</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033724049758845</v>
+        <v>1.034774638415092</v>
       </c>
       <c r="J17">
-        <v>0.9426134686346471</v>
+        <v>0.9467685667832318</v>
       </c>
       <c r="K17">
-        <v>1.022363206734497</v>
+        <v>1.023703964432358</v>
       </c>
       <c r="L17">
-        <v>0.9468052506455413</v>
+        <v>0.9504086182743824</v>
       </c>
       <c r="M17">
-        <v>0.9742506213520279</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9771307385252314</v>
+      </c>
+      <c r="N17">
+        <v>0.9481130867439365</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C18">
-        <v>0.9152234098845917</v>
+        <v>0.9195668151373259</v>
       </c>
       <c r="D18">
-        <v>1.010190014850555</v>
+        <v>1.011544743103598</v>
       </c>
       <c r="E18">
-        <v>0.9348569570144655</v>
+        <v>0.9385144623825986</v>
       </c>
       <c r="F18">
-        <v>0.9625417826041479</v>
+        <v>0.9654592155477999</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034774804429916</v>
+        <v>1.035818850726874</v>
       </c>
       <c r="J18">
-        <v>0.9459215776880163</v>
+        <v>0.9500551566758282</v>
       </c>
       <c r="K18">
-        <v>1.023835143373091</v>
+        <v>1.025167130980683</v>
       </c>
       <c r="L18">
-        <v>0.9499035970451358</v>
+        <v>0.953486205675242</v>
       </c>
       <c r="M18">
-        <v>0.9770400141106463</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.9799020495451963</v>
+      </c>
+      <c r="N18">
+        <v>0.9514043439711575</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.916556443736819</v>
+        <v>0.9208902382232482</v>
       </c>
       <c r="D19">
-        <v>1.010758695021709</v>
+        <v>1.0121103434941</v>
       </c>
       <c r="E19">
-        <v>0.9359934216579394</v>
+        <v>0.9396433393698166</v>
       </c>
       <c r="F19">
-        <v>0.963568107136725</v>
+        <v>0.9664790435342124</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035128223986877</v>
+        <v>1.036170128272837</v>
       </c>
       <c r="J19">
-        <v>0.9470341429109125</v>
+        <v>0.9511606947801092</v>
       </c>
       <c r="K19">
-        <v>1.024330706513742</v>
+        <v>1.025659820066989</v>
       </c>
       <c r="L19">
-        <v>0.9509456306456909</v>
+        <v>0.9545214526032034</v>
       </c>
       <c r="M19">
-        <v>0.9779786935080171</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.9808348079669597</v>
+      </c>
+      <c r="N19">
+        <v>0.9525114520663533</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9105211370542168</v>
+        <v>0.9148994942721606</v>
       </c>
       <c r="D20">
-        <v>1.008189003835852</v>
+        <v>1.00955490733005</v>
       </c>
       <c r="E20">
-        <v>0.9308498253822214</v>
+        <v>0.9345349303740305</v>
       </c>
       <c r="F20">
-        <v>0.9589257669689776</v>
+        <v>0.9618667937923489</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033528404006619</v>
+        <v>1.034580240195213</v>
       </c>
       <c r="J20">
-        <v>0.9419974408729197</v>
+        <v>0.9461566517239933</v>
       </c>
       <c r="K20">
-        <v>1.022089371781132</v>
+        <v>1.023431800474216</v>
       </c>
       <c r="L20">
-        <v>0.9462282926568717</v>
+        <v>0.9498356237794192</v>
       </c>
       <c r="M20">
-        <v>0.9737314685933389</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9766150332848215</v>
+      </c>
+      <c r="N20">
+        <v>0.9475003026951262</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8894358093695662</v>
+        <v>0.8939931188373873</v>
       </c>
       <c r="D21">
-        <v>0.9993161738116851</v>
+        <v>1.000738748968178</v>
       </c>
       <c r="E21">
-        <v>0.9129173497451097</v>
+        <v>0.9167438299772022</v>
       </c>
       <c r="F21">
-        <v>0.9427980097923979</v>
+        <v>0.9458591290356804</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027949684763508</v>
+        <v>1.029041375421389</v>
       </c>
       <c r="J21">
-        <v>0.9244125012321452</v>
+        <v>0.9287044681394051</v>
       </c>
       <c r="K21">
-        <v>1.014310513081458</v>
+        <v>1.015706139027573</v>
       </c>
       <c r="L21">
-        <v>0.9297603494981725</v>
+        <v>0.9334950512388086</v>
       </c>
       <c r="M21">
-        <v>0.9589506532973225</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9619443218455074</v>
+      </c>
+      <c r="N21">
+        <v>0.9300233350080545</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8747973511714007</v>
+        <v>0.8795038689024558</v>
       </c>
       <c r="D22">
-        <v>0.993257666268991</v>
+        <v>0.9947269181272501</v>
       </c>
       <c r="E22">
-        <v>0.9005056399937663</v>
+        <v>0.9044500022313393</v>
       </c>
       <c r="F22">
-        <v>0.9316898962971599</v>
+        <v>0.9348503912838599</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024092831190352</v>
+        <v>1.02521768457237</v>
       </c>
       <c r="J22">
-        <v>0.9122188956012041</v>
+        <v>0.9166229956007073</v>
       </c>
       <c r="K22">
-        <v>1.008963883917947</v>
+        <v>1.010403564588899</v>
       </c>
       <c r="L22">
-        <v>0.9183442268592541</v>
+        <v>0.9221858353294023</v>
       </c>
       <c r="M22">
-        <v>0.9487479540965554</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9518332373653626</v>
+      </c>
+      <c r="N22">
+        <v>0.9179247053925872</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8827086458462808</v>
+        <v>0.8873316957818944</v>
       </c>
       <c r="D23">
-        <v>0.9965212691472713</v>
+        <v>0.997964466569055</v>
       </c>
       <c r="E23">
-        <v>0.9072093954249814</v>
+        <v>0.9110878175216557</v>
       </c>
       <c r="F23">
-        <v>0.9376838515765021</v>
+        <v>0.9407888305893615</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.026175187847477</v>
+        <v>1.027281498630833</v>
       </c>
       <c r="J23">
-        <v>0.918807110452685</v>
+        <v>0.9231483502434915</v>
       </c>
       <c r="K23">
-        <v>1.011847539288121</v>
+        <v>1.013262606658041</v>
       </c>
       <c r="L23">
-        <v>0.9245119910216837</v>
+        <v>0.9282937335648057</v>
       </c>
       <c r="M23">
-        <v>0.9542555550731835</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9572896107093158</v>
+      </c>
+      <c r="N23">
+        <v>0.924459326787433</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9108550721719976</v>
+        <v>0.9152308921925765</v>
       </c>
       <c r="D24">
-        <v>1.008330847398986</v>
+        <v>1.009695940966584</v>
       </c>
       <c r="E24">
-        <v>0.9311343036023652</v>
+        <v>0.9348174048668501</v>
       </c>
       <c r="F24">
-        <v>0.9591823356721633</v>
+        <v>0.9621216514645388</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033616900497618</v>
+        <v>1.034668171229198</v>
       </c>
       <c r="J24">
-        <v>0.94227609219548</v>
+        <v>0.9464334385600256</v>
       </c>
       <c r="K24">
-        <v>1.022213226629471</v>
+        <v>1.023554897977789</v>
       </c>
       <c r="L24">
-        <v>0.9464892709738936</v>
+        <v>0.9500948054051421</v>
       </c>
       <c r="M24">
-        <v>0.9739662888938674</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9768482909762138</v>
+      </c>
+      <c r="N24">
+        <v>0.9477774826002133</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9390039853200005</v>
+        <v>0.9431939043257896</v>
       </c>
       <c r="D25">
-        <v>1.020424857734642</v>
+        <v>1.021729998950556</v>
       </c>
       <c r="E25">
-        <v>0.9551612272296417</v>
+        <v>0.9586976808113903</v>
       </c>
       <c r="F25">
-        <v>0.9809288795145098</v>
+        <v>0.983742043469879</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041079594256913</v>
+        <v>1.042089458367688</v>
       </c>
       <c r="J25">
-        <v>0.9657741634452218</v>
+        <v>0.969796852182345</v>
       </c>
       <c r="K25">
-        <v>1.032714167304857</v>
+        <v>1.03400009640331</v>
       </c>
       <c r="L25">
-        <v>0.9684979177295633</v>
+        <v>0.9719728898163832</v>
       </c>
       <c r="M25">
-        <v>0.9938306450145146</v>
+        <v>0.9965980976853259</v>
+      </c>
+      <c r="N25">
+        <v>0.9711740749496978</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_29/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9629904934058313</v>
+        <v>0.9516112806113881</v>
       </c>
       <c r="D2">
-        <v>1.030396072113047</v>
+        <v>1.037385005171421</v>
       </c>
       <c r="E2">
-        <v>0.9756509282183509</v>
+        <v>0.9637349224519923</v>
       </c>
       <c r="F2">
-        <v>0.9991760125833997</v>
+        <v>1.026092036247014</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.047327920346498</v>
+        <v>1.050828108479752</v>
       </c>
       <c r="J2">
-        <v>0.9863374543488446</v>
+        <v>0.9753423215130396</v>
       </c>
       <c r="K2">
-        <v>1.041447580424701</v>
+        <v>1.048346964333398</v>
       </c>
       <c r="L2">
-        <v>0.9874602403630754</v>
+        <v>0.9757237256739858</v>
       </c>
       <c r="M2">
-        <v>1.010646838808293</v>
+        <v>1.037199452297851</v>
       </c>
       <c r="N2">
-        <v>0.9877381666685072</v>
+        <v>0.976727419482916</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.976251668666821</v>
+        <v>0.9618029258656829</v>
       </c>
       <c r="D3">
-        <v>1.036260547894964</v>
+        <v>1.041652406422162</v>
       </c>
       <c r="E3">
-        <v>0.987024971666978</v>
+        <v>0.9723134597017455</v>
       </c>
       <c r="F3">
-        <v>1.009567680176919</v>
+        <v>1.031994532163529</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05081788058389</v>
+        <v>1.052319494305106</v>
       </c>
       <c r="J3">
-        <v>0.9974113609601082</v>
+        <v>0.9833919606854862</v>
       </c>
       <c r="K3">
-        <v>1.046449573664824</v>
+        <v>1.05177869465908</v>
       </c>
       <c r="L3">
-        <v>0.9978266072630949</v>
+        <v>0.983313296064945</v>
       </c>
       <c r="M3">
-        <v>1.02007958710369</v>
+        <v>1.042233770917981</v>
       </c>
       <c r="N3">
-        <v>0.9988277994973536</v>
+        <v>0.9847884900662942</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9843998092672578</v>
+        <v>0.9681380500374491</v>
       </c>
       <c r="D4">
-        <v>1.039884901408777</v>
+        <v>1.044324362341414</v>
       </c>
       <c r="E4">
-        <v>0.9940193774703783</v>
+        <v>0.9776541554623107</v>
       </c>
       <c r="F4">
-        <v>1.015972000749678</v>
+        <v>1.035684693726849</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.052950787783729</v>
+        <v>1.053238804460383</v>
       </c>
       <c r="J4">
-        <v>1.004211166603891</v>
+        <v>0.9883934610750447</v>
       </c>
       <c r="K4">
-        <v>1.049524651018274</v>
+        <v>1.053915718193344</v>
       </c>
       <c r="L4">
-        <v>1.004190523326559</v>
+        <v>0.9880299728809916</v>
       </c>
       <c r="M4">
-        <v>1.02588140514793</v>
+        <v>1.045370698535402</v>
       </c>
       <c r="N4">
-        <v>1.005637261645099</v>
+        <v>0.9897970931600858</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9877317452011228</v>
+        <v>0.9707439656744079</v>
       </c>
       <c r="D5">
-        <v>1.041371205101296</v>
+        <v>1.045427467488882</v>
       </c>
       <c r="E5">
-        <v>0.9968806333491504</v>
+        <v>0.9798528023233377</v>
       </c>
       <c r="F5">
-        <v>1.018594852253838</v>
+        <v>1.037207041929363</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053819892509748</v>
+        <v>1.053614862856354</v>
       </c>
       <c r="J5">
-        <v>1.006990494034026</v>
+        <v>0.9904501360031849</v>
       </c>
       <c r="K5">
-        <v>1.050781953996329</v>
+        <v>1.054795228315281</v>
       </c>
       <c r="L5">
-        <v>1.006791303313522</v>
+        <v>0.9899697469050199</v>
       </c>
       <c r="M5">
-        <v>1.028254809561793</v>
+        <v>1.046662350986472</v>
       </c>
       <c r="N5">
-        <v>1.008420536038978</v>
+        <v>0.991856688802528</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9882859693325894</v>
+        <v>0.9711782741207921</v>
       </c>
       <c r="D6">
-        <v>1.041618659952428</v>
+        <v>1.045611532586454</v>
       </c>
       <c r="E6">
-        <v>0.9973566235749649</v>
+        <v>0.9802193337763178</v>
       </c>
       <c r="F6">
-        <v>1.01903134794905</v>
+        <v>1.037461002521019</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.053964266208714</v>
+        <v>1.05367740788911</v>
       </c>
       <c r="J6">
-        <v>1.007452720417507</v>
+        <v>0.9907928636699735</v>
       </c>
       <c r="K6">
-        <v>1.050991065733549</v>
+        <v>1.054941823783668</v>
       </c>
       <c r="L6">
-        <v>1.007223812091405</v>
+        <v>0.9902930063781491</v>
       </c>
       <c r="M6">
-        <v>1.028649635338401</v>
+        <v>1.046877682847737</v>
       </c>
       <c r="N6">
-        <v>1.008883418836942</v>
+        <v>0.9921999031819149</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9844446862163657</v>
+        <v>0.9681730899631239</v>
       </c>
       <c r="D7">
-        <v>1.039904904204956</v>
+        <v>1.044339179906058</v>
       </c>
       <c r="E7">
-        <v>0.9940579109098725</v>
+        <v>0.9776837123095559</v>
       </c>
       <c r="F7">
-        <v>1.016007312119391</v>
+        <v>1.035705146967469</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052962506192198</v>
+        <v>1.053243869661662</v>
       </c>
       <c r="J7">
-        <v>1.004248605810861</v>
+        <v>0.9884211185542315</v>
       </c>
       <c r="K7">
-        <v>1.049541586609123</v>
+        <v>1.053927543123891</v>
       </c>
       <c r="L7">
-        <v>1.004225558964763</v>
+        <v>0.9880560574676509</v>
       </c>
       <c r="M7">
-        <v>1.025913368842941</v>
+        <v>1.045388062006023</v>
       </c>
       <c r="N7">
-        <v>1.005674754020037</v>
+        <v>0.9898247899160655</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9675683666020768</v>
+        <v>0.9551123982226017</v>
       </c>
       <c r="D8">
-        <v>1.032415500036022</v>
+        <v>1.038846458851915</v>
       </c>
       <c r="E8">
-        <v>0.9795759151368049</v>
+        <v>0.9666799989820767</v>
       </c>
       <c r="F8">
-        <v>1.002758743028506</v>
+        <v>1.028114781896097</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.048534912789883</v>
+        <v>1.051341930634191</v>
       </c>
       <c r="J8">
-        <v>0.9901610752673849</v>
+        <v>0.978107961544287</v>
       </c>
       <c r="K8">
-        <v>1.043173579891343</v>
+        <v>1.049524735639801</v>
       </c>
       <c r="L8">
-        <v>0.9910398402303877</v>
+        <v>0.9783310619623998</v>
       </c>
       <c r="M8">
-        <v>1.013901474613949</v>
+        <v>1.038926925324682</v>
       </c>
       <c r="N8">
-        <v>0.9915672175673272</v>
+        <v>0.9794969870402312</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9339527452893622</v>
+        <v>0.9298588476023958</v>
       </c>
       <c r="D9">
-        <v>1.017724687255001</v>
+        <v>1.028421081475348</v>
       </c>
       <c r="E9">
-        <v>0.9507963728550778</v>
+        <v>0.9454839605803121</v>
       </c>
       <c r="F9">
-        <v>0.9765724396376364</v>
+        <v>1.013650539577897</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03963769591421</v>
+        <v>1.047613053161382</v>
       </c>
       <c r="J9">
-        <v>0.9620745938493621</v>
+        <v>0.9581571583012339</v>
       </c>
       <c r="K9">
-        <v>1.03053659337897</v>
+        <v>1.041069281853909</v>
       </c>
       <c r="L9">
-        <v>0.9647415962264991</v>
+        <v>0.9595281157806032</v>
       </c>
       <c r="M9">
-        <v>0.9900574037749853</v>
+        <v>1.026525961615661</v>
       </c>
       <c r="N9">
-        <v>0.9634408501241264</v>
+        <v>0.959517851368184</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9078907982757354</v>
+        <v>0.9110914496730328</v>
       </c>
       <c r="D10">
-        <v>1.00658140221034</v>
+        <v>1.020865341285485</v>
       </c>
       <c r="E10">
-        <v>0.9285641468781595</v>
+        <v>0.9298070604537093</v>
       </c>
       <c r="F10">
-        <v>0.9564847941791681</v>
+        <v>1.003108548699523</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03272133534476</v>
+        <v>1.044827814466393</v>
       </c>
       <c r="J10">
-        <v>0.9403038295322643</v>
+        <v>0.9433377795516588</v>
       </c>
       <c r="K10">
-        <v>1.020832835526058</v>
+        <v>1.034867815048682</v>
       </c>
       <c r="L10">
-        <v>0.9443552173126648</v>
+        <v>0.9455709099799323</v>
       </c>
       <c r="M10">
-        <v>0.9716868385852578</v>
+        <v>1.017421903250948</v>
       </c>
       <c r="N10">
-        <v>0.941639168824557</v>
+        <v>0.9446774274009777</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.8953900609054494</v>
+        <v>0.9023818696842743</v>
       </c>
       <c r="D11">
-        <v>1.001322723243427</v>
+        <v>1.01742047329166</v>
       </c>
       <c r="E11">
-        <v>0.9179307506736168</v>
+        <v>0.9225553500573901</v>
       </c>
       <c r="F11">
-        <v>0.9469243094843631</v>
+        <v>0.9982826006472598</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.029410801722729</v>
+        <v>1.043537725808448</v>
       </c>
       <c r="J11">
-        <v>0.9298699488648174</v>
+        <v>0.9364661381574579</v>
       </c>
       <c r="K11">
-        <v>1.016219737977683</v>
+        <v>1.032021176438899</v>
       </c>
       <c r="L11">
-        <v>0.9345861738969813</v>
+        <v>0.9391021057372819</v>
       </c>
       <c r="M11">
-        <v>0.9629217213659409</v>
+        <v>1.013236977442219</v>
       </c>
       <c r="N11">
-        <v>0.9311904708497791</v>
+        <v>0.937796027487809</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8905204675377248</v>
+        <v>0.8990454545715668</v>
       </c>
       <c r="D12">
-        <v>0.9992903265886565</v>
+        <v>1.016111714731358</v>
       </c>
       <c r="E12">
-        <v>0.9137944919653775</v>
+        <v>0.9197815690180969</v>
       </c>
       <c r="F12">
-        <v>0.9432140539999881</v>
+        <v>0.9964456361417126</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.028123559867264</v>
+        <v>1.043044497171576</v>
       </c>
       <c r="J12">
-        <v>0.9258076884732589</v>
+        <v>0.9338350799562726</v>
       </c>
       <c r="K12">
-        <v>1.014431135462266</v>
+        <v>1.030936615244958</v>
       </c>
       <c r="L12">
-        <v>0.9307831845548649</v>
+        <v>0.936625832178212</v>
       </c>
       <c r="M12">
-        <v>0.9595165133403956</v>
+        <v>1.011641250441142</v>
       </c>
       <c r="N12">
-        <v>0.9271224415825169</v>
+        <v>0.9351612328821912</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.8915761321204688</v>
+        <v>0.899765965029011</v>
       </c>
       <c r="D13">
-        <v>0.9997301412937895</v>
+        <v>1.016393826568995</v>
       </c>
       <c r="E13">
-        <v>0.9146908865247849</v>
+        <v>0.9203803780754639</v>
       </c>
       <c r="F13">
-        <v>0.9440177078378345</v>
+        <v>0.9968417751016013</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028402486004017</v>
+        <v>1.04315095722984</v>
       </c>
       <c r="J13">
-        <v>0.9266882169785884</v>
+        <v>0.9344032002365555</v>
       </c>
       <c r="K13">
-        <v>1.014818461901031</v>
+        <v>1.031170542210861</v>
       </c>
       <c r="L13">
-        <v>0.9316074902200046</v>
+        <v>0.9371605039905538</v>
       </c>
       <c r="M13">
-        <v>0.9602542621532298</v>
+        <v>1.011985494651263</v>
       </c>
       <c r="N13">
-        <v>0.928004220539322</v>
+        <v>0.9357301599584367</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.8949924654656317</v>
+        <v>0.9021082373100406</v>
       </c>
       <c r="D14">
-        <v>1.001156436869094</v>
+        <v>1.017312906883952</v>
       </c>
       <c r="E14">
-        <v>0.9175929027575468</v>
+        <v>0.9223277734958114</v>
       </c>
       <c r="F14">
-        <v>0.9466210729404496</v>
+        <v>0.9981316959665131</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.029305644021662</v>
+        <v>1.043497250825129</v>
       </c>
       <c r="J14">
-        <v>0.9295382205596942</v>
+        <v>0.9362503260353344</v>
       </c>
       <c r="K14">
-        <v>1.016073517666014</v>
+        <v>1.031932100339324</v>
       </c>
       <c r="L14">
-        <v>0.9342756077708861</v>
+        <v>0.9388989782627585</v>
       </c>
       <c r="M14">
-        <v>0.9626434912175847</v>
+        <v>1.013105947224231</v>
       </c>
       <c r="N14">
-        <v>0.9308582714524131</v>
+        <v>0.9375799088877179</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.8970658193082954</v>
+        <v>0.9035375038818108</v>
       </c>
       <c r="D15">
-        <v>1.002024242450267</v>
+        <v>1.017875209824788</v>
       </c>
       <c r="E15">
-        <v>0.9193549360787174</v>
+        <v>0.9235166485283486</v>
       </c>
       <c r="F15">
-        <v>0.9482029499058376</v>
+        <v>0.9989204033665664</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029854116680816</v>
+        <v>1.043708707241603</v>
       </c>
       <c r="J15">
-        <v>0.9312681893834651</v>
+        <v>0.9373776344541409</v>
       </c>
       <c r="K15">
-        <v>1.016836369295539</v>
+        <v>1.032397619088498</v>
       </c>
       <c r="L15">
-        <v>0.9358952341608696</v>
+        <v>0.9399600501572155</v>
       </c>
       <c r="M15">
-        <v>0.9640947709087108</v>
+        <v>1.013790667046275</v>
       </c>
       <c r="N15">
-        <v>0.9325906970303438</v>
+        <v>0.9387088182137835</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.908691439487289</v>
+        <v>0.9116560909911857</v>
       </c>
       <c r="D16">
-        <v>1.006920184379027</v>
+        <v>1.021090061780784</v>
       </c>
       <c r="E16">
-        <v>0.9292459038573148</v>
+        <v>0.9302777199866989</v>
       </c>
       <c r="F16">
-        <v>0.9570988326975822</v>
+        <v>1.003422912540924</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032933606322802</v>
+        <v>1.044911549152953</v>
       </c>
       <c r="J16">
-        <v>0.9409723348274244</v>
+        <v>0.9437834186231009</v>
       </c>
       <c r="K16">
-        <v>1.021129292856207</v>
+        <v>1.035053099433267</v>
       </c>
       <c r="L16">
-        <v>0.9449811700262678</v>
+        <v>0.9459904934746667</v>
       </c>
       <c r="M16">
-        <v>0.9722493257252957</v>
+        <v>1.017694142131399</v>
       </c>
       <c r="N16">
-        <v>0.9423086234739148</v>
+        <v>0.9451236993310169</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.915632136774539</v>
+        <v>0.916583804592923</v>
       </c>
       <c r="D17">
-        <v>1.009866751335223</v>
+        <v>1.023058250970708</v>
       </c>
       <c r="E17">
-        <v>0.9351594328713461</v>
+        <v>0.9343879281411535</v>
       </c>
       <c r="F17">
-        <v>0.9624302688107166</v>
+        <v>1.006173976965492</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.034774638415092</v>
+        <v>1.045642652056339</v>
       </c>
       <c r="J17">
-        <v>0.9467685667832318</v>
+        <v>0.9476732611724072</v>
       </c>
       <c r="K17">
-        <v>1.023703964432358</v>
+        <v>1.036673713830718</v>
       </c>
       <c r="L17">
-        <v>0.9504086182743824</v>
+        <v>0.9496532531127084</v>
       </c>
       <c r="M17">
-        <v>0.9771307385252314</v>
+        <v>1.020074613108874</v>
       </c>
       <c r="N17">
-        <v>0.9481130867439365</v>
+        <v>0.9490190659029145</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.049999999999999</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9195668151373259</v>
+        <v>0.9194028556586837</v>
       </c>
       <c r="D18">
-        <v>1.011544743103598</v>
+        <v>1.024189796959711</v>
       </c>
       <c r="E18">
-        <v>0.9385144623825986</v>
+        <v>0.9367414412875551</v>
       </c>
       <c r="F18">
-        <v>0.9654592155477999</v>
+        <v>1.007753823175334</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035818850726874</v>
+        <v>1.046061089740291</v>
       </c>
       <c r="J18">
-        <v>0.9500551566758282</v>
+        <v>0.9498990660528825</v>
       </c>
       <c r="K18">
-        <v>1.025167130980683</v>
+        <v>1.037603649804773</v>
       </c>
       <c r="L18">
-        <v>0.953486205675242</v>
+        <v>0.951749395370764</v>
       </c>
       <c r="M18">
-        <v>0.9799020495451963</v>
+        <v>1.021440044437492</v>
       </c>
       <c r="N18">
-        <v>0.9514043439711575</v>
+        <v>0.9512480316816232</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9208902382232482</v>
+        <v>0.9203550830863517</v>
       </c>
       <c r="D19">
-        <v>1.0121103434941</v>
+        <v>1.024572917848528</v>
       </c>
       <c r="E19">
-        <v>0.9396433393698166</v>
+        <v>0.9375367653075085</v>
       </c>
       <c r="F19">
-        <v>0.9664790435342124</v>
+        <v>1.008288442253209</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036170128272837</v>
+        <v>1.046202446843375</v>
       </c>
       <c r="J19">
-        <v>0.9511606947801092</v>
+        <v>0.9506509787308171</v>
       </c>
       <c r="K19">
-        <v>1.025659820066989</v>
+        <v>1.037918211708606</v>
       </c>
       <c r="L19">
-        <v>0.9545214526032034</v>
+        <v>0.9524575506279616</v>
       </c>
       <c r="M19">
-        <v>0.9808348079669597</v>
+        <v>1.021901839517846</v>
       </c>
       <c r="N19">
-        <v>0.9525114520663533</v>
+        <v>0.952001012161806</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9148994942721606</v>
+        <v>0.9160609063330185</v>
       </c>
       <c r="D20">
-        <v>1.00955490733005</v>
+        <v>1.022848806790164</v>
       </c>
       <c r="E20">
-        <v>0.9345349303740305</v>
+        <v>0.9339515514418691</v>
       </c>
       <c r="F20">
-        <v>0.9618667937923489</v>
+        <v>1.005881413091314</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.034580240195213</v>
+        <v>1.045565048557609</v>
       </c>
       <c r="J20">
-        <v>0.9461566517239933</v>
+        <v>0.9472604404927731</v>
       </c>
       <c r="K20">
-        <v>1.023431800474216</v>
+        <v>1.036501443398408</v>
       </c>
       <c r="L20">
-        <v>0.9498356237794192</v>
+        <v>0.9492645029247313</v>
       </c>
       <c r="M20">
-        <v>0.9766150332848215</v>
+        <v>1.019821627336356</v>
       </c>
       <c r="N20">
-        <v>0.9475003026951262</v>
+        <v>0.9486056589705639</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.8939931188373873</v>
+        <v>0.9014214183755832</v>
       </c>
       <c r="D21">
-        <v>1.000738748968178</v>
+        <v>1.017043094958404</v>
       </c>
       <c r="E21">
-        <v>0.9167438299772022</v>
+        <v>0.921756623940197</v>
       </c>
       <c r="F21">
-        <v>0.9458591290356804</v>
+        <v>0.9977531188480796</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.029041375421389</v>
+        <v>1.043395676137755</v>
       </c>
       <c r="J21">
-        <v>0.9287044681394051</v>
+        <v>0.9357086585717959</v>
       </c>
       <c r="K21">
-        <v>1.015706139027573</v>
+        <v>1.031708618000254</v>
       </c>
       <c r="L21">
-        <v>0.9334950512388086</v>
+        <v>0.9383891570719012</v>
       </c>
       <c r="M21">
-        <v>0.9619443218455074</v>
+        <v>1.012777184481651</v>
       </c>
       <c r="N21">
-        <v>0.9300233350080545</v>
+        <v>0.9370374721942512</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8795038689024558</v>
+        <v>0.8916216403012639</v>
       </c>
       <c r="D22">
-        <v>0.9947269181272501</v>
+        <v>1.013221876828635</v>
       </c>
       <c r="E22">
-        <v>0.9044500022313393</v>
+        <v>0.9136181891317816</v>
       </c>
       <c r="F22">
-        <v>0.9348503912838599</v>
+        <v>0.9923822528297835</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02521768457237</v>
+        <v>1.041949582803214</v>
       </c>
       <c r="J22">
-        <v>0.9166229956007073</v>
+        <v>0.9279836998465665</v>
       </c>
       <c r="K22">
-        <v>1.010403564588899</v>
+        <v>1.028535878727514</v>
       </c>
       <c r="L22">
-        <v>0.9221858353294023</v>
+        <v>0.9311198093980312</v>
       </c>
       <c r="M22">
-        <v>0.9518332373653626</v>
+        <v>1.008106144483614</v>
       </c>
       <c r="N22">
-        <v>0.9179247053925872</v>
+        <v>0.9293015431415667</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.8873316957818944</v>
+        <v>0.896878578421911</v>
       </c>
       <c r="D23">
-        <v>0.997964466569055</v>
+        <v>1.015265023722526</v>
       </c>
       <c r="E23">
-        <v>0.9110878175216557</v>
+        <v>0.9179813647787353</v>
       </c>
       <c r="F23">
-        <v>0.9407888305893615</v>
+        <v>0.9952561548742922</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027281498630833</v>
+        <v>1.042724521586651</v>
       </c>
       <c r="J23">
-        <v>0.9231483502434915</v>
+        <v>0.932126732075547</v>
       </c>
       <c r="K23">
-        <v>1.013262606658041</v>
+        <v>1.030234070934886</v>
       </c>
       <c r="L23">
-        <v>0.9282937335648057</v>
+        <v>0.9350181518690468</v>
       </c>
       <c r="M23">
-        <v>0.9572896107093158</v>
+        <v>1.010607172022901</v>
       </c>
       <c r="N23">
-        <v>0.924459326787433</v>
+        <v>0.9334504589515249</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9152308921925765</v>
+        <v>0.9162973511339191</v>
       </c>
       <c r="D24">
-        <v>1.009695940966584</v>
+        <v>1.022943496251463</v>
       </c>
       <c r="E24">
-        <v>0.9348174048668501</v>
+        <v>0.934148866185635</v>
       </c>
       <c r="F24">
-        <v>0.9621216514645388</v>
+        <v>1.006013686384249</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.034668171229198</v>
+        <v>1.045600138864755</v>
       </c>
       <c r="J24">
-        <v>0.9464334385600256</v>
+        <v>0.9474471087458075</v>
       </c>
       <c r="K24">
-        <v>1.023554897977789</v>
+        <v>1.036579332183439</v>
       </c>
       <c r="L24">
-        <v>0.9500948054051421</v>
+        <v>0.9494402861863408</v>
       </c>
       <c r="M24">
-        <v>0.9768482909762138</v>
+        <v>1.019936011620221</v>
       </c>
       <c r="N24">
-        <v>0.9477774826002133</v>
+        <v>0.9487925923139288</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9431939043257896</v>
+        <v>0.9366920405816396</v>
       </c>
       <c r="D25">
-        <v>1.021729998950556</v>
+        <v>1.031214393300423</v>
       </c>
       <c r="E25">
-        <v>0.9586976808113903</v>
+        <v>0.9512082756538395</v>
       </c>
       <c r="F25">
-        <v>0.983742043469879</v>
+        <v>1.017534445947585</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.042089458367688</v>
+        <v>1.048626014105239</v>
       </c>
       <c r="J25">
-        <v>0.969796852182345</v>
+        <v>0.9635554032626016</v>
       </c>
       <c r="K25">
-        <v>1.03400009640331</v>
+        <v>1.043346727319465</v>
       </c>
       <c r="L25">
-        <v>0.9719728898163832</v>
+        <v>0.9646143901520264</v>
       </c>
       <c r="M25">
-        <v>0.9965980976853259</v>
+        <v>1.029866526358088</v>
       </c>
       <c r="N25">
-        <v>0.9711740749496978</v>
+        <v>0.964923762456584</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_29/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9516112806113881</v>
+        <v>1.020986263673583</v>
       </c>
       <c r="D2">
-        <v>1.037385005171421</v>
+        <v>1.051819246468221</v>
       </c>
       <c r="E2">
-        <v>0.9637349224519923</v>
+        <v>1.023664569479776</v>
       </c>
       <c r="F2">
-        <v>1.026092036247014</v>
+        <v>1.05327822639339</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050828108479752</v>
+        <v>1.06267051701977</v>
       </c>
       <c r="J2">
-        <v>0.9753423215130396</v>
+        <v>1.042556898742232</v>
       </c>
       <c r="K2">
-        <v>1.048346964333398</v>
+        <v>1.062600947364071</v>
       </c>
       <c r="L2">
-        <v>0.9757237256739858</v>
+        <v>1.034803777259426</v>
       </c>
       <c r="M2">
-        <v>1.037199452297851</v>
+        <v>1.064042049113304</v>
       </c>
       <c r="N2">
-        <v>0.976727419482916</v>
+        <v>1.044037449121393</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9618029258656829</v>
+        <v>1.027962194016309</v>
       </c>
       <c r="D3">
-        <v>1.041652406422162</v>
+        <v>1.056141395841195</v>
       </c>
       <c r="E3">
-        <v>0.9723134597017455</v>
+        <v>1.029523648267185</v>
       </c>
       <c r="F3">
-        <v>1.031994532163529</v>
+        <v>1.058507737013746</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.052319494305106</v>
+        <v>1.065320935613239</v>
       </c>
       <c r="J3">
-        <v>0.9833919606854862</v>
+        <v>1.04771855721499</v>
       </c>
       <c r="K3">
-        <v>1.05177869465908</v>
+        <v>1.06610300369042</v>
       </c>
       <c r="L3">
-        <v>0.983313296064945</v>
+        <v>1.039792206344073</v>
       </c>
       <c r="M3">
-        <v>1.042233770917981</v>
+        <v>1.068442976202046</v>
       </c>
       <c r="N3">
-        <v>0.9847884900662942</v>
+        <v>1.049206437741234</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9681380500374491</v>
+        <v>1.032351060674459</v>
       </c>
       <c r="D4">
-        <v>1.044324362341414</v>
+        <v>1.058867029171945</v>
       </c>
       <c r="E4">
-        <v>0.9776541554623107</v>
+        <v>1.033214410683832</v>
       </c>
       <c r="F4">
-        <v>1.035684693726849</v>
+        <v>1.061806973059708</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.053238804460383</v>
+        <v>1.066978258743331</v>
       </c>
       <c r="J4">
-        <v>0.9883934610750447</v>
+        <v>1.050961925782959</v>
       </c>
       <c r="K4">
-        <v>1.053915718193344</v>
+        <v>1.068303332770709</v>
       </c>
       <c r="L4">
-        <v>0.9880299728809916</v>
+        <v>1.042927835773267</v>
       </c>
       <c r="M4">
-        <v>1.045370698535402</v>
+        <v>1.07121256174161</v>
       </c>
       <c r="N4">
-        <v>0.9897970931600858</v>
+        <v>1.052454412264588</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9707439656744079</v>
+        <v>1.034167747671851</v>
       </c>
       <c r="D5">
-        <v>1.045427467488882</v>
+        <v>1.059996627090992</v>
       </c>
       <c r="E5">
-        <v>0.9798528023233377</v>
+        <v>1.034743143526632</v>
       </c>
       <c r="F5">
-        <v>1.037207041929363</v>
+        <v>1.063174664519834</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.053614862856354</v>
+        <v>1.067661760863077</v>
       </c>
       <c r="J5">
-        <v>0.9904501360031849</v>
+        <v>1.052303420935704</v>
       </c>
       <c r="K5">
-        <v>1.054795228315281</v>
+        <v>1.069213291796345</v>
       </c>
       <c r="L5">
-        <v>0.9899697469050199</v>
+        <v>1.044225025516989</v>
       </c>
       <c r="M5">
-        <v>1.046662350986472</v>
+        <v>1.072359039919143</v>
       </c>
       <c r="N5">
-        <v>0.991856688802528</v>
+        <v>1.053797812494322</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9711782741207921</v>
+        <v>1.034471155047964</v>
       </c>
       <c r="D6">
-        <v>1.045611532586454</v>
+        <v>1.060185359244899</v>
       </c>
       <c r="E6">
-        <v>0.9802193337763178</v>
+        <v>1.034998516593639</v>
       </c>
       <c r="F6">
-        <v>1.037461002521019</v>
+        <v>1.063403200035974</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05367740788911</v>
+        <v>1.06777576350059</v>
       </c>
       <c r="J6">
-        <v>0.9907928636699735</v>
+        <v>1.052527403303187</v>
       </c>
       <c r="K6">
-        <v>1.054941823783668</v>
+        <v>1.069365213633845</v>
       </c>
       <c r="L6">
-        <v>0.9902930063781491</v>
+        <v>1.044441625275008</v>
       </c>
       <c r="M6">
-        <v>1.046877682847737</v>
+        <v>1.072550514987993</v>
       </c>
       <c r="N6">
-        <v>0.9921999031819149</v>
+        <v>1.054022112942458</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9681730899631239</v>
+        <v>1.03237544494913</v>
       </c>
       <c r="D7">
-        <v>1.044339179906058</v>
+        <v>1.058882185833175</v>
       </c>
       <c r="E7">
-        <v>0.9776837123095559</v>
+        <v>1.033234926022695</v>
       </c>
       <c r="F7">
-        <v>1.035705146967469</v>
+        <v>1.061825322880971</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.053243869661662</v>
+        <v>1.066987443018112</v>
       </c>
       <c r="J7">
-        <v>0.9884211185542315</v>
+        <v>1.050979936021682</v>
       </c>
       <c r="K7">
-        <v>1.053927543123891</v>
+        <v>1.068315549999785</v>
       </c>
       <c r="L7">
-        <v>0.9880560574676509</v>
+        <v>1.042945250186064</v>
       </c>
       <c r="M7">
-        <v>1.045388062006023</v>
+        <v>1.071227950128134</v>
       </c>
       <c r="N7">
-        <v>0.9898247899160655</v>
+        <v>1.052472448079917</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9551123982226017</v>
+        <v>1.023370664368607</v>
       </c>
       <c r="D8">
-        <v>1.038846458851915</v>
+        <v>1.053295131161446</v>
       </c>
       <c r="E8">
-        <v>0.9666799989820767</v>
+        <v>1.02566621419615</v>
       </c>
       <c r="F8">
-        <v>1.028114781896097</v>
+        <v>1.055063675205582</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051341930634191</v>
+        <v>1.063578537880259</v>
       </c>
       <c r="J8">
-        <v>0.978107961544287</v>
+        <v>1.044321991085356</v>
       </c>
       <c r="K8">
-        <v>1.049524735639801</v>
+        <v>1.06379851886268</v>
       </c>
       <c r="L8">
-        <v>0.9783310619623998</v>
+        <v>1.036509391060093</v>
       </c>
       <c r="M8">
-        <v>1.038926925324682</v>
+        <v>1.06554606390911</v>
       </c>
       <c r="N8">
-        <v>0.9794969870402312</v>
+        <v>1.045805048098104</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9298588476023958</v>
+        <v>1.00646961788375</v>
       </c>
       <c r="D9">
-        <v>1.028421081475348</v>
+        <v>1.0428683386431</v>
       </c>
       <c r="E9">
-        <v>0.9454839605803121</v>
+        <v>1.011501522972438</v>
       </c>
       <c r="F9">
-        <v>1.013650539577897</v>
+        <v>1.042454312622237</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.047613053161382</v>
+        <v>1.057101809357354</v>
       </c>
       <c r="J9">
-        <v>0.9581571583012339</v>
+        <v>1.031795967701764</v>
       </c>
       <c r="K9">
-        <v>1.041069281853909</v>
+        <v>1.055302191395342</v>
       </c>
       <c r="L9">
-        <v>0.9595281157806032</v>
+        <v>1.024410711958977</v>
       </c>
       <c r="M9">
-        <v>1.026525961615661</v>
+        <v>1.054894203180788</v>
       </c>
       <c r="N9">
-        <v>0.959517851368184</v>
+        <v>1.033261236324552</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9110914496730328</v>
+        <v>0.9943891982500687</v>
       </c>
       <c r="D10">
-        <v>1.020865341285485</v>
+        <v>1.035468474111232</v>
       </c>
       <c r="E10">
-        <v>0.9298070604537093</v>
+        <v>1.001411433733573</v>
       </c>
       <c r="F10">
-        <v>1.003108548699523</v>
+        <v>1.033509245260343</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.044827814466393</v>
+        <v>1.052424564677146</v>
       </c>
       <c r="J10">
-        <v>0.9433377795516588</v>
+        <v>1.022827209853924</v>
       </c>
       <c r="K10">
-        <v>1.034867815048682</v>
+        <v>1.049225562035464</v>
       </c>
       <c r="L10">
-        <v>0.9455709099799323</v>
+        <v>1.015755250985016</v>
       </c>
       <c r="M10">
-        <v>1.017421903250948</v>
+        <v>1.047298736827605</v>
       </c>
       <c r="N10">
-        <v>0.9446774274009777</v>
+        <v>1.024279741811837</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9023818696842743</v>
+        <v>0.9889348677663456</v>
       </c>
       <c r="D11">
-        <v>1.01742047329166</v>
+        <v>1.032143113089449</v>
       </c>
       <c r="E11">
-        <v>0.9225553500573901</v>
+        <v>0.9968655908740669</v>
       </c>
       <c r="F11">
-        <v>0.9982826006472598</v>
+        <v>1.029489729486444</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.043537725808448</v>
+        <v>1.050302827672862</v>
       </c>
       <c r="J11">
-        <v>0.9364661381574579</v>
+        <v>1.0187753258487</v>
       </c>
       <c r="K11">
-        <v>1.032021176438899</v>
+        <v>1.046483290147462</v>
       </c>
       <c r="L11">
-        <v>0.9391021057372819</v>
+        <v>1.011846860629855</v>
       </c>
       <c r="M11">
-        <v>1.013236977442219</v>
+        <v>1.043876146776688</v>
       </c>
       <c r="N11">
-        <v>0.937796027487809</v>
+        <v>1.020222103666568</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.8990454545715668</v>
+        <v>0.9868723451504863</v>
       </c>
       <c r="D12">
-        <v>1.016111714731358</v>
+        <v>1.030888299792063</v>
       </c>
       <c r="E12">
-        <v>0.9197815690180969</v>
+        <v>0.9951482464132912</v>
       </c>
       <c r="F12">
-        <v>0.9964456361417126</v>
+        <v>1.027972952423416</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.043044497171576</v>
+        <v>1.049499143670171</v>
       </c>
       <c r="J12">
-        <v>0.9338350799562726</v>
+        <v>1.01724287294317</v>
       </c>
       <c r="K12">
-        <v>1.030936615244958</v>
+        <v>1.045446726305132</v>
       </c>
       <c r="L12">
-        <v>0.936625832178212</v>
+        <v>1.010368992429044</v>
       </c>
       <c r="M12">
-        <v>1.011641250441142</v>
+        <v>1.042583165430532</v>
       </c>
       <c r="N12">
-        <v>0.9351612328821912</v>
+        <v>1.018687474502137</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.899765965029011</v>
+        <v>0.9873164685114936</v>
       </c>
       <c r="D13">
-        <v>1.016393826568995</v>
+        <v>1.031158374219112</v>
       </c>
       <c r="E13">
-        <v>0.9203803780754639</v>
+        <v>0.9955179657926849</v>
       </c>
       <c r="F13">
-        <v>0.9968417751016013</v>
+        <v>1.028299411768968</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04315095722984</v>
+        <v>1.049672260277432</v>
       </c>
       <c r="J13">
-        <v>0.9344032002365555</v>
+        <v>1.01757286593971</v>
       </c>
       <c r="K13">
-        <v>1.031170542210861</v>
+        <v>1.045669907707978</v>
       </c>
       <c r="L13">
-        <v>0.9371605039905538</v>
+        <v>1.010687216799632</v>
       </c>
       <c r="M13">
-        <v>1.011985494651263</v>
+        <v>1.042861522902569</v>
       </c>
       <c r="N13">
-        <v>0.9357301599584367</v>
+        <v>1.019017936126584</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9021082373100406</v>
+        <v>0.9887651429107222</v>
       </c>
       <c r="D14">
-        <v>1.017312906883952</v>
+        <v>1.032039798991102</v>
       </c>
       <c r="E14">
-        <v>0.9223277734958114</v>
+        <v>0.9967242364888975</v>
       </c>
       <c r="F14">
-        <v>0.9981316959665131</v>
+        <v>1.029364847718961</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.043497250825129</v>
+        <v>1.050236719376062</v>
       </c>
       <c r="J14">
-        <v>0.9362503260353344</v>
+        <v>1.018649224910134</v>
       </c>
       <c r="K14">
-        <v>1.031932100339324</v>
+        <v>1.046397981785469</v>
       </c>
       <c r="L14">
-        <v>0.9388989782627585</v>
+        <v>1.011725244798281</v>
       </c>
       <c r="M14">
-        <v>1.013105947224231</v>
+        <v>1.043769720635353</v>
       </c>
       <c r="N14">
-        <v>0.9375799088877179</v>
+        <v>1.020095823650205</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9035375038818108</v>
+        <v>0.98965278189531</v>
       </c>
       <c r="D15">
-        <v>1.017875209824788</v>
+        <v>1.032580227979814</v>
       </c>
       <c r="E15">
-        <v>0.9235166485283486</v>
+        <v>0.9974635692147142</v>
       </c>
       <c r="F15">
-        <v>0.9989204033665664</v>
+        <v>1.03001809423739</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.043708707241603</v>
+        <v>1.050582402656043</v>
       </c>
       <c r="J15">
-        <v>0.9373776344541409</v>
+        <v>1.01930870672475</v>
       </c>
       <c r="K15">
-        <v>1.032397619088498</v>
+        <v>1.046844151416763</v>
       </c>
       <c r="L15">
-        <v>0.9399600501572155</v>
+        <v>1.012361283340575</v>
       </c>
       <c r="M15">
-        <v>1.013790667046275</v>
+        <v>1.044326367843584</v>
       </c>
       <c r="N15">
-        <v>0.9387088182137835</v>
+        <v>1.020756242004642</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9116560909911857</v>
+        <v>0.9947462309605484</v>
       </c>
       <c r="D16">
-        <v>1.021090061780784</v>
+        <v>1.035686496677855</v>
       </c>
       <c r="E16">
-        <v>0.9302777199866989</v>
+        <v>1.001709215174369</v>
       </c>
       <c r="F16">
-        <v>1.003422912540924</v>
+        <v>1.033772778814495</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.044911549152953</v>
+        <v>1.052563255324505</v>
       </c>
       <c r="J16">
-        <v>0.9437834186231009</v>
+        <v>1.023092398533843</v>
       </c>
       <c r="K16">
-        <v>1.035053099433267</v>
+        <v>1.049405112061799</v>
       </c>
       <c r="L16">
-        <v>0.9459904934746667</v>
+        <v>1.016011090411465</v>
       </c>
       <c r="M16">
-        <v>1.017694142131399</v>
+        <v>1.047522934104081</v>
       </c>
       <c r="N16">
-        <v>0.9451236993310169</v>
+        <v>1.0245453070901</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.916583804592923</v>
+        <v>0.997879407650306</v>
       </c>
       <c r="D17">
-        <v>1.023058250970708</v>
+        <v>1.037601581124757</v>
       </c>
       <c r="E17">
-        <v>0.9343879281411535</v>
+        <v>1.004323556628986</v>
       </c>
       <c r="F17">
-        <v>1.006173976965492</v>
+        <v>1.036087645579665</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.045642652056339</v>
+        <v>1.053779239460213</v>
       </c>
       <c r="J17">
-        <v>0.9476732611724072</v>
+        <v>1.025419321712324</v>
       </c>
       <c r="K17">
-        <v>1.036673713830718</v>
+        <v>1.050980945663181</v>
       </c>
       <c r="L17">
-        <v>0.9496532531127084</v>
+        <v>1.018256200549785</v>
       </c>
       <c r="M17">
-        <v>1.020074613108874</v>
+        <v>1.049491191239759</v>
       </c>
       <c r="N17">
-        <v>0.9490190659029145</v>
+        <v>1.026875534766396</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9194028556586837</v>
+        <v>0.9996855976056156</v>
       </c>
       <c r="D18">
-        <v>1.024189796959711</v>
+        <v>1.038707030280182</v>
       </c>
       <c r="E18">
-        <v>0.9367414412875551</v>
+        <v>1.005831568005348</v>
       </c>
       <c r="F18">
-        <v>1.007753823175334</v>
+        <v>1.037423888134044</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.046061089740291</v>
+        <v>1.054479275041828</v>
       </c>
       <c r="J18">
-        <v>0.9498990660528825</v>
+        <v>1.026760487948562</v>
       </c>
       <c r="K18">
-        <v>1.037603649804773</v>
+        <v>1.051889481500681</v>
       </c>
       <c r="L18">
-        <v>0.951749395370764</v>
+        <v>1.019550394527216</v>
       </c>
       <c r="M18">
-        <v>1.021440044437492</v>
+        <v>1.050626458536686</v>
       </c>
       <c r="N18">
-        <v>0.9512480316816232</v>
+        <v>1.028218605612524</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9203550830863517</v>
+        <v>1.000297926882795</v>
       </c>
       <c r="D19">
-        <v>1.024572917848528</v>
+        <v>1.039082035111512</v>
       </c>
       <c r="E19">
-        <v>0.9375367653075085</v>
+        <v>1.006342960516257</v>
       </c>
       <c r="F19">
-        <v>1.008288442253209</v>
+        <v>1.037877191860732</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.046202446843375</v>
+        <v>1.054716434901606</v>
       </c>
       <c r="J19">
-        <v>0.9506509787308171</v>
+        <v>1.02721512217886</v>
       </c>
       <c r="K19">
-        <v>1.037918211708606</v>
+        <v>1.052197503682688</v>
       </c>
       <c r="L19">
-        <v>0.9524575506279616</v>
+        <v>1.019989136233235</v>
       </c>
       <c r="M19">
-        <v>1.021901839517846</v>
+        <v>1.05101143243685</v>
       </c>
       <c r="N19">
-        <v>0.952001012161806</v>
+        <v>1.028673885475575</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9160609063330185</v>
+        <v>0.9975454750016233</v>
       </c>
       <c r="D20">
-        <v>1.022848806790164</v>
+        <v>1.037397318975517</v>
       </c>
       <c r="E20">
-        <v>0.9339515514418691</v>
+        <v>1.00404482501072</v>
       </c>
       <c r="F20">
-        <v>1.005881413091314</v>
+        <v>1.035840740525227</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.045565048557609</v>
+        <v>1.053649737745228</v>
       </c>
       <c r="J20">
-        <v>0.9472604404927731</v>
+        <v>1.025171343468323</v>
       </c>
       <c r="K20">
-        <v>1.036501443398408</v>
+        <v>1.050812981010776</v>
       </c>
       <c r="L20">
-        <v>0.9492645029247313</v>
+        <v>1.018016921975964</v>
       </c>
       <c r="M20">
-        <v>1.019821627336356</v>
+        <v>1.049281349092446</v>
       </c>
       <c r="N20">
-        <v>0.9486056589705639</v>
+        <v>1.026627204364845</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9014214183755832</v>
+        <v>0.9883395788133814</v>
       </c>
       <c r="D21">
-        <v>1.017043094958404</v>
+        <v>1.0317807953673</v>
       </c>
       <c r="E21">
-        <v>0.921756623940197</v>
+        <v>0.9963698347699289</v>
       </c>
       <c r="F21">
-        <v>0.9977531188480796</v>
+        <v>1.029051774303697</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.043395676137755</v>
+        <v>1.050070939567822</v>
       </c>
       <c r="J21">
-        <v>0.9357086585717959</v>
+        <v>1.018333038668689</v>
       </c>
       <c r="K21">
-        <v>1.031708618000254</v>
+        <v>1.046184088951986</v>
       </c>
       <c r="L21">
-        <v>0.9383891570719012</v>
+        <v>1.011420309671285</v>
       </c>
       <c r="M21">
-        <v>1.012777184481651</v>
+        <v>1.04350289118755</v>
       </c>
       <c r="N21">
-        <v>0.9370374721942512</v>
+        <v>1.019779188388031</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.8916216403012639</v>
+        <v>0.9823383022857132</v>
       </c>
       <c r="D22">
-        <v>1.013221876828635</v>
+        <v>1.028135086580537</v>
       </c>
       <c r="E22">
-        <v>0.9136181891317816</v>
+        <v>0.9913762220472827</v>
       </c>
       <c r="F22">
-        <v>0.9923822528297835</v>
+        <v>1.024644836626931</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041949582803214</v>
+        <v>1.047730053639712</v>
       </c>
       <c r="J22">
-        <v>0.9279836998465665</v>
+        <v>1.013873745594671</v>
       </c>
       <c r="K22">
-        <v>1.028535878727514</v>
+        <v>1.043169053935896</v>
       </c>
       <c r="L22">
-        <v>0.9311198093980312</v>
+        <v>1.007120475562306</v>
       </c>
       <c r="M22">
-        <v>1.008106144483614</v>
+        <v>1.039743389528681</v>
       </c>
       <c r="N22">
-        <v>0.9293015431415667</v>
+        <v>1.015313562606359</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.896878578421911</v>
+        <v>0.985540988222115</v>
       </c>
       <c r="D23">
-        <v>1.015265023722526</v>
+        <v>1.030079105650782</v>
       </c>
       <c r="E23">
-        <v>0.9179813647787353</v>
+        <v>0.9940401851186039</v>
       </c>
       <c r="F23">
-        <v>0.9952561548742922</v>
+        <v>1.026994809421156</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042724521586651</v>
+        <v>1.048980000170028</v>
       </c>
       <c r="J23">
-        <v>0.932126732075547</v>
+        <v>1.016253618553511</v>
       </c>
       <c r="K23">
-        <v>1.030234070934886</v>
+        <v>1.044777768551242</v>
       </c>
       <c r="L23">
-        <v>0.9350181518690468</v>
+        <v>1.009415065893287</v>
       </c>
       <c r="M23">
-        <v>1.010607172022901</v>
+        <v>1.04174893054694</v>
       </c>
       <c r="N23">
-        <v>0.9334504589515249</v>
+        <v>1.017696815257776</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9162973511339191</v>
+        <v>0.9976964305151377</v>
       </c>
       <c r="D24">
-        <v>1.022943496251463</v>
+        <v>1.037489651951355</v>
       </c>
       <c r="E24">
-        <v>0.934148866185635</v>
+        <v>1.004170823858397</v>
       </c>
       <c r="F24">
-        <v>1.006013686384249</v>
+        <v>1.035952349362603</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.045600138864755</v>
+        <v>1.053708282430916</v>
       </c>
       <c r="J24">
-        <v>0.9474471087458075</v>
+        <v>1.025283443725253</v>
       </c>
       <c r="K24">
-        <v>1.036579332183439</v>
+        <v>1.050888909735532</v>
       </c>
       <c r="L24">
-        <v>0.9494402861863408</v>
+        <v>1.018125088923184</v>
       </c>
       <c r="M24">
-        <v>1.019936011620221</v>
+        <v>1.049376207114286</v>
       </c>
       <c r="N24">
-        <v>0.9487925923139288</v>
+        <v>1.026739463816998</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9366920405816396</v>
+        <v>1.010972831049248</v>
       </c>
       <c r="D25">
-        <v>1.031214393300423</v>
+        <v>1.045638430288694</v>
       </c>
       <c r="E25">
-        <v>0.9512082756538395</v>
+        <v>1.015270270691941</v>
       </c>
       <c r="F25">
-        <v>1.017534445947585</v>
+        <v>1.045803402917955</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.048626014105239</v>
+        <v>1.058836088529878</v>
       </c>
       <c r="J25">
-        <v>0.9635554032626016</v>
+        <v>1.0351364756249</v>
       </c>
       <c r="K25">
-        <v>1.043346727319465</v>
+        <v>1.057567294946139</v>
       </c>
       <c r="L25">
-        <v>0.9646143901520264</v>
+        <v>1.027636071581902</v>
       </c>
       <c r="M25">
-        <v>1.029866526358088</v>
+        <v>1.057729981373999</v>
       </c>
       <c r="N25">
-        <v>0.964923762456584</v>
+        <v>1.036606488152101</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_29/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.020986263673583</v>
+        <v>1.055484595288466</v>
       </c>
       <c r="D2">
-        <v>1.051819246468221</v>
+        <v>1.062020755995835</v>
       </c>
       <c r="E2">
-        <v>1.023664569479776</v>
+        <v>1.051825351387883</v>
       </c>
       <c r="F2">
-        <v>1.05327822639339</v>
+        <v>1.070952106439901</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.06267051701977</v>
+        <v>1.053797396651699</v>
       </c>
       <c r="J2">
-        <v>1.042556898742232</v>
+        <v>1.060491213247869</v>
       </c>
       <c r="K2">
-        <v>1.062600947364071</v>
+        <v>1.064743235087471</v>
       </c>
       <c r="L2">
-        <v>1.034803777259426</v>
+        <v>1.054575780288718</v>
       </c>
       <c r="M2">
-        <v>1.064042049113304</v>
+        <v>1.073650573991002</v>
       </c>
       <c r="N2">
-        <v>1.044037449121393</v>
+        <v>1.061997232410723</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.027962194016309</v>
+        <v>1.05687599443131</v>
       </c>
       <c r="D3">
-        <v>1.056141395841195</v>
+        <v>1.062876993838295</v>
       </c>
       <c r="E3">
-        <v>1.029523648267185</v>
+        <v>1.053030207113052</v>
       </c>
       <c r="F3">
-        <v>1.058507737013746</v>
+        <v>1.072023716435031</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.065320935613239</v>
+        <v>1.054237058576753</v>
       </c>
       <c r="J3">
-        <v>1.04771855721499</v>
+        <v>1.061532174587172</v>
       </c>
       <c r="K3">
-        <v>1.06610300369042</v>
+        <v>1.065414103139216</v>
       </c>
       <c r="L3">
-        <v>1.039792206344073</v>
+        <v>1.055592352072423</v>
       </c>
       <c r="M3">
-        <v>1.068442976202046</v>
+        <v>1.074538013597147</v>
       </c>
       <c r="N3">
-        <v>1.049206437741234</v>
+        <v>1.063039672034528</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.032351060674459</v>
+        <v>1.057775435110101</v>
       </c>
       <c r="D4">
-        <v>1.058867029171945</v>
+        <v>1.063430483819862</v>
       </c>
       <c r="E4">
-        <v>1.033214410683832</v>
+        <v>1.053809121210794</v>
       </c>
       <c r="F4">
-        <v>1.061806973059708</v>
+        <v>1.072716783528018</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.066978258743331</v>
+        <v>1.05451987484683</v>
       </c>
       <c r="J4">
-        <v>1.050961925782959</v>
+        <v>1.06220439953324</v>
       </c>
       <c r="K4">
-        <v>1.068303332770709</v>
+        <v>1.065847003081147</v>
       </c>
       <c r="L4">
-        <v>1.042927835773267</v>
+        <v>1.056248867329686</v>
       </c>
       <c r="M4">
-        <v>1.07121256174161</v>
+        <v>1.075111308902807</v>
       </c>
       <c r="N4">
-        <v>1.052454412264588</v>
+        <v>1.063712851617125</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.034167747671851</v>
+        <v>1.058153352245308</v>
       </c>
       <c r="D5">
-        <v>1.059996627090992</v>
+        <v>1.063663039783143</v>
       </c>
       <c r="E5">
-        <v>1.034743143526632</v>
+        <v>1.054136410567349</v>
       </c>
       <c r="F5">
-        <v>1.063174664519834</v>
+        <v>1.073008070321341</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.067661760863077</v>
+        <v>1.05463837126702</v>
       </c>
       <c r="J5">
-        <v>1.052303420935704</v>
+        <v>1.062486683786177</v>
       </c>
       <c r="K5">
-        <v>1.069213291796345</v>
+        <v>1.066028709117001</v>
       </c>
       <c r="L5">
-        <v>1.044225025516989</v>
+        <v>1.056524564304426</v>
       </c>
       <c r="M5">
-        <v>1.072359039919143</v>
+        <v>1.0753520996493</v>
       </c>
       <c r="N5">
-        <v>1.053797812494322</v>
+        <v>1.063995536746079</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.034471155047964</v>
+        <v>1.058216794152391</v>
       </c>
       <c r="D6">
-        <v>1.060185359244899</v>
+        <v>1.063702079292328</v>
       </c>
       <c r="E6">
-        <v>1.034998516593639</v>
+        <v>1.054191354246988</v>
       </c>
       <c r="F6">
-        <v>1.063403200035974</v>
+        <v>1.073056974100274</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.06777576350059</v>
+        <v>1.054658243946246</v>
       </c>
       <c r="J6">
-        <v>1.052527403303187</v>
+        <v>1.062534061936313</v>
       </c>
       <c r="K6">
-        <v>1.069365213633845</v>
+        <v>1.066059201680843</v>
       </c>
       <c r="L6">
-        <v>1.044441625275008</v>
+        <v>1.056570837418278</v>
       </c>
       <c r="M6">
-        <v>1.072550514987993</v>
+        <v>1.075392516474797</v>
       </c>
       <c r="N6">
-        <v>1.054022112942458</v>
+        <v>1.064042982178623</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.03237544494913</v>
+        <v>1.057780485667654</v>
       </c>
       <c r="D7">
-        <v>1.058882185833175</v>
+        <v>1.063433591758169</v>
       </c>
       <c r="E7">
-        <v>1.033234926022695</v>
+        <v>1.053813495115757</v>
       </c>
       <c r="F7">
-        <v>1.061825322880971</v>
+        <v>1.072720676022971</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.066987443018112</v>
+        <v>1.05452145977009</v>
       </c>
       <c r="J7">
-        <v>1.050979936021682</v>
+        <v>1.062208172679085</v>
       </c>
       <c r="K7">
-        <v>1.068315549999785</v>
+        <v>1.065849432164664</v>
       </c>
       <c r="L7">
-        <v>1.042945250186064</v>
+        <v>1.056252552389099</v>
       </c>
       <c r="M7">
-        <v>1.071227950128134</v>
+        <v>1.075114527232949</v>
       </c>
       <c r="N7">
-        <v>1.052472448079917</v>
+        <v>1.06371663012127</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.023370664368607</v>
+        <v>1.055955011802614</v>
       </c>
       <c r="D8">
-        <v>1.053295131161446</v>
+        <v>1.062310240845352</v>
       </c>
       <c r="E8">
-        <v>1.02566621419615</v>
+        <v>1.05223268669033</v>
       </c>
       <c r="F8">
-        <v>1.055063675205582</v>
+        <v>1.071314332809851</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.063578537880259</v>
+        <v>1.0539463299449</v>
       </c>
       <c r="J8">
-        <v>1.044321991085356</v>
+        <v>1.060843291813782</v>
       </c>
       <c r="K8">
-        <v>1.06379851886268</v>
+        <v>1.064970206658431</v>
       </c>
       <c r="L8">
-        <v>1.036509391060093</v>
+        <v>1.054919601289604</v>
       </c>
       <c r="M8">
-        <v>1.06554606390911</v>
+        <v>1.073950683573067</v>
       </c>
       <c r="N8">
-        <v>1.045805048098104</v>
+        <v>1.062349810968584</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.00646961788375</v>
+        <v>1.052731281675148</v>
       </c>
       <c r="D9">
-        <v>1.0428683386431</v>
+        <v>1.060326461861782</v>
       </c>
       <c r="E9">
-        <v>1.011501522972438</v>
+        <v>1.049441524334526</v>
       </c>
       <c r="F9">
-        <v>1.042454312622237</v>
+        <v>1.068833516235759</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057101809357354</v>
+        <v>1.052919994641413</v>
       </c>
       <c r="J9">
-        <v>1.031795967701764</v>
+        <v>1.05842773644833</v>
       </c>
       <c r="K9">
-        <v>1.055302191395342</v>
+        <v>1.063411673547697</v>
       </c>
       <c r="L9">
-        <v>1.024410711958977</v>
+        <v>1.052560868701486</v>
       </c>
       <c r="M9">
-        <v>1.054894203180788</v>
+        <v>1.071892579896774</v>
       </c>
       <c r="N9">
-        <v>1.033261236324552</v>
+        <v>1.059930825237445</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9943891982500687</v>
+        <v>1.050577112957883</v>
       </c>
       <c r="D10">
-        <v>1.035468474111232</v>
+        <v>1.059000978296841</v>
       </c>
       <c r="E10">
-        <v>1.001411433733573</v>
+        <v>1.04757678510104</v>
       </c>
       <c r="F10">
-        <v>1.033509245260343</v>
+        <v>1.067177728297975</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052424564677146</v>
+        <v>1.052227025063215</v>
       </c>
       <c r="J10">
-        <v>1.022827209853924</v>
+        <v>1.056810125164229</v>
       </c>
       <c r="K10">
-        <v>1.049225562035464</v>
+        <v>1.06236636098221</v>
       </c>
       <c r="L10">
-        <v>1.015755250985016</v>
+        <v>1.050981524784366</v>
       </c>
       <c r="M10">
-        <v>1.047298736827605</v>
+        <v>1.070515509978622</v>
       </c>
       <c r="N10">
-        <v>1.024279741811837</v>
+        <v>1.058310916759778</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9889348677663456</v>
+        <v>1.049643077074695</v>
       </c>
       <c r="D11">
-        <v>1.032143113089449</v>
+        <v>1.058426307747034</v>
       </c>
       <c r="E11">
-        <v>0.9968655908740669</v>
+        <v>1.046768343570363</v>
       </c>
       <c r="F11">
-        <v>1.029489729486444</v>
+        <v>1.066460272818242</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050302827672862</v>
+        <v>1.051924867954077</v>
       </c>
       <c r="J11">
-        <v>1.0187753258487</v>
+        <v>1.056107917315635</v>
       </c>
       <c r="K11">
-        <v>1.046483290147462</v>
+        <v>1.061912216876012</v>
       </c>
       <c r="L11">
-        <v>1.011846860629855</v>
+        <v>1.050295980822018</v>
       </c>
       <c r="M11">
-        <v>1.043876146776688</v>
+        <v>1.069918010379036</v>
       </c>
       <c r="N11">
-        <v>1.020222103666568</v>
+        <v>1.057607711695494</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9868723451504863</v>
+        <v>1.049295938368985</v>
       </c>
       <c r="D12">
-        <v>1.030888299792063</v>
+        <v>1.058212738542805</v>
       </c>
       <c r="E12">
-        <v>0.9951482464132912</v>
+        <v>1.046467898309253</v>
       </c>
       <c r="F12">
-        <v>1.027972952423416</v>
+        <v>1.066193702026845</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049499143670171</v>
+        <v>1.051812316619912</v>
       </c>
       <c r="J12">
-        <v>1.01724287294317</v>
+        <v>1.055846815785593</v>
       </c>
       <c r="K12">
-        <v>1.045446726305132</v>
+        <v>1.06174329781446</v>
       </c>
       <c r="L12">
-        <v>1.010368992429044</v>
+        <v>1.050041083299969</v>
       </c>
       <c r="M12">
-        <v>1.042583165430532</v>
+        <v>1.069695886825771</v>
       </c>
       <c r="N12">
-        <v>1.018687474502137</v>
+        <v>1.057346239371331</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9873164685114936</v>
+        <v>1.049370409772786</v>
       </c>
       <c r="D13">
-        <v>1.031158374219112</v>
+        <v>1.058258554911214</v>
       </c>
       <c r="E13">
-        <v>0.9955179657926849</v>
+        <v>1.046532351878967</v>
       </c>
       <c r="F13">
-        <v>1.028299411768968</v>
+        <v>1.066250885840775</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049672260277432</v>
+        <v>1.051836473623649</v>
       </c>
       <c r="J13">
-        <v>1.01757286593971</v>
+        <v>1.055902835246813</v>
       </c>
       <c r="K13">
-        <v>1.045669907707978</v>
+        <v>1.061779541951362</v>
       </c>
       <c r="L13">
-        <v>1.010687216799632</v>
+        <v>1.050095771330192</v>
       </c>
       <c r="M13">
-        <v>1.042861522902569</v>
+        <v>1.069743541519742</v>
       </c>
       <c r="N13">
-        <v>1.019017936126584</v>
+        <v>1.057402338386612</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9887651429107222</v>
+        <v>1.049614386517433</v>
       </c>
       <c r="D14">
-        <v>1.032039798991102</v>
+        <v>1.058408656323665</v>
       </c>
       <c r="E14">
-        <v>0.9967242364888975</v>
+        <v>1.046743511839348</v>
       </c>
       <c r="F14">
-        <v>1.029364847718961</v>
+        <v>1.066438239556005</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050236719376062</v>
+        <v>1.051915570896891</v>
       </c>
       <c r="J14">
-        <v>1.018649224910134</v>
+        <v>1.056086340119051</v>
       </c>
       <c r="K14">
-        <v>1.046397981785469</v>
+        <v>1.061898258670521</v>
       </c>
       <c r="L14">
-        <v>1.011725244798281</v>
+        <v>1.050274916157837</v>
       </c>
       <c r="M14">
-        <v>1.043769720635353</v>
+        <v>1.069899653377048</v>
       </c>
       <c r="N14">
-        <v>1.020095823650205</v>
+        <v>1.057586103856816</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.98965278189531</v>
+        <v>1.049764682467993</v>
       </c>
       <c r="D15">
-        <v>1.032580227979814</v>
+        <v>1.058501124001831</v>
       </c>
       <c r="E15">
-        <v>0.9974635692147142</v>
+        <v>1.046873593914714</v>
       </c>
       <c r="F15">
-        <v>1.03001809423739</v>
+        <v>1.066553664233015</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050582402656043</v>
+        <v>1.051964263315911</v>
       </c>
       <c r="J15">
-        <v>1.01930870672475</v>
+        <v>1.056199367590237</v>
       </c>
       <c r="K15">
-        <v>1.046844151416763</v>
+        <v>1.061971373464349</v>
       </c>
       <c r="L15">
-        <v>1.012361283340575</v>
+        <v>1.05038525916228</v>
       </c>
       <c r="M15">
-        <v>1.044326367843584</v>
+        <v>1.069995814378369</v>
       </c>
       <c r="N15">
-        <v>1.020756242004642</v>
+        <v>1.057699291839976</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9947462309605484</v>
+        <v>1.05063907465457</v>
       </c>
       <c r="D16">
-        <v>1.035686496677855</v>
+        <v>1.059039101818969</v>
       </c>
       <c r="E16">
-        <v>1.001709215174369</v>
+        <v>1.047630417330226</v>
       </c>
       <c r="F16">
-        <v>1.033772778814495</v>
+        <v>1.06722533295207</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052563255324505</v>
+        <v>1.052247033913294</v>
       </c>
       <c r="J16">
-        <v>1.023092398533843</v>
+        <v>1.056856690711827</v>
       </c>
       <c r="K16">
-        <v>1.049405112061799</v>
+        <v>1.06239646891651</v>
       </c>
       <c r="L16">
-        <v>1.016011090411465</v>
+        <v>1.051026986399066</v>
       </c>
       <c r="M16">
-        <v>1.047522934104081</v>
+        <v>1.07055513816498</v>
       </c>
       <c r="N16">
-        <v>1.0245453070901</v>
+        <v>1.058357548435794</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.997879407650306</v>
+        <v>1.051187214509654</v>
       </c>
       <c r="D17">
-        <v>1.037601581124757</v>
+        <v>1.059376365152306</v>
       </c>
       <c r="E17">
-        <v>1.004323556628986</v>
+        <v>1.048104882692404</v>
       </c>
       <c r="F17">
-        <v>1.036087645579665</v>
+        <v>1.067646520476502</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053779239460213</v>
+        <v>1.052423845875983</v>
       </c>
       <c r="J17">
-        <v>1.025419321712324</v>
+        <v>1.057268534957721</v>
       </c>
       <c r="K17">
-        <v>1.050980945663181</v>
+        <v>1.062662712667902</v>
       </c>
       <c r="L17">
-        <v>1.018256200549785</v>
+        <v>1.051429073026769</v>
       </c>
       <c r="M17">
-        <v>1.049491191239759</v>
+        <v>1.070905659069875</v>
       </c>
       <c r="N17">
-        <v>1.026875534766396</v>
+        <v>1.058769977547757</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9996855976056156</v>
+        <v>1.051506813404152</v>
       </c>
       <c r="D18">
-        <v>1.038707030280182</v>
+        <v>1.059573015079052</v>
       </c>
       <c r="E18">
-        <v>1.005831568005348</v>
+        <v>1.048381534392224</v>
       </c>
       <c r="F18">
-        <v>1.037423888134044</v>
+        <v>1.067892145083862</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054479275041828</v>
+        <v>1.052526775117859</v>
       </c>
       <c r="J18">
-        <v>1.026760487948562</v>
+        <v>1.057508586096068</v>
       </c>
       <c r="K18">
-        <v>1.051889481500681</v>
+        <v>1.062817861912821</v>
       </c>
       <c r="L18">
-        <v>1.019550394527216</v>
+        <v>1.051663441754618</v>
       </c>
       <c r="M18">
-        <v>1.050626458536686</v>
+        <v>1.071109994509973</v>
       </c>
       <c r="N18">
-        <v>1.028218605612524</v>
+        <v>1.059010369586255</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.000297926882795</v>
+        <v>1.051615767884617</v>
       </c>
       <c r="D19">
-        <v>1.039082035111512</v>
+        <v>1.059640055787617</v>
       </c>
       <c r="E19">
-        <v>1.006342960516257</v>
+        <v>1.048475849331597</v>
       </c>
       <c r="F19">
-        <v>1.037877191860732</v>
+        <v>1.067975888839153</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054716434901606</v>
+        <v>1.052561837087176</v>
       </c>
       <c r="J19">
-        <v>1.02721512217886</v>
+        <v>1.057590408510908</v>
       </c>
       <c r="K19">
-        <v>1.052197503682688</v>
+        <v>1.062870739047422</v>
       </c>
       <c r="L19">
-        <v>1.019989136233235</v>
+        <v>1.051743328142273</v>
       </c>
       <c r="M19">
-        <v>1.05101143243685</v>
+        <v>1.071179647761656</v>
       </c>
       <c r="N19">
-        <v>1.028673885475575</v>
+        <v>1.059092308198309</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9975454750016233</v>
+        <v>1.051128416934324</v>
       </c>
       <c r="D20">
-        <v>1.037397318975517</v>
+        <v>1.059340187249156</v>
       </c>
       <c r="E20">
-        <v>1.00404482501072</v>
+        <v>1.048053987002899</v>
       </c>
       <c r="F20">
-        <v>1.035840740525227</v>
+        <v>1.067601335916653</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053649737745228</v>
+        <v>1.05240489655171</v>
       </c>
       <c r="J20">
-        <v>1.025171343468323</v>
+        <v>1.057224365649229</v>
       </c>
       <c r="K20">
-        <v>1.050812981010776</v>
+        <v>1.062634162372416</v>
       </c>
       <c r="L20">
-        <v>1.018016921975964</v>
+        <v>1.051385949681531</v>
       </c>
       <c r="M20">
-        <v>1.049281349092446</v>
+        <v>1.070868063663388</v>
       </c>
       <c r="N20">
-        <v>1.026627204364845</v>
+        <v>1.05872574551378</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9883395788133814</v>
+        <v>1.049542546910422</v>
       </c>
       <c r="D21">
-        <v>1.0317807953673</v>
+        <v>1.058364458275963</v>
       </c>
       <c r="E21">
-        <v>0.9963698347699289</v>
+        <v>1.046681334781847</v>
       </c>
       <c r="F21">
-        <v>1.029051774303697</v>
+        <v>1.066383070671478</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050070939567822</v>
+        <v>1.051892287478566</v>
       </c>
       <c r="J21">
-        <v>1.018333038668689</v>
+        <v>1.056032310001895</v>
       </c>
       <c r="K21">
-        <v>1.046184088951986</v>
+        <v>1.061863305911798</v>
       </c>
       <c r="L21">
-        <v>1.011420309671285</v>
+        <v>1.050222169568841</v>
       </c>
       <c r="M21">
-        <v>1.04350289118755</v>
+        <v>1.069853687469011</v>
       </c>
       <c r="N21">
-        <v>1.019779188388031</v>
+        <v>1.057531997010697</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9823383022857132</v>
+        <v>1.048544309443231</v>
       </c>
       <c r="D22">
-        <v>1.028135086580537</v>
+        <v>1.057750335830301</v>
       </c>
       <c r="E22">
-        <v>0.9913762220472827</v>
+        <v>1.045817400254346</v>
       </c>
       <c r="F22">
-        <v>1.024644836626931</v>
+        <v>1.065616658676261</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047730053639712</v>
+        <v>1.051568156444444</v>
       </c>
       <c r="J22">
-        <v>1.013873745594671</v>
+        <v>1.055281251551425</v>
       </c>
       <c r="K22">
-        <v>1.043169053935896</v>
+        <v>1.061377307857607</v>
       </c>
       <c r="L22">
-        <v>1.007120475562306</v>
+        <v>1.049488971895735</v>
       </c>
       <c r="M22">
-        <v>1.039743389528681</v>
+        <v>1.069214833869165</v>
       </c>
       <c r="N22">
-        <v>1.015313562606359</v>
+        <v>1.056779871971079</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.985540988222115</v>
+        <v>1.04907360386037</v>
       </c>
       <c r="D23">
-        <v>1.030079105650782</v>
+        <v>1.05807595526637</v>
       </c>
       <c r="E23">
-        <v>0.9940401851186039</v>
+        <v>1.046275474427649</v>
       </c>
       <c r="F23">
-        <v>1.026994809421156</v>
+        <v>1.066022990751364</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048980000170028</v>
+        <v>1.05174015879783</v>
       </c>
       <c r="J23">
-        <v>1.016253618553511</v>
+        <v>1.055679551643482</v>
       </c>
       <c r="K23">
-        <v>1.044777768551242</v>
+        <v>1.061635071303521</v>
       </c>
       <c r="L23">
-        <v>1.009415065893287</v>
+        <v>1.049877795734648</v>
       </c>
       <c r="M23">
-        <v>1.04174893054694</v>
+        <v>1.069553604962324</v>
       </c>
       <c r="N23">
-        <v>1.017696815257776</v>
+        <v>1.057178737694953</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9976964305151377</v>
+        <v>1.05115498540371</v>
       </c>
       <c r="D24">
-        <v>1.037489651951355</v>
+        <v>1.059356534702852</v>
       </c>
       <c r="E24">
-        <v>1.004170823858397</v>
+        <v>1.048076984870367</v>
       </c>
       <c r="F24">
-        <v>1.035952349362603</v>
+        <v>1.067621753019338</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053708282430916</v>
+        <v>1.052413459560331</v>
       </c>
       <c r="J24">
-        <v>1.025283443725253</v>
+        <v>1.05724432438552</v>
       </c>
       <c r="K24">
-        <v>1.050888909735532</v>
+        <v>1.062647063473809</v>
       </c>
       <c r="L24">
-        <v>1.018125088923184</v>
+        <v>1.051405435764128</v>
       </c>
       <c r="M24">
-        <v>1.049376207114286</v>
+        <v>1.07088505177222</v>
       </c>
       <c r="N24">
-        <v>1.026739463816998</v>
+        <v>1.058745732593767</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.010972831049248</v>
+        <v>1.053565555029832</v>
       </c>
       <c r="D25">
-        <v>1.045638430288694</v>
+        <v>1.060839832896591</v>
       </c>
       <c r="E25">
-        <v>1.015270270691941</v>
+        <v>1.050163789593386</v>
       </c>
       <c r="F25">
-        <v>1.045803402917955</v>
+        <v>1.069475194496039</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.058836088529878</v>
+        <v>1.053186862265363</v>
       </c>
       <c r="J25">
-        <v>1.0351364756249</v>
+        <v>1.059053476401751</v>
       </c>
       <c r="K25">
-        <v>1.057567294946139</v>
+        <v>1.063815693976133</v>
       </c>
       <c r="L25">
-        <v>1.027636071581902</v>
+        <v>1.053171851397408</v>
       </c>
       <c r="M25">
-        <v>1.057729981373999</v>
+        <v>1.072425521756394</v>
       </c>
       <c r="N25">
-        <v>1.036606488152101</v>
+        <v>1.060557453813373</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_29/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.055484595288466</v>
+        <v>1.020986263673582</v>
       </c>
       <c r="D2">
-        <v>1.062020755995835</v>
+        <v>1.05181924646822</v>
       </c>
       <c r="E2">
-        <v>1.051825351387883</v>
+        <v>1.023664569479775</v>
       </c>
       <c r="F2">
-        <v>1.070952106439901</v>
+        <v>1.053278226393389</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.053797396651699</v>
+        <v>1.062670517019769</v>
       </c>
       <c r="J2">
-        <v>1.060491213247869</v>
+        <v>1.04255689874223</v>
       </c>
       <c r="K2">
-        <v>1.064743235087471</v>
+        <v>1.06260094736407</v>
       </c>
       <c r="L2">
-        <v>1.054575780288718</v>
+        <v>1.034803777259425</v>
       </c>
       <c r="M2">
-        <v>1.073650573991002</v>
+        <v>1.064042049113303</v>
       </c>
       <c r="N2">
-        <v>1.061997232410723</v>
+        <v>1.044037449121392</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.05687599443131</v>
+        <v>1.027962194016308</v>
       </c>
       <c r="D3">
-        <v>1.062876993838295</v>
+        <v>1.056141395841194</v>
       </c>
       <c r="E3">
-        <v>1.053030207113052</v>
+        <v>1.029523648267184</v>
       </c>
       <c r="F3">
-        <v>1.072023716435031</v>
+        <v>1.058507737013745</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.054237058576753</v>
+        <v>1.065320935613239</v>
       </c>
       <c r="J3">
-        <v>1.061532174587172</v>
+        <v>1.047718557214989</v>
       </c>
       <c r="K3">
-        <v>1.065414103139216</v>
+        <v>1.06610300369042</v>
       </c>
       <c r="L3">
-        <v>1.055592352072423</v>
+        <v>1.039792206344072</v>
       </c>
       <c r="M3">
-        <v>1.074538013597147</v>
+        <v>1.068442976202044</v>
       </c>
       <c r="N3">
-        <v>1.063039672034528</v>
+        <v>1.049206437741233</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.057775435110101</v>
+        <v>1.032351060674459</v>
       </c>
       <c r="D4">
-        <v>1.063430483819862</v>
+        <v>1.058867029171945</v>
       </c>
       <c r="E4">
-        <v>1.053809121210794</v>
+        <v>1.033214410683832</v>
       </c>
       <c r="F4">
-        <v>1.072716783528018</v>
+        <v>1.061806973059708</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05451987484683</v>
+        <v>1.066978258743331</v>
       </c>
       <c r="J4">
-        <v>1.06220439953324</v>
+        <v>1.050961925782959</v>
       </c>
       <c r="K4">
-        <v>1.065847003081147</v>
+        <v>1.068303332770709</v>
       </c>
       <c r="L4">
-        <v>1.056248867329686</v>
+        <v>1.042927835773267</v>
       </c>
       <c r="M4">
-        <v>1.075111308902807</v>
+        <v>1.07121256174161</v>
       </c>
       <c r="N4">
-        <v>1.063712851617125</v>
+        <v>1.052454412264588</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.058153352245308</v>
+        <v>1.03416774767185</v>
       </c>
       <c r="D5">
-        <v>1.063663039783143</v>
+        <v>1.059996627090992</v>
       </c>
       <c r="E5">
-        <v>1.054136410567349</v>
+        <v>1.034743143526631</v>
       </c>
       <c r="F5">
-        <v>1.073008070321341</v>
+        <v>1.063174664519833</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.05463837126702</v>
+        <v>1.067661760863076</v>
       </c>
       <c r="J5">
-        <v>1.062486683786177</v>
+        <v>1.052303420935703</v>
       </c>
       <c r="K5">
-        <v>1.066028709117001</v>
+        <v>1.069213291796344</v>
       </c>
       <c r="L5">
-        <v>1.056524564304426</v>
+        <v>1.044225025516988</v>
       </c>
       <c r="M5">
-        <v>1.0753520996493</v>
+        <v>1.072359039919143</v>
       </c>
       <c r="N5">
-        <v>1.063995536746079</v>
+        <v>1.053797812494321</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.058216794152391</v>
+        <v>1.034471155047962</v>
       </c>
       <c r="D6">
-        <v>1.063702079292328</v>
+        <v>1.060185359244898</v>
       </c>
       <c r="E6">
-        <v>1.054191354246988</v>
+        <v>1.034998516593638</v>
       </c>
       <c r="F6">
-        <v>1.073056974100274</v>
+        <v>1.063403200035973</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.054658243946246</v>
+        <v>1.06777576350059</v>
       </c>
       <c r="J6">
-        <v>1.062534061936313</v>
+        <v>1.052527403303186</v>
       </c>
       <c r="K6">
-        <v>1.066059201680843</v>
+        <v>1.069365213633844</v>
       </c>
       <c r="L6">
-        <v>1.056570837418278</v>
+        <v>1.044441625275006</v>
       </c>
       <c r="M6">
-        <v>1.075392516474797</v>
+        <v>1.072550514987992</v>
       </c>
       <c r="N6">
-        <v>1.064042982178623</v>
+        <v>1.054022112942457</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.057780485667654</v>
+        <v>1.032375444949129</v>
       </c>
       <c r="D7">
-        <v>1.063433591758169</v>
+        <v>1.058882185833174</v>
       </c>
       <c r="E7">
-        <v>1.053813495115757</v>
+        <v>1.033234926022695</v>
       </c>
       <c r="F7">
-        <v>1.072720676022971</v>
+        <v>1.06182532288097</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.05452145977009</v>
+        <v>1.066987443018111</v>
       </c>
       <c r="J7">
-        <v>1.062208172679085</v>
+        <v>1.050979936021682</v>
       </c>
       <c r="K7">
-        <v>1.065849432164664</v>
+        <v>1.068315549999785</v>
       </c>
       <c r="L7">
-        <v>1.056252552389099</v>
+        <v>1.042945250186063</v>
       </c>
       <c r="M7">
-        <v>1.075114527232949</v>
+        <v>1.071227950128133</v>
       </c>
       <c r="N7">
-        <v>1.06371663012127</v>
+        <v>1.052472448079916</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.055955011802614</v>
+        <v>1.023370664368607</v>
       </c>
       <c r="D8">
-        <v>1.062310240845352</v>
+        <v>1.053295131161446</v>
       </c>
       <c r="E8">
-        <v>1.05223268669033</v>
+        <v>1.025666214196151</v>
       </c>
       <c r="F8">
-        <v>1.071314332809851</v>
+        <v>1.055063675205583</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.0539463299449</v>
+        <v>1.063578537880259</v>
       </c>
       <c r="J8">
-        <v>1.060843291813782</v>
+        <v>1.044321991085357</v>
       </c>
       <c r="K8">
-        <v>1.064970206658431</v>
+        <v>1.06379851886268</v>
       </c>
       <c r="L8">
-        <v>1.054919601289604</v>
+        <v>1.036509391060094</v>
       </c>
       <c r="M8">
-        <v>1.073950683573067</v>
+        <v>1.065546063909111</v>
       </c>
       <c r="N8">
-        <v>1.062349810968584</v>
+        <v>1.045805048098104</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.052731281675148</v>
+        <v>1.00646961788375</v>
       </c>
       <c r="D9">
-        <v>1.060326461861782</v>
+        <v>1.0428683386431</v>
       </c>
       <c r="E9">
-        <v>1.049441524334526</v>
+        <v>1.011501522972438</v>
       </c>
       <c r="F9">
-        <v>1.068833516235759</v>
+        <v>1.042454312622237</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.052919994641413</v>
+        <v>1.057101809357353</v>
       </c>
       <c r="J9">
-        <v>1.05842773644833</v>
+        <v>1.031795967701763</v>
       </c>
       <c r="K9">
-        <v>1.063411673547697</v>
+        <v>1.055302191395342</v>
       </c>
       <c r="L9">
-        <v>1.052560868701486</v>
+        <v>1.024410711958977</v>
       </c>
       <c r="M9">
-        <v>1.071892579896774</v>
+        <v>1.054894203180787</v>
       </c>
       <c r="N9">
-        <v>1.059930825237445</v>
+        <v>1.033261236324551</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.050577112957883</v>
+        <v>0.9943891982500677</v>
       </c>
       <c r="D10">
-        <v>1.059000978296841</v>
+        <v>1.035468474111232</v>
       </c>
       <c r="E10">
-        <v>1.04757678510104</v>
+        <v>1.001411433733572</v>
       </c>
       <c r="F10">
-        <v>1.067177728297975</v>
+        <v>1.033509245260342</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052227025063215</v>
+        <v>1.052424564677145</v>
       </c>
       <c r="J10">
-        <v>1.056810125164229</v>
+        <v>1.022827209853923</v>
       </c>
       <c r="K10">
-        <v>1.06236636098221</v>
+        <v>1.049225562035464</v>
       </c>
       <c r="L10">
-        <v>1.050981524784366</v>
+        <v>1.015755250985015</v>
       </c>
       <c r="M10">
-        <v>1.070515509978622</v>
+        <v>1.047298736827605</v>
       </c>
       <c r="N10">
-        <v>1.058310916759778</v>
+        <v>1.024279741811836</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.049643077074695</v>
+        <v>0.9889348677663479</v>
       </c>
       <c r="D11">
-        <v>1.058426307747034</v>
+        <v>1.03214311308945</v>
       </c>
       <c r="E11">
-        <v>1.046768343570363</v>
+        <v>0.9968655908740692</v>
       </c>
       <c r="F11">
-        <v>1.066460272818242</v>
+        <v>1.029489729486445</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.051924867954077</v>
+        <v>1.050302827672863</v>
       </c>
       <c r="J11">
-        <v>1.056107917315635</v>
+        <v>1.018775325848702</v>
       </c>
       <c r="K11">
-        <v>1.061912216876012</v>
+        <v>1.046483290147463</v>
       </c>
       <c r="L11">
-        <v>1.050295980822018</v>
+        <v>1.011846860629857</v>
       </c>
       <c r="M11">
-        <v>1.069918010379036</v>
+        <v>1.043876146776689</v>
       </c>
       <c r="N11">
-        <v>1.057607711695494</v>
+        <v>1.02022210366657</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.049295938368985</v>
+        <v>0.9868723451504862</v>
       </c>
       <c r="D12">
-        <v>1.058212738542805</v>
+        <v>1.030888299792063</v>
       </c>
       <c r="E12">
-        <v>1.046467898309253</v>
+        <v>0.9951482464132912</v>
       </c>
       <c r="F12">
-        <v>1.066193702026845</v>
+        <v>1.027972952423416</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.051812316619912</v>
+        <v>1.049499143670171</v>
       </c>
       <c r="J12">
-        <v>1.055846815785593</v>
+        <v>1.01724287294317</v>
       </c>
       <c r="K12">
-        <v>1.06174329781446</v>
+        <v>1.045446726305132</v>
       </c>
       <c r="L12">
-        <v>1.050041083299969</v>
+        <v>1.010368992429044</v>
       </c>
       <c r="M12">
-        <v>1.069695886825771</v>
+        <v>1.042583165430532</v>
       </c>
       <c r="N12">
-        <v>1.057346239371331</v>
+        <v>1.018687474502137</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.049370409772786</v>
+        <v>0.987316468511493</v>
       </c>
       <c r="D13">
-        <v>1.058258554911214</v>
+        <v>1.031158374219112</v>
       </c>
       <c r="E13">
-        <v>1.046532351878967</v>
+        <v>0.9955179657926843</v>
       </c>
       <c r="F13">
-        <v>1.066250885840775</v>
+        <v>1.028299411768968</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.051836473623649</v>
+        <v>1.049672260277432</v>
       </c>
       <c r="J13">
-        <v>1.055902835246813</v>
+        <v>1.01757286593971</v>
       </c>
       <c r="K13">
-        <v>1.061779541951362</v>
+        <v>1.045669907707978</v>
       </c>
       <c r="L13">
-        <v>1.050095771330192</v>
+        <v>1.010687216799631</v>
       </c>
       <c r="M13">
-        <v>1.069743541519742</v>
+        <v>1.042861522902569</v>
       </c>
       <c r="N13">
-        <v>1.057402338386612</v>
+        <v>1.019017936126583</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.049614386517433</v>
+        <v>0.988765142910723</v>
       </c>
       <c r="D14">
-        <v>1.058408656323665</v>
+        <v>1.032039798991103</v>
       </c>
       <c r="E14">
-        <v>1.046743511839348</v>
+        <v>0.9967242364888982</v>
       </c>
       <c r="F14">
-        <v>1.066438239556005</v>
+        <v>1.029364847718961</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.051915570896891</v>
+        <v>1.050236719376063</v>
       </c>
       <c r="J14">
-        <v>1.056086340119051</v>
+        <v>1.018649224910134</v>
       </c>
       <c r="K14">
-        <v>1.061898258670521</v>
+        <v>1.046397981785469</v>
       </c>
       <c r="L14">
-        <v>1.050274916157837</v>
+        <v>1.011725244798281</v>
       </c>
       <c r="M14">
-        <v>1.069899653377048</v>
+        <v>1.043769720635353</v>
       </c>
       <c r="N14">
-        <v>1.057586103856816</v>
+        <v>1.020095823650206</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.049764682467993</v>
+        <v>0.9896527818953113</v>
       </c>
       <c r="D15">
-        <v>1.058501124001831</v>
+        <v>1.032580227979814</v>
       </c>
       <c r="E15">
-        <v>1.046873593914714</v>
+        <v>0.9974635692147152</v>
       </c>
       <c r="F15">
-        <v>1.066553664233015</v>
+        <v>1.03001809423739</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.051964263315911</v>
+        <v>1.050582402656044</v>
       </c>
       <c r="J15">
-        <v>1.056199367590237</v>
+        <v>1.019308706724751</v>
       </c>
       <c r="K15">
-        <v>1.061971373464349</v>
+        <v>1.046844151416764</v>
       </c>
       <c r="L15">
-        <v>1.05038525916228</v>
+        <v>1.012361283340576</v>
       </c>
       <c r="M15">
-        <v>1.069995814378369</v>
+        <v>1.044326367843584</v>
       </c>
       <c r="N15">
-        <v>1.057699291839976</v>
+        <v>1.020756242004643</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.05063907465457</v>
+        <v>0.9947462309605489</v>
       </c>
       <c r="D16">
-        <v>1.059039101818969</v>
+        <v>1.035686496677856</v>
       </c>
       <c r="E16">
-        <v>1.047630417330226</v>
+        <v>1.00170921517437</v>
       </c>
       <c r="F16">
-        <v>1.06722533295207</v>
+        <v>1.033772778814496</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052247033913294</v>
+        <v>1.052563255324505</v>
       </c>
       <c r="J16">
-        <v>1.056856690711827</v>
+        <v>1.023092398533844</v>
       </c>
       <c r="K16">
-        <v>1.06239646891651</v>
+        <v>1.0494051120618</v>
       </c>
       <c r="L16">
-        <v>1.051026986399066</v>
+        <v>1.016011090411466</v>
       </c>
       <c r="M16">
-        <v>1.07055513816498</v>
+        <v>1.047522934104082</v>
       </c>
       <c r="N16">
-        <v>1.058357548435794</v>
+        <v>1.0245453070901</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.051187214509654</v>
+        <v>0.9978794076503055</v>
       </c>
       <c r="D17">
-        <v>1.059376365152306</v>
+        <v>1.037601581124757</v>
       </c>
       <c r="E17">
-        <v>1.048104882692404</v>
+        <v>1.004323556628985</v>
       </c>
       <c r="F17">
-        <v>1.067646520476502</v>
+        <v>1.036087645579665</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.052423845875983</v>
+        <v>1.053779239460213</v>
       </c>
       <c r="J17">
-        <v>1.057268534957721</v>
+        <v>1.025419321712324</v>
       </c>
       <c r="K17">
-        <v>1.062662712667902</v>
+        <v>1.05098094566318</v>
       </c>
       <c r="L17">
-        <v>1.051429073026769</v>
+        <v>1.018256200549784</v>
       </c>
       <c r="M17">
-        <v>1.070905659069875</v>
+        <v>1.049491191239759</v>
       </c>
       <c r="N17">
-        <v>1.058769977547757</v>
+        <v>1.026875534766395</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.051506813404152</v>
+        <v>0.9996855976056158</v>
       </c>
       <c r="D18">
-        <v>1.059573015079052</v>
+        <v>1.038707030280183</v>
       </c>
       <c r="E18">
-        <v>1.048381534392224</v>
+        <v>1.005831568005348</v>
       </c>
       <c r="F18">
-        <v>1.067892145083862</v>
+        <v>1.037423888134044</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.052526775117859</v>
+        <v>1.054479275041828</v>
       </c>
       <c r="J18">
-        <v>1.057508586096068</v>
+        <v>1.026760487948563</v>
       </c>
       <c r="K18">
-        <v>1.062817861912821</v>
+        <v>1.051889481500682</v>
       </c>
       <c r="L18">
-        <v>1.051663441754618</v>
+        <v>1.019550394527216</v>
       </c>
       <c r="M18">
-        <v>1.071109994509973</v>
+        <v>1.050626458536687</v>
       </c>
       <c r="N18">
-        <v>1.059010369586255</v>
+        <v>1.028218605612524</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.051615767884617</v>
+        <v>1.000297926882796</v>
       </c>
       <c r="D19">
-        <v>1.059640055787617</v>
+        <v>1.039082035111511</v>
       </c>
       <c r="E19">
-        <v>1.048475849331597</v>
+        <v>1.006342960516257</v>
       </c>
       <c r="F19">
-        <v>1.067975888839153</v>
+        <v>1.037877191860732</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.052561837087176</v>
+        <v>1.054716434901606</v>
       </c>
       <c r="J19">
-        <v>1.057590408510908</v>
+        <v>1.02721512217886</v>
       </c>
       <c r="K19">
-        <v>1.062870739047422</v>
+        <v>1.052197503682688</v>
       </c>
       <c r="L19">
-        <v>1.051743328142273</v>
+        <v>1.019989136233236</v>
       </c>
       <c r="M19">
-        <v>1.071179647761656</v>
+        <v>1.05101143243685</v>
       </c>
       <c r="N19">
-        <v>1.059092308198309</v>
+        <v>1.028673885475575</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.051128416934324</v>
+        <v>0.9975454750016225</v>
       </c>
       <c r="D20">
-        <v>1.059340187249156</v>
+        <v>1.037397318975517</v>
       </c>
       <c r="E20">
-        <v>1.048053987002899</v>
+        <v>1.004044825010719</v>
       </c>
       <c r="F20">
-        <v>1.067601335916653</v>
+        <v>1.035840740525227</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.05240489655171</v>
+        <v>1.053649737745227</v>
       </c>
       <c r="J20">
-        <v>1.057224365649229</v>
+        <v>1.025171343468322</v>
       </c>
       <c r="K20">
-        <v>1.062634162372416</v>
+        <v>1.050812981010776</v>
       </c>
       <c r="L20">
-        <v>1.051385949681531</v>
+        <v>1.018016921975964</v>
       </c>
       <c r="M20">
-        <v>1.070868063663388</v>
+        <v>1.049281349092446</v>
       </c>
       <c r="N20">
-        <v>1.05872574551378</v>
+        <v>1.026627204364843</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.049542546910422</v>
+        <v>0.9883395788133809</v>
       </c>
       <c r="D21">
-        <v>1.058364458275963</v>
+        <v>1.0317807953673</v>
       </c>
       <c r="E21">
-        <v>1.046681334781847</v>
+        <v>0.9963698347699285</v>
       </c>
       <c r="F21">
-        <v>1.066383070671478</v>
+        <v>1.029051774303697</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.051892287478566</v>
+        <v>1.050070939567821</v>
       </c>
       <c r="J21">
-        <v>1.056032310001895</v>
+        <v>1.018333038668688</v>
       </c>
       <c r="K21">
-        <v>1.061863305911798</v>
+        <v>1.046184088951985</v>
       </c>
       <c r="L21">
-        <v>1.050222169568841</v>
+        <v>1.011420309671285</v>
       </c>
       <c r="M21">
-        <v>1.069853687469011</v>
+        <v>1.04350289118755</v>
       </c>
       <c r="N21">
-        <v>1.057531997010697</v>
+        <v>1.01977918838803</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.048544309443231</v>
+        <v>0.9823383022857133</v>
       </c>
       <c r="D22">
-        <v>1.057750335830301</v>
+        <v>1.028135086580537</v>
       </c>
       <c r="E22">
-        <v>1.045817400254346</v>
+        <v>0.9913762220472828</v>
       </c>
       <c r="F22">
-        <v>1.065616658676261</v>
+        <v>1.02464483662693</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.051568156444444</v>
+        <v>1.047730053639712</v>
       </c>
       <c r="J22">
-        <v>1.055281251551425</v>
+        <v>1.013873745594671</v>
       </c>
       <c r="K22">
-        <v>1.061377307857607</v>
+        <v>1.043169053935896</v>
       </c>
       <c r="L22">
-        <v>1.049488971895735</v>
+        <v>1.007120475562306</v>
       </c>
       <c r="M22">
-        <v>1.069214833869165</v>
+        <v>1.039743389528681</v>
       </c>
       <c r="N22">
-        <v>1.056779871971079</v>
+        <v>1.015313562606359</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.04907360386037</v>
+        <v>0.9855409882221143</v>
       </c>
       <c r="D23">
-        <v>1.05807595526637</v>
+        <v>1.030079105650783</v>
       </c>
       <c r="E23">
-        <v>1.046275474427649</v>
+        <v>0.9940401851186036</v>
       </c>
       <c r="F23">
-        <v>1.066022990751364</v>
+        <v>1.026994809421156</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05174015879783</v>
+        <v>1.048980000170029</v>
       </c>
       <c r="J23">
-        <v>1.055679551643482</v>
+        <v>1.01625361855351</v>
       </c>
       <c r="K23">
-        <v>1.061635071303521</v>
+        <v>1.044777768551242</v>
       </c>
       <c r="L23">
-        <v>1.049877795734648</v>
+        <v>1.009415065893287</v>
       </c>
       <c r="M23">
-        <v>1.069553604962324</v>
+        <v>1.04174893054694</v>
       </c>
       <c r="N23">
-        <v>1.057178737694953</v>
+        <v>1.017696815257776</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.05115498540371</v>
+        <v>0.9976964305151367</v>
       </c>
       <c r="D24">
-        <v>1.059356534702852</v>
+        <v>1.037489651951355</v>
       </c>
       <c r="E24">
-        <v>1.048076984870367</v>
+        <v>1.004170823858396</v>
       </c>
       <c r="F24">
-        <v>1.067621753019338</v>
+        <v>1.035952349362603</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.052413459560331</v>
+        <v>1.053708282430916</v>
       </c>
       <c r="J24">
-        <v>1.05724432438552</v>
+        <v>1.025283443725252</v>
       </c>
       <c r="K24">
-        <v>1.062647063473809</v>
+        <v>1.050888909735532</v>
       </c>
       <c r="L24">
-        <v>1.051405435764128</v>
+        <v>1.018125088923183</v>
       </c>
       <c r="M24">
-        <v>1.07088505177222</v>
+        <v>1.049376207114286</v>
       </c>
       <c r="N24">
-        <v>1.058745732593767</v>
+        <v>1.026739463816997</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.053565555029832</v>
+        <v>1.010972831049248</v>
       </c>
       <c r="D25">
-        <v>1.060839832896591</v>
+        <v>1.045638430288694</v>
       </c>
       <c r="E25">
-        <v>1.050163789593386</v>
+        <v>1.015270270691942</v>
       </c>
       <c r="F25">
-        <v>1.069475194496039</v>
+        <v>1.045803402917955</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.053186862265363</v>
+        <v>1.058836088529878</v>
       </c>
       <c r="J25">
-        <v>1.059053476401751</v>
+        <v>1.035136475624901</v>
       </c>
       <c r="K25">
-        <v>1.063815693976133</v>
+        <v>1.057567294946139</v>
       </c>
       <c r="L25">
-        <v>1.053171851397408</v>
+        <v>1.027636071581903</v>
       </c>
       <c r="M25">
-        <v>1.072425521756394</v>
+        <v>1.057729981373998</v>
       </c>
       <c r="N25">
-        <v>1.060557453813373</v>
+        <v>1.036606488152102</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_29/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.020986263673582</v>
+        <v>0.9772851266661169</v>
       </c>
       <c r="D2">
-        <v>1.05181924646822</v>
+        <v>1.042433078880089</v>
       </c>
       <c r="E2">
-        <v>1.023664569479775</v>
+        <v>0.9868413670024763</v>
       </c>
       <c r="F2">
-        <v>1.053278226393389</v>
+        <v>1.038174280316578</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.062670517019769</v>
+        <v>1.053425407385782</v>
       </c>
       <c r="J2">
-        <v>1.04255689874223</v>
+        <v>1.000167131770677</v>
       </c>
       <c r="K2">
-        <v>1.06260094736407</v>
+        <v>1.053331288665953</v>
       </c>
       <c r="L2">
-        <v>1.034803777259425</v>
+        <v>0.9984871183760602</v>
       </c>
       <c r="M2">
-        <v>1.064042049113303</v>
+        <v>1.049126221106333</v>
       </c>
       <c r="N2">
-        <v>1.044037449121392</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.003997951617982</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.047452466261027</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.048780044321876</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.027962194016308</v>
+        <v>0.9812970240054512</v>
       </c>
       <c r="D3">
-        <v>1.056141395841194</v>
+        <v>1.044160654351842</v>
       </c>
       <c r="E3">
-        <v>1.029523648267184</v>
+        <v>0.9899885838095406</v>
       </c>
       <c r="F3">
-        <v>1.058507737013745</v>
+        <v>1.040340703867106</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.065320935613239</v>
+        <v>1.053751173771324</v>
       </c>
       <c r="J3">
-        <v>1.047718557214989</v>
+        <v>1.002310869974035</v>
       </c>
       <c r="K3">
-        <v>1.06610300369042</v>
+        <v>1.054258030278462</v>
       </c>
       <c r="L3">
-        <v>1.039792206344072</v>
+        <v>1.000751185804982</v>
       </c>
       <c r="M3">
-        <v>1.068442976202044</v>
+        <v>1.050482180572473</v>
       </c>
       <c r="N3">
-        <v>1.049206437741233</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.004736396458292</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.048525606264772</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.049432681146028</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.032351060674459</v>
+        <v>0.9838468593198707</v>
       </c>
       <c r="D4">
-        <v>1.058867029171945</v>
+        <v>1.045264257325627</v>
       </c>
       <c r="E4">
-        <v>1.033214410683832</v>
+        <v>0.9919954298908136</v>
       </c>
       <c r="F4">
-        <v>1.061806973059708</v>
+        <v>1.041724865483166</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.066978258743331</v>
+        <v>1.053949425694132</v>
       </c>
       <c r="J4">
-        <v>1.050961925782959</v>
+        <v>1.003672988364603</v>
       </c>
       <c r="K4">
-        <v>1.068303332770709</v>
+        <v>1.054845432223123</v>
       </c>
       <c r="L4">
-        <v>1.042927835773267</v>
+        <v>1.002191432819573</v>
       </c>
       <c r="M4">
-        <v>1.07121256174161</v>
+        <v>1.051344496542348</v>
       </c>
       <c r="N4">
-        <v>1.052454412264588</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.005205146185671</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.049208063735752</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.049848895505384</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.03416774767185</v>
+        <v>0.9849087425167771</v>
       </c>
       <c r="D5">
-        <v>1.059996627090992</v>
+        <v>1.045729363620913</v>
       </c>
       <c r="E5">
-        <v>1.034743143526631</v>
+        <v>0.9928328116377917</v>
       </c>
       <c r="F5">
-        <v>1.063174664519833</v>
+        <v>1.042304915217026</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.067661760863076</v>
+        <v>1.05403169096601</v>
       </c>
       <c r="J5">
-        <v>1.052303420935703</v>
+        <v>1.004240395356496</v>
       </c>
       <c r="K5">
-        <v>1.069213291796344</v>
+        <v>1.055093941273066</v>
       </c>
       <c r="L5">
-        <v>1.044225025516988</v>
+        <v>1.00279172148546</v>
       </c>
       <c r="M5">
-        <v>1.072359039919143</v>
+        <v>1.051705732417596</v>
       </c>
       <c r="N5">
-        <v>1.053797812494321</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.005400400863945</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.04949395425609</v>
+      </c>
+      <c r="Q5">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R5">
+        <v>1.050031681682585</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.034471155047962</v>
+        <v>0.9850871613449597</v>
       </c>
       <c r="D6">
-        <v>1.060185359244898</v>
+        <v>1.045812749332883</v>
       </c>
       <c r="E6">
-        <v>1.034998516593638</v>
+        <v>0.9929737108405517</v>
       </c>
       <c r="F6">
-        <v>1.063403200035973</v>
+        <v>1.042404849303742</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.06777576350059</v>
+        <v>1.054047645357983</v>
       </c>
       <c r="J6">
-        <v>1.052527403303186</v>
+        <v>1.004336049646155</v>
       </c>
       <c r="K6">
-        <v>1.069365213633844</v>
+        <v>1.05514092861171</v>
       </c>
       <c r="L6">
-        <v>1.044441625275006</v>
+        <v>1.002892867223419</v>
       </c>
       <c r="M6">
-        <v>1.072550514987992</v>
+        <v>1.051768931596587</v>
       </c>
       <c r="N6">
-        <v>1.054022112942457</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.005433438927677</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.049543971553175</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.050073532873603</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.032375444949129</v>
+        <v>0.9838630749038909</v>
       </c>
       <c r="D7">
-        <v>1.058882185833174</v>
+        <v>1.045285148833548</v>
       </c>
       <c r="E7">
-        <v>1.033234926022695</v>
+        <v>0.9920085157200247</v>
       </c>
       <c r="F7">
-        <v>1.06182532288097</v>
+        <v>1.04174003331164</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.066987443018111</v>
+        <v>1.053956716892282</v>
       </c>
       <c r="J7">
-        <v>1.050979936021682</v>
+        <v>1.003682524850491</v>
       </c>
       <c r="K7">
-        <v>1.068315549999785</v>
+        <v>1.0548632691365</v>
       </c>
       <c r="L7">
-        <v>1.042945250186063</v>
+        <v>1.002201323277557</v>
       </c>
       <c r="M7">
-        <v>1.071227950128133</v>
+        <v>1.051356657535746</v>
       </c>
       <c r="N7">
-        <v>1.052472448079916</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.005208779305227</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.049217688232138</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.0498813494199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.023370664368607</v>
+        <v>0.9786532041869807</v>
       </c>
       <c r="D8">
-        <v>1.053295131161446</v>
+        <v>1.043037802668751</v>
       </c>
       <c r="E8">
-        <v>1.025666214196151</v>
+        <v>0.9879135812662803</v>
       </c>
       <c r="F8">
-        <v>1.055063675205583</v>
+        <v>1.03891903087207</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.063578537880259</v>
+        <v>1.053545608287001</v>
       </c>
       <c r="J8">
-        <v>1.044321991085357</v>
+        <v>1.000899288484293</v>
       </c>
       <c r="K8">
-        <v>1.06379851886268</v>
+        <v>1.053664726691926</v>
       </c>
       <c r="L8">
-        <v>1.036509391060094</v>
+        <v>0.9992597985868337</v>
       </c>
       <c r="M8">
-        <v>1.065546063909111</v>
+        <v>1.049596414114286</v>
       </c>
       <c r="N8">
-        <v>1.045805048098104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.004250707848422</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.047824588863326</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.049038399012872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.00646961788375</v>
+        <v>0.9690989224708036</v>
       </c>
       <c r="D9">
-        <v>1.0428683386431</v>
+        <v>1.038943273001883</v>
       </c>
       <c r="E9">
-        <v>1.011501522972438</v>
+        <v>0.9804575824578036</v>
       </c>
       <c r="F9">
-        <v>1.042454312622237</v>
+        <v>1.033797528852142</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.057101809357353</v>
+        <v>1.052714789955308</v>
       </c>
       <c r="J9">
-        <v>1.031795967701763</v>
+        <v>0.9957921357291606</v>
       </c>
       <c r="K9">
-        <v>1.055302191395342</v>
+        <v>1.051434611234831</v>
       </c>
       <c r="L9">
-        <v>1.024410711958977</v>
+        <v>0.9938758842694791</v>
       </c>
       <c r="M9">
-        <v>1.054894203180787</v>
+        <v>1.046365071164707</v>
       </c>
       <c r="N9">
-        <v>1.033261236324551</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.002488706510138</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.045267218787226</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.047458481232471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9943891982500677</v>
+        <v>0.9624765089351686</v>
       </c>
       <c r="D10">
-        <v>1.035468474111232</v>
+        <v>1.036192310428955</v>
       </c>
       <c r="E10">
-        <v>1.001411433733572</v>
+        <v>0.9753322594417519</v>
       </c>
       <c r="F10">
-        <v>1.033509245260342</v>
+        <v>1.030381105085204</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.052424564677145</v>
+        <v>1.052121942554599</v>
       </c>
       <c r="J10">
-        <v>1.022827209853923</v>
+        <v>0.9922622618343292</v>
       </c>
       <c r="K10">
-        <v>1.049225562035464</v>
+        <v>1.049937466717585</v>
       </c>
       <c r="L10">
-        <v>1.015755250985015</v>
+        <v>0.9901616537178182</v>
       </c>
       <c r="M10">
-        <v>1.047298736827605</v>
+        <v>1.04422266203854</v>
       </c>
       <c r="N10">
-        <v>1.024279741811836</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.001271512291108</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.043622774042995</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.046416512419547</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9889348677663479</v>
+        <v>0.959702926559143</v>
       </c>
       <c r="D11">
-        <v>1.03214311308945</v>
+        <v>1.035413099027566</v>
       </c>
       <c r="E11">
-        <v>0.9968655908740692</v>
+        <v>0.9732204138848469</v>
       </c>
       <c r="F11">
-        <v>1.029489729486445</v>
+        <v>1.029627404097674</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.050302827672863</v>
+        <v>1.0520520719535</v>
       </c>
       <c r="J11">
-        <v>1.018775325848702</v>
+        <v>0.9908538108325432</v>
       </c>
       <c r="K11">
-        <v>1.046483290147463</v>
+        <v>1.049696711945248</v>
       </c>
       <c r="L11">
-        <v>1.011846860629857</v>
+        <v>0.9886656634935079</v>
       </c>
       <c r="M11">
-        <v>1.043876146776689</v>
+        <v>1.044011414554336</v>
       </c>
       <c r="N11">
-        <v>1.02022210366657</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.000807607500046</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.043889097168157</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>1.046278653643087</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9868723451504862</v>
+        <v>0.9587102382534507</v>
       </c>
       <c r="D12">
-        <v>1.030888299792063</v>
+        <v>1.035255727994697</v>
       </c>
       <c r="E12">
-        <v>0.9951482464132912</v>
+        <v>0.9724756758613863</v>
       </c>
       <c r="F12">
-        <v>1.027972952423416</v>
+        <v>1.02959449065732</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.049499143670171</v>
+        <v>1.052082879133944</v>
       </c>
       <c r="J12">
-        <v>1.01724287294317</v>
+        <v>0.9903710166119158</v>
       </c>
       <c r="K12">
-        <v>1.045446726305132</v>
+        <v>1.049737281132535</v>
       </c>
       <c r="L12">
-        <v>1.010368992429044</v>
+        <v>0.988149904313833</v>
       </c>
       <c r="M12">
-        <v>1.042583165430532</v>
+        <v>1.044175852658132</v>
       </c>
       <c r="N12">
-        <v>1.018687474502137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.000659831535168</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.044343681528443</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.046307336568951</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.987316468511493</v>
+        <v>0.9590277396715576</v>
       </c>
       <c r="D13">
-        <v>1.031158374219112</v>
+        <v>1.035587857570608</v>
       </c>
       <c r="E13">
-        <v>0.9955179657926843</v>
+        <v>0.9727352645374966</v>
       </c>
       <c r="F13">
-        <v>1.028299411768968</v>
+        <v>1.030136801070869</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.049672260277432</v>
+        <v>1.0522076416441</v>
       </c>
       <c r="J13">
-        <v>1.01757286593971</v>
+        <v>0.9905739672537828</v>
       </c>
       <c r="K13">
-        <v>1.045669907707978</v>
+        <v>1.050021743596172</v>
       </c>
       <c r="L13">
-        <v>1.010687216799631</v>
+        <v>0.9883582807347144</v>
       </c>
       <c r="M13">
-        <v>1.042861522902569</v>
+        <v>1.04466636531252</v>
       </c>
       <c r="N13">
-        <v>1.019017936126583</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.000747795893142</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.045006776656584</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.046506000239979</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.988765142910723</v>
+        <v>0.9598437110048353</v>
       </c>
       <c r="D14">
-        <v>1.032039798991103</v>
+        <v>1.036042960453797</v>
       </c>
       <c r="E14">
-        <v>0.9967242364888982</v>
+        <v>0.9733721016237258</v>
       </c>
       <c r="F14">
-        <v>1.029364847718961</v>
+        <v>1.03077608304983</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.050236719376063</v>
+        <v>1.05233696562938</v>
       </c>
       <c r="J14">
-        <v>1.018649224910134</v>
+        <v>0.9910262088106782</v>
       </c>
       <c r="K14">
-        <v>1.046397981785469</v>
+        <v>1.050331852171859</v>
       </c>
       <c r="L14">
-        <v>1.011725244798281</v>
+        <v>0.9888319347383443</v>
       </c>
       <c r="M14">
-        <v>1.043769720635353</v>
+        <v>1.045156284353429</v>
       </c>
       <c r="N14">
-        <v>1.020095823650206</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.000916087263411</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.045566593895676</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.046726653942782</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9896527818953113</v>
+        <v>0.9603275521135672</v>
       </c>
       <c r="D15">
-        <v>1.032580227979814</v>
+        <v>1.036270853492457</v>
       </c>
       <c r="E15">
-        <v>0.9974635692147152</v>
+        <v>0.9737464215253644</v>
       </c>
       <c r="F15">
-        <v>1.03001809423739</v>
+        <v>1.03107232878575</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.050582402656044</v>
+        <v>1.052394318647226</v>
       </c>
       <c r="J15">
-        <v>1.019308706724751</v>
+        <v>0.9912875002134263</v>
       </c>
       <c r="K15">
-        <v>1.046844151416764</v>
+        <v>1.050471390745968</v>
       </c>
       <c r="L15">
-        <v>1.012361283340576</v>
+        <v>0.9891062364004181</v>
       </c>
       <c r="M15">
-        <v>1.044326367843584</v>
+        <v>1.045362319211226</v>
       </c>
       <c r="N15">
-        <v>1.020756242004643</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.001009040394575</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.045766826723978</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.046831091697985</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9947462309605489</v>
+        <v>0.9630685902089668</v>
       </c>
       <c r="D16">
-        <v>1.035686496677856</v>
+        <v>1.037386918088925</v>
       </c>
       <c r="E16">
-        <v>1.00170921517437</v>
+        <v>0.9758567953774886</v>
       </c>
       <c r="F16">
-        <v>1.033772778814496</v>
+        <v>1.032452421641433</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.052563255324505</v>
+        <v>1.052644211775219</v>
       </c>
       <c r="J16">
-        <v>1.023092398533844</v>
+        <v>0.9927464117387178</v>
       </c>
       <c r="K16">
-        <v>1.0494051120618</v>
+        <v>1.051077634413438</v>
       </c>
       <c r="L16">
-        <v>1.016011090411466</v>
+        <v>0.9906380822486112</v>
       </c>
       <c r="M16">
-        <v>1.047522934104082</v>
+        <v>1.046224425434004</v>
       </c>
       <c r="N16">
-        <v>1.0245453070901</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.001508652897969</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.046409677355519</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.047262839163134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9978794076503055</v>
+        <v>0.9647456532969554</v>
       </c>
       <c r="D17">
-        <v>1.037601581124757</v>
+        <v>1.038005377500447</v>
       </c>
       <c r="E17">
-        <v>1.004323556628985</v>
+        <v>0.9771454986469214</v>
       </c>
       <c r="F17">
-        <v>1.036087645579665</v>
+        <v>1.033172112331101</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.053779239460213</v>
+        <v>1.05276541370791</v>
       </c>
       <c r="J17">
-        <v>1.025419321712324</v>
+        <v>0.9936294231821311</v>
       </c>
       <c r="K17">
-        <v>1.05098094566318</v>
+        <v>1.051378307728137</v>
       </c>
       <c r="L17">
-        <v>1.018256200549784</v>
+        <v>0.9915664786671612</v>
       </c>
       <c r="M17">
-        <v>1.049491191239759</v>
+        <v>1.046622482123962</v>
       </c>
       <c r="N17">
-        <v>1.026875534766395</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.001803866513124</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.04659583270431</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.047477974217157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9996855976056158</v>
+        <v>0.9656709785671678</v>
       </c>
       <c r="D18">
-        <v>1.038707030280183</v>
+        <v>1.038222657340629</v>
       </c>
       <c r="E18">
-        <v>1.005831568005348</v>
+        <v>0.9778487777894818</v>
       </c>
       <c r="F18">
-        <v>1.037423888134044</v>
+        <v>1.033343303657673</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.054479275041828</v>
+        <v>1.052772887929586</v>
       </c>
       <c r="J18">
-        <v>1.026760487948563</v>
+        <v>0.9940967084407673</v>
       </c>
       <c r="K18">
-        <v>1.051889481500682</v>
+        <v>1.051412695871006</v>
       </c>
       <c r="L18">
-        <v>1.019550394527216</v>
+        <v>0.9920611480335478</v>
       </c>
       <c r="M18">
-        <v>1.050626458536687</v>
+        <v>1.046610281454678</v>
       </c>
       <c r="N18">
-        <v>1.028218605612524</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.001949728784437</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.046349654908576</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.047490823602404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.000297926882796</v>
+        <v>0.9659047048267836</v>
       </c>
       <c r="D19">
-        <v>1.039082035111511</v>
+        <v>1.038083751977289</v>
       </c>
       <c r="E19">
-        <v>1.006342960516257</v>
+        <v>0.9780125266092308</v>
       </c>
       <c r="F19">
-        <v>1.037877191860732</v>
+        <v>1.033004226335217</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.054716434901606</v>
+        <v>1.052676608397368</v>
       </c>
       <c r="J19">
-        <v>1.02721512217886</v>
+        <v>0.9941781116202891</v>
       </c>
       <c r="K19">
-        <v>1.052197503682688</v>
+        <v>1.051214770296616</v>
       </c>
       <c r="L19">
-        <v>1.019989136233236</v>
+        <v>0.9921552538760918</v>
       </c>
       <c r="M19">
-        <v>1.05101143243685</v>
+        <v>1.046214961780994</v>
       </c>
       <c r="N19">
-        <v>1.028673885475575</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.001959804021274</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.045713366182155</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.04735718924449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9975454750016225</v>
+        <v>0.9641976427737909</v>
       </c>
       <c r="D20">
-        <v>1.037397318975517</v>
+        <v>1.036939003724883</v>
       </c>
       <c r="E20">
-        <v>1.004044825010719</v>
+        <v>0.9766623053392673</v>
       </c>
       <c r="F20">
-        <v>1.035840740525227</v>
+        <v>1.03128340346977</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.053649737745227</v>
+        <v>1.052293959915393</v>
       </c>
       <c r="J20">
-        <v>1.025171343468322</v>
+        <v>0.9931820314945793</v>
       </c>
       <c r="K20">
-        <v>1.050812981010776</v>
+        <v>1.050362000981934</v>
       </c>
       <c r="L20">
-        <v>1.018016921975964</v>
+        <v>0.9911283201580425</v>
       </c>
       <c r="M20">
-        <v>1.049281349092446</v>
+        <v>1.04479760638686</v>
       </c>
       <c r="N20">
-        <v>1.026627204364843</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.001589963610867</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.044067294912455</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.046758126009568</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9883395788133809</v>
+        <v>0.9591908744545067</v>
       </c>
       <c r="D21">
-        <v>1.0317807953673</v>
+        <v>1.034797458158899</v>
       </c>
       <c r="E21">
-        <v>0.9963698347699285</v>
+        <v>0.9727972248948115</v>
       </c>
       <c r="F21">
-        <v>1.029051774303697</v>
+        <v>1.028584579180954</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.050070939567821</v>
+        <v>1.051791729949918</v>
       </c>
       <c r="J21">
-        <v>1.018333038668688</v>
+        <v>0.9904997611974916</v>
       </c>
       <c r="K21">
-        <v>1.046184088951985</v>
+        <v>1.049148267640601</v>
       </c>
       <c r="L21">
-        <v>1.011420309671285</v>
+        <v>0.9883129629624632</v>
       </c>
       <c r="M21">
-        <v>1.04350289118755</v>
+        <v>1.043043916159746</v>
       </c>
       <c r="N21">
-        <v>1.01977918838803</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.000660527103862</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.042638759786875</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.04590316320222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9823383022857133</v>
+        <v>0.9559858965269313</v>
       </c>
       <c r="D22">
-        <v>1.028135086580537</v>
+        <v>1.03344632385984</v>
       </c>
       <c r="E22">
-        <v>0.9913762220472828</v>
+        <v>0.9703335099176782</v>
       </c>
       <c r="F22">
-        <v>1.02464483662693</v>
+        <v>1.026906391410853</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.047730053639712</v>
+        <v>1.051469021645476</v>
       </c>
       <c r="J22">
-        <v>1.013873745594671</v>
+        <v>0.9887872849589571</v>
       </c>
       <c r="K22">
-        <v>1.043169053935896</v>
+        <v>1.048383098123701</v>
       </c>
       <c r="L22">
-        <v>1.007120475562306</v>
+        <v>0.9865164992666942</v>
       </c>
       <c r="M22">
-        <v>1.039743389528681</v>
+        <v>1.041963029960374</v>
       </c>
       <c r="N22">
-        <v>1.015313562606359</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.00006758945136</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.041783312855609</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.045348857550817</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9855409882221143</v>
+        <v>0.9576895479628051</v>
       </c>
       <c r="D23">
-        <v>1.030079105650783</v>
+        <v>1.034152008777697</v>
       </c>
       <c r="E23">
-        <v>0.9940401851186036</v>
+        <v>0.9716418866302942</v>
       </c>
       <c r="F23">
-        <v>1.026994809421156</v>
+        <v>1.027792510014979</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.048980000170029</v>
+        <v>1.051636432737305</v>
       </c>
       <c r="J23">
-        <v>1.01625361855351</v>
+        <v>0.9896967402317852</v>
       </c>
       <c r="K23">
-        <v>1.044777768551242</v>
+        <v>1.048778095026438</v>
       </c>
       <c r="L23">
-        <v>1.009415065893287</v>
+        <v>0.987470462835939</v>
       </c>
       <c r="M23">
-        <v>1.04174893054694</v>
+        <v>1.042532246341677</v>
       </c>
       <c r="N23">
-        <v>1.017696815257776</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.000382109843823</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.04223380851632</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.045618638385407</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9976964305151367</v>
+        <v>0.9642606121990644</v>
       </c>
       <c r="D24">
-        <v>1.037489651951355</v>
+        <v>1.036912088377302</v>
       </c>
       <c r="E24">
-        <v>1.004170823858396</v>
+        <v>0.976708096740095</v>
       </c>
       <c r="F24">
-        <v>1.035952349362603</v>
+        <v>1.031242128061681</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.053708282430916</v>
+        <v>1.052273406092487</v>
       </c>
       <c r="J24">
-        <v>1.025283443725252</v>
+        <v>0.9932073894073461</v>
       </c>
       <c r="K24">
-        <v>1.050888909735532</v>
+        <v>1.050320577385585</v>
       </c>
       <c r="L24">
-        <v>1.018125088923183</v>
+        <v>0.9911569751585799</v>
       </c>
       <c r="M24">
-        <v>1.049376207114286</v>
+        <v>1.04474194530168</v>
       </c>
       <c r="N24">
-        <v>1.026739463816997</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.001596229902203</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.043982630790074</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.046701827665234</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.010972831049248</v>
+        <v>0.9716185170899517</v>
       </c>
       <c r="D25">
-        <v>1.045638430288694</v>
+        <v>1.040037551496448</v>
       </c>
       <c r="E25">
-        <v>1.015270270691942</v>
+        <v>0.982417737697367</v>
       </c>
       <c r="F25">
-        <v>1.045803402917955</v>
+        <v>1.035149384853283</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.058836088529878</v>
+        <v>1.052950372104605</v>
       </c>
       <c r="J25">
-        <v>1.035136475624901</v>
+        <v>0.9971402932779188</v>
       </c>
       <c r="K25">
-        <v>1.057567294946139</v>
+        <v>1.052044576987465</v>
       </c>
       <c r="L25">
-        <v>1.027636071581903</v>
+        <v>0.9952952687571411</v>
       </c>
       <c r="M25">
-        <v>1.057729981373998</v>
+        <v>1.047225499408393</v>
       </c>
       <c r="N25">
-        <v>1.036606488152102</v>
+        <v>1.002954817348646</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.045948185271226</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.04791793301167</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_29/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_29/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9772851266661169</v>
+        <v>0.978216284533846</v>
       </c>
       <c r="D2">
-        <v>1.042433078880089</v>
+        <v>1.039484350121008</v>
       </c>
       <c r="E2">
-        <v>0.9868413670024763</v>
+        <v>0.9876414582746897</v>
       </c>
       <c r="F2">
-        <v>1.038174280316578</v>
+        <v>1.036622703191802</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.053425407385782</v>
+        <v>1.052197908593544</v>
       </c>
       <c r="J2">
-        <v>1.000167131770677</v>
+        <v>1.001068654484837</v>
       </c>
       <c r="K2">
-        <v>1.053331288665953</v>
+        <v>1.050419703939411</v>
       </c>
       <c r="L2">
-        <v>0.9984871183760602</v>
+        <v>0.999275695248848</v>
       </c>
       <c r="M2">
-        <v>1.049126221106333</v>
+        <v>1.047594356440645</v>
       </c>
       <c r="N2">
-        <v>1.003997951617982</v>
+        <v>1.007486226525367</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.047452466261027</v>
+        <v>1.04624010863837</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.048780044321876</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.046730015009227</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.025451558978522</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9812970240054512</v>
+        <v>0.9821541242423003</v>
       </c>
       <c r="D3">
-        <v>1.044160654351842</v>
+        <v>1.041091241591889</v>
       </c>
       <c r="E3">
-        <v>0.9899885838095406</v>
+        <v>0.9907258858199658</v>
       </c>
       <c r="F3">
-        <v>1.040340703867106</v>
+        <v>1.038709419686669</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.053751173771324</v>
+        <v>1.052471216202762</v>
       </c>
       <c r="J3">
-        <v>1.002310869974035</v>
+        <v>1.003143397782214</v>
       </c>
       <c r="K3">
-        <v>1.054258030278462</v>
+        <v>1.051224021881134</v>
       </c>
       <c r="L3">
-        <v>1.000751185804982</v>
+        <v>1.001478822302819</v>
       </c>
       <c r="M3">
-        <v>1.050482180572473</v>
+        <v>1.048869851530268</v>
       </c>
       <c r="N3">
-        <v>1.004736396458292</v>
+        <v>1.008056342981943</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.048525606264772</v>
+        <v>1.047249568835333</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.049432681146028</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.047295818117499</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.02556731710929</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9838468593198707</v>
+        <v>0.9846575275706005</v>
       </c>
       <c r="D4">
-        <v>1.045264257325627</v>
+        <v>1.04211830373911</v>
       </c>
       <c r="E4">
-        <v>0.9919954298908136</v>
+        <v>0.9926932712706433</v>
       </c>
       <c r="F4">
-        <v>1.041724865483166</v>
+        <v>1.040043065030828</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.053949425694132</v>
+        <v>1.052636103022341</v>
       </c>
       <c r="J4">
-        <v>1.003672988364603</v>
+        <v>1.004462007825915</v>
       </c>
       <c r="K4">
-        <v>1.054845432223123</v>
+        <v>1.051733644178899</v>
       </c>
       <c r="L4">
-        <v>1.002191432819573</v>
+        <v>1.002880689430863</v>
       </c>
       <c r="M4">
-        <v>1.051344496542348</v>
+        <v>1.04968108181217</v>
       </c>
       <c r="N4">
-        <v>1.005205146185671</v>
+        <v>1.008418330434092</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.049208063735752</v>
+        <v>1.047891596994424</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.049848895505384</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.047657123983735</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.025638100262542</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9849087425167771</v>
+        <v>0.9857001969550098</v>
       </c>
       <c r="D5">
-        <v>1.045729363620913</v>
+        <v>1.042551468066874</v>
       </c>
       <c r="E5">
-        <v>0.9928328116377917</v>
+        <v>0.9935143002776995</v>
       </c>
       <c r="F5">
-        <v>1.042304915217026</v>
+        <v>1.040602086101423</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.05403169096601</v>
+        <v>1.0527044402488</v>
       </c>
       <c r="J5">
-        <v>1.004240395356496</v>
+        <v>1.005011353457593</v>
       </c>
       <c r="K5">
-        <v>1.055093941273066</v>
+        <v>1.051949666365827</v>
       </c>
       <c r="L5">
-        <v>1.00279172148546</v>
+        <v>1.003465054362593</v>
       </c>
       <c r="M5">
-        <v>1.051705732417596</v>
+        <v>1.050021032358114</v>
       </c>
       <c r="N5">
-        <v>1.005400400863945</v>
+        <v>1.00856912770722</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.04949395425609</v>
+        <v>1.048160642287379</v>
       </c>
       <c r="Q5">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.050031681682585</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.047817658153883</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.025668040833415</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9850871613449597</v>
+        <v>0.9858753698828908</v>
       </c>
       <c r="D6">
-        <v>1.045812749332883</v>
+        <v>1.042629356443615</v>
       </c>
       <c r="E6">
-        <v>0.9929737108405517</v>
+        <v>0.9936524318218752</v>
       </c>
       <c r="F6">
-        <v>1.042404849303742</v>
+        <v>1.040698457971487</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.054047645357983</v>
+        <v>1.052718018778999</v>
       </c>
       <c r="J6">
-        <v>1.004336049646155</v>
+        <v>1.00510395203643</v>
       </c>
       <c r="K6">
-        <v>1.05514092861171</v>
+        <v>1.051991064668774</v>
       </c>
       <c r="L6">
-        <v>1.002892867223419</v>
+        <v>1.003563503476288</v>
       </c>
       <c r="M6">
-        <v>1.051768931596587</v>
+        <v>1.05008062559852</v>
       </c>
       <c r="N6">
-        <v>1.005433438927677</v>
+        <v>1.008594636621563</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.049543971553175</v>
+        <v>1.048207805845706</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.050073532873603</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.047856433540584</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.025674422287075</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9838630749038909</v>
+        <v>0.9846842128139139</v>
       </c>
       <c r="D7">
-        <v>1.045285148833548</v>
+        <v>1.042139745493874</v>
       </c>
       <c r="E7">
-        <v>0.9920085157200247</v>
+        <v>0.9927157420584162</v>
       </c>
       <c r="F7">
-        <v>1.04174003331164</v>
+        <v>1.040060838973009</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.053956716892282</v>
+        <v>1.052643788134221</v>
       </c>
       <c r="J7">
-        <v>1.003682524850491</v>
+        <v>1.004481743745703</v>
       </c>
       <c r="K7">
-        <v>1.0548632691365</v>
+        <v>1.0517520123154</v>
       </c>
       <c r="L7">
-        <v>1.002201323277557</v>
+        <v>1.002899852713559</v>
       </c>
       <c r="M7">
-        <v>1.051356657535746</v>
+        <v>1.049695813612485</v>
       </c>
       <c r="N7">
-        <v>1.005208779305227</v>
+        <v>1.008450186547088</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.049217688232138</v>
+        <v>1.047903256108573</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.0498813494199</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.047691968258287</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.025642629398471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9786532041869807</v>
+        <v>0.9795923234858454</v>
       </c>
       <c r="D8">
-        <v>1.043037802668751</v>
+        <v>1.040051858093543</v>
       </c>
       <c r="E8">
-        <v>0.9879135812662803</v>
+        <v>0.9887220870767717</v>
       </c>
       <c r="F8">
-        <v>1.03891903087207</v>
+        <v>1.037349612205112</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.053545608287001</v>
+        <v>1.052302311997093</v>
       </c>
       <c r="J8">
-        <v>1.000899288484293</v>
+        <v>1.001809538361516</v>
       </c>
       <c r="K8">
-        <v>1.053664726691926</v>
+        <v>1.05071531346786</v>
       </c>
       <c r="L8">
-        <v>0.9992597985868337</v>
+        <v>1.000057023505686</v>
       </c>
       <c r="M8">
-        <v>1.049596414114286</v>
+        <v>1.048046353680703</v>
       </c>
       <c r="N8">
-        <v>1.004250707848422</v>
+        <v>1.007769887088379</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.047824588863326</v>
+        <v>1.046597831242225</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.049038399012872</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.046963909555043</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.025497219522846</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,105 +873,123 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9690989224708036</v>
+        <v>0.970223715521371</v>
       </c>
       <c r="D9">
-        <v>1.038943273001883</v>
+        <v>1.036246832292033</v>
       </c>
       <c r="E9">
-        <v>0.9804575824578036</v>
+        <v>0.9814232056328429</v>
       </c>
       <c r="F9">
-        <v>1.033797528852142</v>
+        <v>1.032420650048004</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.052714789955308</v>
+        <v>1.051596757362927</v>
       </c>
       <c r="J9">
-        <v>0.9957921357291606</v>
+        <v>0.9968736159712194</v>
       </c>
       <c r="K9">
-        <v>1.051434611234831</v>
+        <v>1.048777982562019</v>
       </c>
       <c r="L9">
-        <v>0.9938758842694791</v>
+        <v>0.9948250447734022</v>
       </c>
       <c r="M9">
-        <v>1.046365071164707</v>
+        <v>1.045008746643791</v>
       </c>
       <c r="N9">
-        <v>1.002488706510138</v>
+        <v>1.006421244897303</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.045267218787226</v>
+        <v>1.044193785119532</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.047458481232471</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.045590705090322</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.025202141599296</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C10">
-        <v>0.9624765089351686</v>
+        <v>0.9637828055758491</v>
       </c>
       <c r="D10">
-        <v>1.036192310428955</v>
+        <v>1.033698282123197</v>
       </c>
       <c r="E10">
-        <v>0.9753322594417519</v>
+        <v>0.9764532907107489</v>
       </c>
       <c r="F10">
-        <v>1.030381105085204</v>
+        <v>1.029150823115746</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.052121942554599</v>
+        <v>1.051091593412794</v>
       </c>
       <c r="J10">
-        <v>0.9922622618343292</v>
+        <v>0.9935108812561529</v>
       </c>
       <c r="K10">
-        <v>1.049937466717585</v>
+        <v>1.047484640321509</v>
       </c>
       <c r="L10">
-        <v>0.9901616537178182</v>
+        <v>0.9912611135208012</v>
       </c>
       <c r="M10">
-        <v>1.04422266203854</v>
+        <v>1.043012968908159</v>
       </c>
       <c r="N10">
-        <v>1.001271512291108</v>
+        <v>1.005615336962341</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.043622774042995</v>
+        <v>1.042665445546404</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.046416512419547</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.044694512017398</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.0249979921726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.959702926559143</v>
+        <v>0.961160883947767</v>
       </c>
       <c r="D11">
-        <v>1.035413099027566</v>
+        <v>1.032970122316763</v>
       </c>
       <c r="E11">
-        <v>0.9732204138848469</v>
+        <v>0.9744737932124192</v>
       </c>
       <c r="F11">
-        <v>1.029627404097674</v>
+        <v>1.028466285624718</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.0520520719535</v>
+        <v>1.051046804642842</v>
       </c>
       <c r="J11">
-        <v>0.9908538108325432</v>
+        <v>0.9922436908943376</v>
       </c>
       <c r="K11">
-        <v>1.049696711945248</v>
+        <v>1.047295950009077</v>
       </c>
       <c r="L11">
-        <v>0.9886656634935079</v>
+        <v>0.9898937040406879</v>
       </c>
       <c r="M11">
-        <v>1.044011414554336</v>
+        <v>1.04287062097755</v>
       </c>
       <c r="N11">
-        <v>1.000807607500046</v>
+        <v>1.005515472065685</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.043889097168157</v>
+        <v>1.042986743474906</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.046278653643087</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.044596698484092</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.024999524056141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9587102382534507</v>
+        <v>0.9602317416131323</v>
       </c>
       <c r="D12">
-        <v>1.035255727994697</v>
+        <v>1.032816382194893</v>
       </c>
       <c r="E12">
-        <v>0.9724756758613863</v>
+        <v>0.9737842426644902</v>
       </c>
       <c r="F12">
-        <v>1.02959449065732</v>
+        <v>1.028457818512844</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.052082879133944</v>
+        <v>1.051082519319352</v>
       </c>
       <c r="J12">
-        <v>0.9903710166119158</v>
+        <v>0.9918200225707052</v>
       </c>
       <c r="K12">
-        <v>1.049737281132535</v>
+        <v>1.047340767616743</v>
       </c>
       <c r="L12">
-        <v>0.988149904313833</v>
+        <v>0.9894315402825212</v>
       </c>
       <c r="M12">
-        <v>1.044175852658132</v>
+        <v>1.043059392227596</v>
       </c>
       <c r="N12">
-        <v>1.000659831535168</v>
+        <v>1.005516306133371</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.044343681528443</v>
+        <v>1.043460870804061</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.046307336568951</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.044628384579563</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.025023859404237</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9590277396715576</v>
+        <v>0.9605319958325459</v>
       </c>
       <c r="D13">
-        <v>1.035587857570608</v>
+        <v>1.033112236258442</v>
       </c>
       <c r="E13">
-        <v>0.9727352645374966</v>
+        <v>0.9740278733325055</v>
       </c>
       <c r="F13">
-        <v>1.030136801070869</v>
+        <v>1.028985379171778</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.0522076416441</v>
+        <v>1.051195541470624</v>
       </c>
       <c r="J13">
-        <v>0.9905739672537828</v>
+        <v>0.9920068790845084</v>
       </c>
       <c r="K13">
-        <v>1.050021743596172</v>
+        <v>1.047589412805482</v>
       </c>
       <c r="L13">
-        <v>0.9883582807347144</v>
+        <v>0.989624395342298</v>
       </c>
       <c r="M13">
-        <v>1.04466636531252</v>
+        <v>1.043535321671726</v>
       </c>
       <c r="N13">
-        <v>1.000747795893142</v>
+        <v>1.005557565842624</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.045006776656584</v>
+        <v>1.044112657426919</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.046506000239979</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.044801477731832</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.025074547275965</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9598437110048353</v>
+        <v>0.9612998929737164</v>
       </c>
       <c r="D14">
-        <v>1.036042960453797</v>
+        <v>1.033524477683961</v>
       </c>
       <c r="E14">
-        <v>0.9733721016237258</v>
+        <v>0.9746219237401296</v>
       </c>
       <c r="F14">
-        <v>1.03077608304983</v>
+        <v>1.029597128558181</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.05233696562938</v>
+        <v>1.051309638540082</v>
       </c>
       <c r="J14">
-        <v>0.9910262088106782</v>
+        <v>0.9924143266321862</v>
       </c>
       <c r="K14">
-        <v>1.050331852171859</v>
+        <v>1.047856881011926</v>
       </c>
       <c r="L14">
-        <v>0.9888319347383443</v>
+        <v>0.9900564668100558</v>
       </c>
       <c r="M14">
-        <v>1.045156284353429</v>
+        <v>1.043997934651966</v>
       </c>
       <c r="N14">
-        <v>1.000916087263411</v>
+        <v>1.005605881460411</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.045566593895676</v>
+        <v>1.044651011376287</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.046726653942782</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.044992120786686</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.025121913358136</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9603275521135672</v>
+        <v>0.9617553106496382</v>
       </c>
       <c r="D15">
-        <v>1.036270853492457</v>
+        <v>1.033732591543047</v>
       </c>
       <c r="E15">
-        <v>0.9737464215253644</v>
+        <v>0.974971180116199</v>
       </c>
       <c r="F15">
-        <v>1.03107232878575</v>
+        <v>1.02987790908735</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.052394318647226</v>
+        <v>1.051359314188991</v>
       </c>
       <c r="J15">
-        <v>0.9912875002134263</v>
+        <v>0.9926491201453179</v>
       </c>
       <c r="K15">
-        <v>1.050471390745968</v>
+        <v>1.047976660401394</v>
       </c>
       <c r="L15">
-        <v>0.9891062364004181</v>
+        <v>0.9903064076332659</v>
       </c>
       <c r="M15">
-        <v>1.045362319211226</v>
+        <v>1.044188617519454</v>
       </c>
       <c r="N15">
-        <v>1.001009040394575</v>
+        <v>1.005629942294475</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.045766826723978</v>
+        <v>1.044839134026789</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.046831091697985</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.045083162836713</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.025142228351879</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9630685902089668</v>
+        <v>0.9643472944756614</v>
       </c>
       <c r="D16">
-        <v>1.037386918088925</v>
+        <v>1.034757992099091</v>
       </c>
       <c r="E16">
-        <v>0.9758567953774886</v>
+        <v>0.9769513011978097</v>
       </c>
       <c r="F16">
-        <v>1.032452421641433</v>
+        <v>1.031174744179333</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.052644211775219</v>
+        <v>1.051569166046841</v>
       </c>
       <c r="J16">
-        <v>0.9927464117387178</v>
+        <v>0.9939689362415346</v>
       </c>
       <c r="K16">
-        <v>1.051077634413438</v>
+        <v>1.048491891384465</v>
       </c>
       <c r="L16">
-        <v>0.9906380822486112</v>
+        <v>0.9917116181767278</v>
       </c>
       <c r="M16">
-        <v>1.046224425434004</v>
+        <v>1.044967958835235</v>
       </c>
       <c r="N16">
-        <v>1.001508652897969</v>
+        <v>1.005779641857252</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.046409677355519</v>
+        <v>1.045416539441846</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.047262839163134</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.045450869121025</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.025227646222985</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9647456532969554</v>
+        <v>0.9659481786248841</v>
       </c>
       <c r="D17">
-        <v>1.038005377500447</v>
+        <v>1.035331051184173</v>
       </c>
       <c r="E17">
-        <v>0.9771454986469214</v>
+        <v>0.9781740435101272</v>
       </c>
       <c r="F17">
-        <v>1.033172112331101</v>
+        <v>1.031848973036294</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.05276541370791</v>
+        <v>1.05166813401694</v>
       </c>
       <c r="J17">
-        <v>0.9936294231821311</v>
+        <v>0.9947808748874989</v>
       </c>
       <c r="K17">
-        <v>1.051378307728137</v>
+        <v>1.048746715428615</v>
       </c>
       <c r="L17">
-        <v>0.9915664786671612</v>
+        <v>0.9925758982187897</v>
       </c>
       <c r="M17">
-        <v>1.046622482123962</v>
+        <v>1.045320704805536</v>
       </c>
       <c r="N17">
-        <v>1.001803866513124</v>
+        <v>1.005900290072707</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.04659583270431</v>
+        <v>1.045566778537911</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.047477974217157</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.045633840129669</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.025267560226014</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9656709785671678</v>
+        <v>0.9668371147418857</v>
       </c>
       <c r="D18">
-        <v>1.038222657340629</v>
+        <v>1.035538279301989</v>
       </c>
       <c r="E18">
-        <v>0.9778487777894818</v>
+        <v>0.9788463013207126</v>
       </c>
       <c r="F18">
-        <v>1.033343303657673</v>
+        <v>1.031999653049139</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.052772887929586</v>
+        <v>1.05166725359639</v>
       </c>
       <c r="J18">
-        <v>0.9940967084407673</v>
+        <v>0.9952142919711027</v>
       </c>
       <c r="K18">
-        <v>1.051412695871006</v>
+        <v>1.048770531144515</v>
       </c>
       <c r="L18">
-        <v>0.9920611480335478</v>
+        <v>0.9930404464978158</v>
       </c>
       <c r="M18">
-        <v>1.046610281454678</v>
+        <v>1.045287981677877</v>
       </c>
       <c r="N18">
-        <v>1.001949728784437</v>
+        <v>1.00596663814143</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.046349654908576</v>
+        <v>1.045304161703455</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.047490823602404</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.045638072299185</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.025263360109368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9659047048267836</v>
+        <v>0.9670636058591037</v>
       </c>
       <c r="D19">
-        <v>1.038083751977289</v>
+        <v>1.035421614836916</v>
       </c>
       <c r="E19">
-        <v>0.9780125266092308</v>
+        <v>0.97900439428959</v>
       </c>
       <c r="F19">
-        <v>1.033004226335217</v>
+        <v>1.031662970041712</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.052676608397368</v>
+        <v>1.051576795246864</v>
       </c>
       <c r="J19">
-        <v>0.9941781116202891</v>
+        <v>0.9952890785882033</v>
       </c>
       <c r="K19">
-        <v>1.051214770296616</v>
+        <v>1.048594287449688</v>
       </c>
       <c r="L19">
-        <v>0.9921552538760918</v>
+        <v>0.9931291054726173</v>
       </c>
       <c r="M19">
-        <v>1.046214961780994</v>
+        <v>1.04489492268927</v>
       </c>
       <c r="N19">
-        <v>1.001959804021274</v>
+        <v>1.005962311637805</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.045713366182155</v>
+        <v>1.044669322691911</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.04735718924449</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.045520397349095</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.025218246558973</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9641976427737909</v>
+        <v>0.9654256859614788</v>
       </c>
       <c r="D20">
-        <v>1.036939003724883</v>
+        <v>1.034386656647899</v>
       </c>
       <c r="E20">
-        <v>0.9766623053392673</v>
+        <v>0.9777150036992038</v>
       </c>
       <c r="F20">
-        <v>1.03128340346977</v>
+        <v>1.030005418127958</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.052293959915393</v>
+        <v>1.051238218082014</v>
       </c>
       <c r="J20">
-        <v>0.9931820314945793</v>
+        <v>0.994357670266062</v>
       </c>
       <c r="K20">
-        <v>1.050362000981934</v>
+        <v>1.047850656152048</v>
       </c>
       <c r="L20">
-        <v>0.9911283201580425</v>
+        <v>0.9921613629805568</v>
       </c>
       <c r="M20">
-        <v>1.04479760638686</v>
+        <v>1.043540408861447</v>
       </c>
       <c r="N20">
-        <v>1.001589963610867</v>
+        <v>1.005749176613226</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.044067294912455</v>
+        <v>1.043072360325046</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.046758126009568</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.044998887078861</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.025059750080725</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9591908744545067</v>
+        <v>0.9607080720322982</v>
       </c>
       <c r="D21">
-        <v>1.034797458158899</v>
+        <v>1.032429297057788</v>
       </c>
       <c r="E21">
-        <v>0.9727972248948115</v>
+        <v>0.974104335839467</v>
       </c>
       <c r="F21">
-        <v>1.028584579180954</v>
+        <v>1.027467224782268</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.051791729949918</v>
+        <v>1.050816547722506</v>
       </c>
       <c r="J21">
-        <v>0.9904997611974916</v>
+        <v>0.9919456535037414</v>
       </c>
       <c r="K21">
-        <v>1.049148267640601</v>
+        <v>1.046821274455045</v>
       </c>
       <c r="L21">
-        <v>0.9883129629624632</v>
+        <v>0.9895934978144236</v>
       </c>
       <c r="M21">
-        <v>1.043043916159746</v>
+        <v>1.041946260440517</v>
       </c>
       <c r="N21">
-        <v>1.000660527103862</v>
+        <v>1.005507376971231</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.042638759786875</v>
+        <v>1.041770040928458</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.04590316320222</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.044274586937405</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.024887047782906</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9559858965269313</v>
+        <v>0.9576870050434314</v>
       </c>
       <c r="D22">
-        <v>1.03344632385984</v>
+        <v>1.031194586961474</v>
       </c>
       <c r="E22">
-        <v>0.9703335099176782</v>
+        <v>0.971802676074319</v>
       </c>
       <c r="F22">
-        <v>1.026906391410853</v>
+        <v>1.025892137089169</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.051469021645476</v>
+        <v>1.050544737071383</v>
       </c>
       <c r="J22">
-        <v>0.9887872849589571</v>
+        <v>0.9904036277526221</v>
       </c>
       <c r="K22">
-        <v>1.048383098123701</v>
+        <v>1.046172407762253</v>
       </c>
       <c r="L22">
-        <v>0.9865164992666942</v>
+        <v>0.9879542158733456</v>
       </c>
       <c r="M22">
-        <v>1.041963029960374</v>
+        <v>1.040967543442726</v>
       </c>
       <c r="N22">
-        <v>1.00006758945136</v>
+        <v>1.00534459563631</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.041783312855609</v>
+        <v>1.040995452992778</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.045348857550817</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.043801194010414</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.024776601007271</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9576895479628051</v>
+        <v>0.9592750580780782</v>
       </c>
       <c r="D23">
-        <v>1.034152008777697</v>
+        <v>1.031835941898388</v>
       </c>
       <c r="E23">
-        <v>0.9716418866302942</v>
+        <v>0.9730087144606419</v>
       </c>
       <c r="F23">
-        <v>1.027792510014979</v>
+        <v>1.026717729760396</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.051636432737305</v>
+        <v>1.050683871098607</v>
       </c>
       <c r="J23">
-        <v>0.9896967402317852</v>
+        <v>0.9912056400967137</v>
       </c>
       <c r="K23">
-        <v>1.048778095026438</v>
+        <v>1.04650320782279</v>
       </c>
       <c r="L23">
-        <v>0.987470462835939</v>
+        <v>0.9888088137115039</v>
       </c>
       <c r="M23">
-        <v>1.042532246341677</v>
+        <v>1.041476854216878</v>
       </c>
       <c r="N23">
-        <v>1.000382109843823</v>
+        <v>1.005386003980861</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.04223380851632</v>
+        <v>1.041398537932956</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.045618638385407</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.044024638843005</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.02483195840599</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9642606121990644</v>
+        <v>0.9654866268877661</v>
       </c>
       <c r="D24">
-        <v>1.036912088377302</v>
+        <v>1.034362702896291</v>
       </c>
       <c r="E24">
-        <v>0.976708096740095</v>
+        <v>0.9777591085195343</v>
       </c>
       <c r="F24">
-        <v>1.031242128061681</v>
+        <v>1.029964454542768</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.052273406092487</v>
+        <v>1.051218735668809</v>
       </c>
       <c r="J24">
-        <v>0.9932073894073461</v>
+        <v>0.9943811700166336</v>
       </c>
       <c r="K24">
-        <v>1.050320577385585</v>
+        <v>1.047812096886847</v>
       </c>
       <c r="L24">
-        <v>0.9911569751585799</v>
+        <v>0.9921883907234457</v>
       </c>
       <c r="M24">
-        <v>1.04474194530168</v>
+        <v>1.043485030094287</v>
       </c>
       <c r="N24">
-        <v>1.001596229902203</v>
+        <v>1.005749783537115</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.043982630790074</v>
+        <v>1.042987870774518</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.046701827665234</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.044941921040519</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.025048328655335</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9716185170899517</v>
+        <v>0.9726802334727971</v>
       </c>
       <c r="D25">
-        <v>1.040037551496448</v>
+        <v>1.037262197398163</v>
       </c>
       <c r="E25">
-        <v>0.982417737697367</v>
+        <v>0.9833293797371704</v>
       </c>
       <c r="F25">
-        <v>1.035149384853283</v>
+        <v>1.03371755998256</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.052950372104605</v>
+        <v>1.051798224260144</v>
       </c>
       <c r="J25">
-        <v>0.9971402932779188</v>
+        <v>0.9981633418314149</v>
       </c>
       <c r="K25">
-        <v>1.052044576987465</v>
+        <v>1.049308348576621</v>
       </c>
       <c r="L25">
-        <v>0.9952952687571411</v>
+        <v>0.9961921183335203</v>
       </c>
       <c r="M25">
-        <v>1.047225499408393</v>
+        <v>1.04581406842332</v>
       </c>
       <c r="N25">
-        <v>1.002954817348646</v>
+        <v>1.00674349393841</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.045948185271226</v>
+        <v>1.044831139790643</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.04791793301167</v>
+        <v>1.045996706278609</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.025287294701152</v>
       </c>
     </row>
   </sheetData>
